--- a/src/main/resources/testData/ecommerce.xlsx
+++ b/src/main/resources/testData/ecommerce.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="14840" firstSheet="3" activeTab="7"/>
+    <workbookView windowHeight="17160" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="newUsers" sheetId="3" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="contactUs" sheetId="7" r:id="rId6"/>
     <sheet name="searchKeywords" sheetId="10" r:id="rId7"/>
     <sheet name="dresses" sheetId="11" r:id="rId8"/>
+    <sheet name="ProductPage" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="396">
   <si>
     <t>title</t>
   </si>
@@ -1190,6 +1191,33 @@
   <si>
     <t>casual dresses,evening dresses, summer dresses</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>itemPrice</t>
+  </si>
+  <si>
+    <t>Printed Summer Dress</t>
+  </si>
+  <si>
+    <t>demo_5</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Long printed dress with thin adjustable straps. V-neckline and wiring under the bust with ruffles at the bottom of the dress.</t>
+  </si>
 </sst>
 </file>
 
@@ -1197,15 +1225,29 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="d\-mm\-yyyy"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF3A3939"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF666666"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1235,13 +1277,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1251,14 +1286,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1272,6 +1322,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -1279,9 +1337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1295,9 +1353,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1317,51 +1404,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1372,13 +1414,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,25 +1438,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,7 +1474,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,121 +1588,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,15 +1662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1646,10 +1679,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1663,164 +1694,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1829,13 +1880,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1856,39 +1904,39 @@
     <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
     <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
-    <cellStyle name="Bad" xfId="22" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
-    <cellStyle name="Total" xfId="24" builtinId="25"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="Currency" xfId="26" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
-    <cellStyle name="Note" xfId="28" builtinId="10"/>
-    <cellStyle name="Input" xfId="29" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
-    <cellStyle name="Good" xfId="32" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="Title" xfId="38" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
-    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
-    <cellStyle name="Link" xfId="43" builtinId="8"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2155,7 +2203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:V50"/>
   <sheetViews>
@@ -2260,13 +2308,13 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="9">
         <v>18395</v>
       </c>
       <c r="G2" t="s">
@@ -2293,7 +2341,7 @@
       <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="3">
         <v>12345</v>
       </c>
       <c r="P2" t="s">
@@ -2328,13 +2376,13 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <v>18396</v>
       </c>
       <c r="G3" t="s">
@@ -2361,7 +2409,7 @@
       <c r="N3" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="3">
         <v>12346</v>
       </c>
       <c r="P3" t="s">
@@ -2396,13 +2444,13 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="9">
         <v>18397</v>
       </c>
       <c r="G4" t="s">
@@ -2429,7 +2477,7 @@
       <c r="N4" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="3">
         <v>12347</v>
       </c>
       <c r="P4" t="s">
@@ -2464,13 +2512,13 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <v>18398</v>
       </c>
       <c r="G5" t="s">
@@ -2497,7 +2545,7 @@
       <c r="N5" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="3">
         <v>12348</v>
       </c>
       <c r="P5" t="s">
@@ -2532,13 +2580,13 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E6" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="9">
         <v>18399</v>
       </c>
       <c r="G6" t="s">
@@ -2565,7 +2613,7 @@
       <c r="N6" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="3">
         <v>12349</v>
       </c>
       <c r="P6" t="s">
@@ -2600,13 +2648,13 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E7" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="9">
         <v>18400</v>
       </c>
       <c r="G7" t="s">
@@ -2633,7 +2681,7 @@
       <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="3">
         <v>12350</v>
       </c>
       <c r="P7" t="s">
@@ -2668,13 +2716,13 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>85</v>
       </c>
       <c r="E8" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="9">
         <v>18401</v>
       </c>
       <c r="G8" t="s">
@@ -2701,7 +2749,7 @@
       <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="3">
         <v>12351</v>
       </c>
       <c r="P8" t="s">
@@ -2736,13 +2784,13 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E9" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="9">
         <v>18402</v>
       </c>
       <c r="G9" t="s">
@@ -2769,7 +2817,7 @@
       <c r="N9" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="3">
         <v>12352</v>
       </c>
       <c r="P9" t="s">
@@ -2804,13 +2852,13 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>97</v>
       </c>
       <c r="E10" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="9">
         <v>18403</v>
       </c>
       <c r="G10" t="s">
@@ -2837,7 +2885,7 @@
       <c r="N10" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="3">
         <v>12353</v>
       </c>
       <c r="P10" t="s">
@@ -2872,13 +2920,13 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="8" t="s">
         <v>103</v>
       </c>
       <c r="E11" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="9">
         <v>18404</v>
       </c>
       <c r="G11" t="s">
@@ -2905,7 +2953,7 @@
       <c r="N11" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="3">
         <v>12354</v>
       </c>
       <c r="P11" t="s">
@@ -2940,13 +2988,13 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="8" t="s">
         <v>109</v>
       </c>
       <c r="E12" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="9">
         <v>18405</v>
       </c>
       <c r="G12" t="s">
@@ -2973,7 +3021,7 @@
       <c r="N12" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="3">
         <v>12355</v>
       </c>
       <c r="P12" t="s">
@@ -3008,13 +3056,13 @@
       <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="8" t="s">
         <v>115</v>
       </c>
       <c r="E13" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="9">
         <v>18406</v>
       </c>
       <c r="G13" t="s">
@@ -3041,7 +3089,7 @@
       <c r="N13" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="3">
         <v>12356</v>
       </c>
       <c r="P13" t="s">
@@ -3076,13 +3124,13 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E14" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="9">
         <v>18407</v>
       </c>
       <c r="G14" t="s">
@@ -3109,7 +3157,7 @@
       <c r="N14" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="3">
         <v>12357</v>
       </c>
       <c r="P14" t="s">
@@ -3144,13 +3192,13 @@
       <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E15" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="9">
         <v>18408</v>
       </c>
       <c r="G15" t="s">
@@ -3177,7 +3225,7 @@
       <c r="N15" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="3">
         <v>12358</v>
       </c>
       <c r="P15" t="s">
@@ -3212,13 +3260,13 @@
       <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="8" t="s">
         <v>133</v>
       </c>
       <c r="E16" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="9">
         <v>18409</v>
       </c>
       <c r="G16" t="s">
@@ -3245,7 +3293,7 @@
       <c r="N16" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="3">
         <v>12359</v>
       </c>
       <c r="P16" t="s">
@@ -3280,13 +3328,13 @@
       <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="8" t="s">
         <v>139</v>
       </c>
       <c r="E17" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="9">
         <v>18410</v>
       </c>
       <c r="G17" t="s">
@@ -3313,7 +3361,7 @@
       <c r="N17" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="3">
         <v>12360</v>
       </c>
       <c r="P17" t="s">
@@ -3348,13 +3396,13 @@
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E18" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="9">
         <v>18411</v>
       </c>
       <c r="G18" t="s">
@@ -3381,7 +3429,7 @@
       <c r="N18" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="3">
         <v>12361</v>
       </c>
       <c r="P18" t="s">
@@ -3416,13 +3464,13 @@
       <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>151</v>
       </c>
       <c r="E19" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="9">
         <v>18412</v>
       </c>
       <c r="G19" t="s">
@@ -3449,7 +3497,7 @@
       <c r="N19" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="3">
         <v>12362</v>
       </c>
       <c r="P19" t="s">
@@ -3484,13 +3532,13 @@
       <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="8" t="s">
         <v>157</v>
       </c>
       <c r="E20" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="9">
         <v>18413</v>
       </c>
       <c r="G20" t="s">
@@ -3517,7 +3565,7 @@
       <c r="N20" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="3">
         <v>12363</v>
       </c>
       <c r="P20" t="s">
@@ -3552,13 +3600,13 @@
       <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="8" t="s">
         <v>163</v>
       </c>
       <c r="E21" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="9">
         <v>18414</v>
       </c>
       <c r="G21" t="s">
@@ -3585,7 +3633,7 @@
       <c r="N21" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="3">
         <v>12364</v>
       </c>
       <c r="P21" t="s">
@@ -3620,13 +3668,13 @@
       <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="5" t="s">
         <v>169</v>
       </c>
       <c r="E22" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="9">
         <v>18415</v>
       </c>
       <c r="G22" t="s">
@@ -3653,7 +3701,7 @@
       <c r="N22" t="s">
         <v>33</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="3">
         <v>12365</v>
       </c>
       <c r="P22" t="s">
@@ -3688,13 +3736,13 @@
       <c r="C23" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="8" t="s">
         <v>175</v>
       </c>
       <c r="E23" t="s">
         <v>176</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="9">
         <v>18416</v>
       </c>
       <c r="G23" t="s">
@@ -3721,7 +3769,7 @@
       <c r="N23" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="3">
         <v>12366</v>
       </c>
       <c r="P23" t="s">
@@ -3756,13 +3804,13 @@
       <c r="C24" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="8" t="s">
         <v>181</v>
       </c>
       <c r="E24" t="s">
         <v>182</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="9">
         <v>18417</v>
       </c>
       <c r="G24" t="s">
@@ -3789,7 +3837,7 @@
       <c r="N24" t="s">
         <v>33</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="3">
         <v>12367</v>
       </c>
       <c r="P24" t="s">
@@ -3824,13 +3872,13 @@
       <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="8" t="s">
         <v>187</v>
       </c>
       <c r="E25" t="s">
         <v>188</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="9">
         <v>18418</v>
       </c>
       <c r="G25" t="s">
@@ -3857,7 +3905,7 @@
       <c r="N25" t="s">
         <v>33</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="3">
         <v>12368</v>
       </c>
       <c r="P25" t="s">
@@ -3892,13 +3940,13 @@
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="5" t="s">
         <v>193</v>
       </c>
       <c r="E26" t="s">
         <v>194</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="9">
         <v>18419</v>
       </c>
       <c r="G26" t="s">
@@ -3925,7 +3973,7 @@
       <c r="N26" t="s">
         <v>33</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="3">
         <v>12369</v>
       </c>
       <c r="P26" t="s">
@@ -3960,13 +4008,13 @@
       <c r="C27" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="8" t="s">
         <v>199</v>
       </c>
       <c r="E27" t="s">
         <v>200</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="9">
         <v>18420</v>
       </c>
       <c r="G27" t="s">
@@ -3993,7 +4041,7 @@
       <c r="N27" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="3">
         <v>12370</v>
       </c>
       <c r="P27" t="s">
@@ -4028,13 +4076,13 @@
       <c r="C28" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="8" t="s">
         <v>205</v>
       </c>
       <c r="E28" t="s">
         <v>206</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="9">
         <v>18421</v>
       </c>
       <c r="G28" t="s">
@@ -4061,7 +4109,7 @@
       <c r="N28" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="3">
         <v>12371</v>
       </c>
       <c r="P28" t="s">
@@ -4096,13 +4144,13 @@
       <c r="C29" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E29" t="s">
         <v>212</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="9">
         <v>18422</v>
       </c>
       <c r="G29" t="s">
@@ -4129,7 +4177,7 @@
       <c r="N29" t="s">
         <v>33</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="3">
         <v>12372</v>
       </c>
       <c r="P29" t="s">
@@ -4164,13 +4212,13 @@
       <c r="C30" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="5" t="s">
         <v>217</v>
       </c>
       <c r="E30" t="s">
         <v>218</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="9">
         <v>18423</v>
       </c>
       <c r="G30" t="s">
@@ -4197,7 +4245,7 @@
       <c r="N30" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="3">
         <v>12373</v>
       </c>
       <c r="P30" t="s">
@@ -4232,13 +4280,13 @@
       <c r="C31" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="8" t="s">
         <v>223</v>
       </c>
       <c r="E31" t="s">
         <v>224</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="9">
         <v>18424</v>
       </c>
       <c r="G31" t="s">
@@ -4265,7 +4313,7 @@
       <c r="N31" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="3">
         <v>12374</v>
       </c>
       <c r="P31" t="s">
@@ -4300,13 +4348,13 @@
       <c r="C32" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E32" t="s">
         <v>230</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="9">
         <v>18425</v>
       </c>
       <c r="G32" t="s">
@@ -4333,7 +4381,7 @@
       <c r="N32" t="s">
         <v>33</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="3">
         <v>12375</v>
       </c>
       <c r="P32" t="s">
@@ -4368,13 +4416,13 @@
       <c r="C33" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="8" t="s">
         <v>235</v>
       </c>
       <c r="E33" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="9">
         <v>18426</v>
       </c>
       <c r="G33" t="s">
@@ -4401,7 +4449,7 @@
       <c r="N33" t="s">
         <v>33</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="3">
         <v>12376</v>
       </c>
       <c r="P33" t="s">
@@ -4436,13 +4484,13 @@
       <c r="C34" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E34" t="s">
         <v>242</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="9">
         <v>18427</v>
       </c>
       <c r="G34" t="s">
@@ -4469,7 +4517,7 @@
       <c r="N34" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="3">
         <v>12377</v>
       </c>
       <c r="P34" t="s">
@@ -4504,13 +4552,13 @@
       <c r="C35" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="8" t="s">
         <v>247</v>
       </c>
       <c r="E35" t="s">
         <v>248</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="9">
         <v>18428</v>
       </c>
       <c r="G35" t="s">
@@ -4537,7 +4585,7 @@
       <c r="N35" t="s">
         <v>33</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="3">
         <v>12378</v>
       </c>
       <c r="P35" t="s">
@@ -4572,13 +4620,13 @@
       <c r="C36" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="8" t="s">
         <v>253</v>
       </c>
       <c r="E36" t="s">
         <v>254</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="9">
         <v>18429</v>
       </c>
       <c r="G36" t="s">
@@ -4605,7 +4653,7 @@
       <c r="N36" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="3">
         <v>12379</v>
       </c>
       <c r="P36" t="s">
@@ -4640,13 +4688,13 @@
       <c r="C37" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="8" t="s">
         <v>259</v>
       </c>
       <c r="E37" t="s">
         <v>260</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="9">
         <v>18430</v>
       </c>
       <c r="G37" t="s">
@@ -4673,7 +4721,7 @@
       <c r="N37" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="3">
         <v>12380</v>
       </c>
       <c r="P37" t="s">
@@ -4708,13 +4756,13 @@
       <c r="C38" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="5" t="s">
         <v>265</v>
       </c>
       <c r="E38" t="s">
         <v>266</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="9">
         <v>18431</v>
       </c>
       <c r="G38" t="s">
@@ -4741,7 +4789,7 @@
       <c r="N38" t="s">
         <v>33</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="3">
         <v>12381</v>
       </c>
       <c r="P38" t="s">
@@ -4776,13 +4824,13 @@
       <c r="C39" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="8" t="s">
         <v>271</v>
       </c>
       <c r="E39" t="s">
         <v>272</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="9">
         <v>18432</v>
       </c>
       <c r="G39" t="s">
@@ -4809,7 +4857,7 @@
       <c r="N39" t="s">
         <v>33</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="3">
         <v>12382</v>
       </c>
       <c r="P39" t="s">
@@ -4844,13 +4892,13 @@
       <c r="C40" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="8" t="s">
         <v>277</v>
       </c>
       <c r="E40" t="s">
         <v>278</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="9">
         <v>18433</v>
       </c>
       <c r="G40" t="s">
@@ -4877,7 +4925,7 @@
       <c r="N40" t="s">
         <v>33</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="3">
         <v>12383</v>
       </c>
       <c r="P40" t="s">
@@ -4912,13 +4960,13 @@
       <c r="C41" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="8" t="s">
         <v>283</v>
       </c>
       <c r="E41" t="s">
         <v>284</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="9">
         <v>18434</v>
       </c>
       <c r="G41" t="s">
@@ -4945,7 +4993,7 @@
       <c r="N41" t="s">
         <v>33</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="3">
         <v>12384</v>
       </c>
       <c r="P41" t="s">
@@ -4980,13 +5028,13 @@
       <c r="C42" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="5" t="s">
         <v>289</v>
       </c>
       <c r="E42" t="s">
         <v>290</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="9">
         <v>18435</v>
       </c>
       <c r="G42" t="s">
@@ -5013,7 +5061,7 @@
       <c r="N42" t="s">
         <v>33</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O42" s="3">
         <v>12385</v>
       </c>
       <c r="P42" t="s">
@@ -5048,13 +5096,13 @@
       <c r="C43" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="8" t="s">
         <v>295</v>
       </c>
       <c r="E43" t="s">
         <v>296</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="9">
         <v>18436</v>
       </c>
       <c r="G43" t="s">
@@ -5081,7 +5129,7 @@
       <c r="N43" t="s">
         <v>33</v>
       </c>
-      <c r="O43" s="7">
+      <c r="O43" s="3">
         <v>12386</v>
       </c>
       <c r="P43" t="s">
@@ -5116,13 +5164,13 @@
       <c r="C44" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E44" t="s">
         <v>302</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="9">
         <v>18437</v>
       </c>
       <c r="G44" t="s">
@@ -5149,7 +5197,7 @@
       <c r="N44" t="s">
         <v>33</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="3">
         <v>12387</v>
       </c>
       <c r="P44" t="s">
@@ -5184,13 +5232,13 @@
       <c r="C45" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="8" t="s">
         <v>307</v>
       </c>
       <c r="E45" t="s">
         <v>308</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="9">
         <v>18438</v>
       </c>
       <c r="G45" t="s">
@@ -5217,7 +5265,7 @@
       <c r="N45" t="s">
         <v>33</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="3">
         <v>12388</v>
       </c>
       <c r="P45" t="s">
@@ -5252,13 +5300,13 @@
       <c r="C46" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="5" t="s">
         <v>313</v>
       </c>
       <c r="E46" t="s">
         <v>314</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="9">
         <v>18439</v>
       </c>
       <c r="G46" t="s">
@@ -5285,7 +5333,7 @@
       <c r="N46" t="s">
         <v>33</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="3">
         <v>12389</v>
       </c>
       <c r="P46" t="s">
@@ -5320,13 +5368,13 @@
       <c r="C47" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="8" t="s">
         <v>319</v>
       </c>
       <c r="E47" t="s">
         <v>320</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="9">
         <v>18440</v>
       </c>
       <c r="G47" t="s">
@@ -5353,7 +5401,7 @@
       <c r="N47" t="s">
         <v>33</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O47" s="3">
         <v>12390</v>
       </c>
       <c r="P47" t="s">
@@ -5388,13 +5436,13 @@
       <c r="C48" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="8" t="s">
         <v>325</v>
       </c>
       <c r="E48" t="s">
         <v>326</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="9">
         <v>18441</v>
       </c>
       <c r="G48" t="s">
@@ -5421,7 +5469,7 @@
       <c r="N48" t="s">
         <v>33</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="3">
         <v>12391</v>
       </c>
       <c r="P48" t="s">
@@ -5456,13 +5504,13 @@
       <c r="C49" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="8" t="s">
         <v>331</v>
       </c>
       <c r="E49" t="s">
         <v>332</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="9">
         <v>18442</v>
       </c>
       <c r="G49" t="s">
@@ -5489,7 +5537,7 @@
       <c r="N49" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="3">
         <v>12392</v>
       </c>
       <c r="P49" t="s">
@@ -5524,13 +5572,13 @@
       <c r="C50" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="5" t="s">
         <v>337</v>
       </c>
       <c r="E50" t="s">
         <v>338</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="9">
         <v>18443</v>
       </c>
       <c r="G50" t="s">
@@ -5557,7 +5605,7 @@
       <c r="N50" t="s">
         <v>33</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="3">
         <v>12393</v>
       </c>
       <c r="P50" t="s">
@@ -5640,7 +5688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -5662,7 +5710,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B2" t="s">
@@ -5679,7 +5727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -5702,7 +5750,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>346</v>
       </c>
       <c r="B2" t="s">
@@ -5710,15 +5758,15 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>349</v>
       </c>
       <c r="B4" t="s">
@@ -5737,7 +5785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -5764,7 +5812,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B2" t="s">
@@ -5794,7 +5842,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>343</v>
       </c>
       <c r="C5" t="s">
@@ -5812,7 +5860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -5831,7 +5879,7 @@
       </c>
     </row>
     <row r="2" ht="126" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5842,7 +5890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -5883,7 +5931,7 @@
       <c r="A2" t="s">
         <v>362</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>363</v>
       </c>
       <c r="C2" t="s">
@@ -5903,7 +5951,7 @@
       <c r="A3" t="s">
         <v>367</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>368</v>
       </c>
       <c r="C3" t="s">
@@ -5923,7 +5971,7 @@
       <c r="A4" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>343</v>
       </c>
       <c r="D4" t="s">
@@ -5948,7 +5996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -5981,7 +6029,7 @@
       <c r="B2" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>377</v>
       </c>
     </row>
@@ -5992,7 +6040,7 @@
       <c r="B3" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6003,7 +6051,7 @@
       <c r="B4" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6014,7 +6062,7 @@
       <c r="B5" t="s">
         <v>380</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6025,12 +6073,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -6062,4 +6110,59 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="28.390625" customWidth="1"/>
+    <col min="4" max="4" width="92.0546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" ht="19" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="3">
+        <v>28.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/testData/ecommerce.xlsx
+++ b/src/main/resources/testData/ecommerce.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12027\Desktop\e2e-using-page-object-model-extent-reports\src\main\resources\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26D9795-343A-444E-B38C-0469DEDEFF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-28920" yWindow="8940" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="newUsers" sheetId="2" r:id="rId5"/>
-    <sheet name="userLogin" sheetId="3" r:id="rId6"/>
-    <sheet name="negativeAccountCreate" sheetId="4" r:id="rId7"/>
-    <sheet name="negativeLogin" sheetId="5" r:id="rId8"/>
-    <sheet name="registerErrorMessages" sheetId="6" r:id="rId9"/>
-    <sheet name="contactUs" sheetId="7" r:id="rId10"/>
-    <sheet name="searchKeywords" sheetId="8" r:id="rId11"/>
-    <sheet name="dresses" sheetId="9" r:id="rId12"/>
-    <sheet name="ProductPage" sheetId="10" r:id="rId13"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="newUsers" sheetId="2" r:id="rId2"/>
+    <sheet name="userLogin" sheetId="3" r:id="rId3"/>
+    <sheet name="negativeAccountCreate" sheetId="4" r:id="rId4"/>
+    <sheet name="negativeLogin" sheetId="5" r:id="rId5"/>
+    <sheet name="registerErrorMessages" sheetId="6" r:id="rId6"/>
+    <sheet name="contactUs" sheetId="7" r:id="rId7"/>
+    <sheet name="searchKeywords" sheetId="8" r:id="rId8"/>
+    <sheet name="dresses" sheetId="9" r:id="rId9"/>
+    <sheet name="ProductPage" sheetId="10" r:id="rId10"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="418">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -117,7 +126,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -173,7 +182,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -214,7 +223,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -252,7 +261,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -287,7 +296,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -319,7 +328,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -345,7 +354,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -371,7 +380,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -397,7 +406,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -423,7 +432,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -449,7 +458,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -475,7 +484,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -501,7 +510,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -527,7 +536,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -553,7 +562,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -579,7 +588,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -605,7 +614,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -631,7 +640,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -657,7 +666,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -683,7 +692,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -709,7 +718,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -735,7 +744,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -761,7 +770,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -787,7 +796,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -813,7 +822,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -839,7 +848,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -865,7 +874,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -891,7 +900,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -917,7 +926,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -943,7 +952,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -969,7 +978,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -995,7 +1004,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -1021,7 +1030,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -1047,7 +1056,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -1073,7 +1082,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -1099,7 +1108,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -1125,7 +1134,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -1151,7 +1160,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -1177,7 +1186,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -1203,7 +1212,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -1229,7 +1238,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -1255,7 +1264,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -1281,7 +1290,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -1307,7 +1316,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -1333,7 +1342,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -1359,7 +1368,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -1385,7 +1394,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -1411,7 +1420,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="13"/>
         <rFont val="Calibri"/>
@@ -1437,7 +1446,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -1466,7 +1475,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -1486,7 +1495,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -1503,7 +1512,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -1569,7 +1578,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -1592,7 +1601,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -1673,21 +1682,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Price After Discount</t>
-  </si>
-  <si>
-    <t>Price Before Discount</t>
-  </si>
-  <si>
     <t>Discount</t>
   </si>
   <si>
-    <t>Available Color</t>
-  </si>
-  <si>
-    <t>Info Text</t>
-  </si>
-  <si>
     <t>Printed Summer Dress</t>
   </si>
   <si>
@@ -1701,17 +1698,40 @@
   </si>
   <si>
     <t>Fashion has been creating well-designed collections since 2010. The brand offers feminine designs delivering stylish separates and statement dresses which has since evolved into a full ready-to-wear collection in which every item is a vital part of a woman's wardrobe. The result? Cool, easy, chic looks with youthful elegance and unmistakable signature style. All the beautiful pieces are made in Italy and manufactured with the greatest attention. Now Fashion extends to a range of accessories including shoes, hats, belts and more!</t>
+  </si>
+  <si>
+    <t>FriendName</t>
+  </si>
+  <si>
+    <t>InfoText</t>
+  </si>
+  <si>
+    <t>AvailableColor</t>
+  </si>
+  <si>
+    <t>PriceBefore Discount</t>
+  </si>
+  <si>
+    <t>PriceAfterDiscount</t>
+  </si>
+  <si>
+    <t>FriendsEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter </t>
+  </si>
+  <si>
+    <t>Peter@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d&quot;-&quot;mm&quot;-&quot;yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d&quot;-&quot;mm&quot;-&quot;yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1728,19 +1748,9 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1749,7 +1759,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Calibri"/>
@@ -1760,26 +1770,38 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="13"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="15"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="16"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="17"/>
+      <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1808,7 +1830,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1831,124 +1853,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff5e88b1"/>
-      <rgbColor rgb="ffeef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff800080"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff333333"/>
-      <rgbColor rgb="ff3a3939"/>
-      <rgbColor rgb="ff666666"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF5E88B1"/>
+      <rgbColor rgb="FFEEF3F4"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF3A3939"/>
+      <rgbColor rgb="FF666666"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2150,7 +2306,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2169,7 +2325,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2199,7 +2355,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2225,7 +2381,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2251,7 +2407,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2277,7 +2433,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2303,7 +2459,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2329,7 +2485,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2355,7 +2511,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2381,7 +2537,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2407,7 +2563,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2420,9 +2576,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2439,7 +2601,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2458,7 +2620,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2484,7 +2646,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2510,7 +2672,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2536,7 +2698,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2562,7 +2724,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2588,7 +2750,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2614,7 +2776,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2640,7 +2802,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2666,7 +2828,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2692,7 +2854,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2705,9 +2867,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2721,7 +2889,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2740,7 +2908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2770,7 +2938,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2796,7 +2964,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2822,7 +2990,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2848,7 +3016,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2874,7 +3042,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2900,7 +3068,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2926,7 +3094,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2952,7 +3120,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2978,7 +3146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2991,186 +3159,194 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="30.5547" customWidth="1"/>
+    <col min="2" max="4" width="30.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+    <row r="3" spans="2:4" ht="50" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.5">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
+    <row r="9" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
+    <row r="11" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B11" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" t="s" s="3">
+    <row r="13" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B13" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4"/>
-      <c r="C14" t="s" s="4">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D14" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" t="s" s="3">
+    <row r="15" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B15" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="4"/>
-      <c r="C16" t="s" s="4">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s" s="5">
+      <c r="D16" s="4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" t="s" s="3">
+    <row r="17" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B17" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="4"/>
-      <c r="C18" t="s" s="4">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="s" s="5">
+      <c r="D18" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" t="s" s="3">
+    <row r="19" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B19" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="4"/>
-      <c r="C20" t="s" s="4">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D20" t="s" s="5">
+      <c r="D20" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" t="s" s="3">
+    <row r="21" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B21" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="4"/>
-      <c r="C22" t="s" s="4">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="s" s="5">
+      <c r="D22" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" t="s" s="3">
+    <row r="23" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B23" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="4"/>
-      <c r="C24" t="s" s="4">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s" s="5">
+      <c r="D24" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" t="s" s="3">
+    <row r="25" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B25" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="4"/>
-      <c r="C26" t="s" s="4">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D26" t="s" s="5">
+      <c r="D26" s="4" t="s">
         <v>399</v>
       </c>
     </row>
@@ -3179,183 +3355,224 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'newUsers'!R1C1" tooltip="" display="newUsers"/>
-    <hyperlink ref="D12" location="'userLogin'!R1C1" tooltip="" display="userLogin"/>
-    <hyperlink ref="D14" location="'negativeAccountCreate'!R1C1" tooltip="" display="negativeAccountCreate"/>
-    <hyperlink ref="D16" location="'negativeLogin'!R1C1" tooltip="" display="negativeLogin"/>
-    <hyperlink ref="D18" location="'registerErrorMessages'!R1C1" tooltip="" display="registerErrorMessages"/>
-    <hyperlink ref="D20" location="'contactUs'!R1C1" tooltip="" display="contactUs"/>
-    <hyperlink ref="D22" location="'searchKeywords'!R1C1" tooltip="" display="searchKeywords"/>
-    <hyperlink ref="D24" location="'dresses'!R1C1" tooltip="" display="dresses"/>
-    <hyperlink ref="D26" location="'ProductPage'!R1C1" tooltip="" display="ProductPage"/>
+    <hyperlink ref="D10" location="'newUsers'!R1C1" display="newUsers" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" location="'userLogin'!R1C1" display="userLogin" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D14" location="'negativeAccountCreate'!R1C1" display="negativeAccountCreate" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D16" location="'negativeLogin'!R1C1" display="negativeLogin" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D18" location="'registerErrorMessages'!R1C1" display="registerErrorMessages" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D20" location="'contactUs'!R1C1" display="contactUs" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D22" location="'searchKeywords'!R1C1" display="searchKeywords" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D24" location="'dresses'!R1C1" display="dresses" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D26" location="'ProductPage'!R1C1" display="ProductPage" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="28.3516" style="22" customWidth="1"/>
-    <col min="2" max="3" width="9" style="22" customWidth="1"/>
-    <col min="4" max="4" width="92" style="22" customWidth="1"/>
-    <col min="5" max="9" width="9" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="22" customWidth="1"/>
+    <col min="1" max="1" width="24.46875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.52734375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9.9375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="31.3515625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="16.05859375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21" customWidth="1"/>
+    <col min="7" max="7" width="11.1171875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="14.5859375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="11.703125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="14.05859375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="15.76171875" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="31" t="s">
         <v>400</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="D1" t="s" s="7">
+      <c r="D1" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="E1" t="s" s="7">
+      <c r="E1" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="F1" t="s" s="7">
+      <c r="H1" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="G1" t="s" s="7">
+      <c r="B2" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="H1" t="s" s="7">
+      <c r="C2" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="I1" t="s" s="7">
+      <c r="D2" s="36" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="2" ht="19" customHeight="1">
-      <c r="A2" t="s" s="23">
+      <c r="E2" s="37">
+        <v>28.98</v>
+      </c>
+      <c r="F2" s="37">
+        <v>30.51</v>
+      </c>
+      <c r="G2" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="34">
+        <v>4</v>
+      </c>
+      <c r="I2" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="B2" t="s" s="7">
-        <v>410</v>
-      </c>
-      <c r="C2" t="s" s="7">
-        <v>411</v>
-      </c>
-      <c r="D2" t="s" s="24">
-        <v>412</v>
-      </c>
-      <c r="E2" s="10">
-        <v>28.98</v>
-      </c>
-      <c r="F2" s="10">
-        <v>30.51</v>
-      </c>
-      <c r="G2" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="H2" s="10">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s" s="7">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="J2" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{961FA685-23C6-4EC9-9FAE-528022F10CC8}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3363,3489 +3580,3490 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="3" width="9" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.3516" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.8516" style="6" customWidth="1"/>
-    <col min="9" max="9" width="23.1719" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.1719" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9" style="6" customWidth="1"/>
-    <col min="12" max="12" width="13" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.6719" style="6" customWidth="1"/>
-    <col min="14" max="15" width="12.5" style="6" customWidth="1"/>
-    <col min="16" max="16" width="41.5" style="6" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="6" customWidth="1"/>
-    <col min="18" max="18" width="13.3516" style="6" customWidth="1"/>
-    <col min="19" max="19" width="14.1719" style="6" customWidth="1"/>
-    <col min="20" max="20" width="9" style="6" customWidth="1"/>
-    <col min="21" max="21" width="41.5" style="6" customWidth="1"/>
-    <col min="22" max="22" width="37.6719" style="6" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="6" customWidth="1"/>
+    <col min="1" max="3" width="9" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.46875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.46875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.3515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.8203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.17578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.17578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.64453125" style="5" customWidth="1"/>
+    <col min="14" max="15" width="12.46875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="41.46875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="12.46875" style="5" customWidth="1"/>
+    <col min="18" max="18" width="13.3515625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="14.17578125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="9" style="5" customWidth="1"/>
+    <col min="21" max="21" width="41.46875" style="5" customWidth="1"/>
+    <col min="22" max="22" width="37.64453125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="9" style="5" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="7">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s" s="7">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s" s="7">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s" s="7">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s" s="7">
+      <c r="H1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s" s="7">
+      <c r="I1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s" s="7">
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s" s="7">
+      <c r="K1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s" s="7">
+      <c r="L1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s" s="7">
+      <c r="M1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s" s="7">
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s" s="7">
+      <c r="O1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s" s="7">
+      <c r="P1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s" s="7">
+      <c r="Q1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s" s="7">
+      <c r="R1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s" s="7">
+      <c r="S1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s" s="7">
+      <c r="T1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s" s="7">
+      <c r="U1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V1" t="s" s="7">
+      <c r="V1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="7">
+    <row r="2" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>18395</v>
       </c>
-      <c r="G2" t="s" s="7">
+      <c r="G2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s" s="7">
+      <c r="H2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s" s="7">
+      <c r="I2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s" s="7">
+      <c r="J2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s" s="7">
+      <c r="K2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s" s="7">
+      <c r="L2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s" s="7">
+      <c r="M2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N2" t="s" s="7">
+      <c r="N2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>12345</v>
       </c>
-      <c r="P2" t="s" s="7">
+      <c r="P2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" t="s" s="7">
+      <c r="Q2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="R2" t="s" s="7">
+      <c r="R2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="S2" t="s" s="7">
+      <c r="S2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T2" t="s" s="7">
+      <c r="T2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U2" t="s" s="7">
+      <c r="U2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V2" t="s" s="7">
+      <c r="V2" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s" s="11">
+      <c r="D3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>18396</v>
       </c>
-      <c r="G3" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I3" t="s" s="7">
+      <c r="G3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J3" t="s" s="7">
+      <c r="J3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K3" t="s" s="7">
+      <c r="K3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L3" t="s" s="7">
+      <c r="L3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M3" t="s" s="7">
+      <c r="M3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N3" t="s" s="7">
+      <c r="N3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="9">
         <v>12346</v>
       </c>
-      <c r="P3" t="s" s="7">
+      <c r="P3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" t="s" s="7">
+      <c r="Q3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R3" t="s" s="7">
+      <c r="R3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S3" t="s" s="7">
+      <c r="S3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T3" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U3" t="s" s="7">
+      <c r="T3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V3" t="s" s="7">
+      <c r="V3" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s" s="11">
+      <c r="D4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s" s="7">
+      <c r="E4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>18397</v>
       </c>
-      <c r="G4" t="s" s="7">
+      <c r="G4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s" s="7">
+      <c r="H4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s" s="7">
+      <c r="I4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J4" t="s" s="7">
+      <c r="J4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K4" t="s" s="7">
+      <c r="K4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L4" t="s" s="7">
+      <c r="L4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M4" t="s" s="7">
+      <c r="M4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N4" t="s" s="7">
+      <c r="N4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="9">
         <v>12347</v>
       </c>
-      <c r="P4" t="s" s="7">
+      <c r="P4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" t="s" s="7">
+      <c r="Q4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="R4" t="s" s="7">
+      <c r="R4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S4" t="s" s="7">
+      <c r="S4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="T4" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U4" t="s" s="7">
+      <c r="T4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V4" t="s" s="7">
+      <c r="V4" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s" s="11">
+      <c r="D5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E5" t="s" s="7">
+      <c r="E5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>18398</v>
       </c>
-      <c r="G5" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s" s="7">
+      <c r="G5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s" s="7">
+      <c r="J5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K5" t="s" s="7">
+      <c r="K5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L5" t="s" s="7">
+      <c r="L5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M5" t="s" s="7">
+      <c r="M5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N5" t="s" s="7">
+      <c r="N5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="9">
         <v>12348</v>
       </c>
-      <c r="P5" t="s" s="7">
+      <c r="P5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" t="s" s="7">
+      <c r="Q5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="R5" t="s" s="7">
+      <c r="R5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="S5" t="s" s="7">
+      <c r="S5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="T5" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U5" t="s" s="7">
+      <c r="T5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V5" t="s" s="7">
+      <c r="V5" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s" s="8">
+      <c r="D6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>18399</v>
       </c>
-      <c r="G6" t="s" s="7">
+      <c r="G6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s" s="7">
+      <c r="H6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s" s="7">
+      <c r="I6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J6" t="s" s="7">
+      <c r="J6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K6" t="s" s="7">
+      <c r="K6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L6" t="s" s="7">
+      <c r="L6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="M6" t="s" s="7">
+      <c r="M6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N6" t="s" s="7">
+      <c r="N6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="9">
         <v>12349</v>
       </c>
-      <c r="P6" t="s" s="7">
+      <c r="P6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" t="s" s="7">
+      <c r="Q6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="R6" t="s" s="7">
+      <c r="R6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S6" t="s" s="7">
+      <c r="S6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T6" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U6" t="s" s="7">
+      <c r="T6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V6" t="s" s="7">
+      <c r="V6" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="7">
+    <row r="7" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s" s="11">
+      <c r="D7" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E7" t="s" s="7">
+      <c r="E7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>18400</v>
       </c>
-      <c r="G7" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I7" t="s" s="7">
+      <c r="G7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J7" t="s" s="7">
+      <c r="J7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K7" t="s" s="7">
+      <c r="K7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="L7" t="s" s="7">
+      <c r="L7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M7" t="s" s="7">
+      <c r="M7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N7" t="s" s="7">
+      <c r="N7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <v>12350</v>
       </c>
-      <c r="P7" t="s" s="7">
+      <c r="P7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" t="s" s="7">
+      <c r="Q7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="R7" t="s" s="7">
+      <c r="R7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="S7" t="s" s="7">
+      <c r="S7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="T7" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U7" t="s" s="7">
+      <c r="T7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V7" t="s" s="7">
+      <c r="V7" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="7">
+    <row r="8" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s" s="11">
+      <c r="D8" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E8" t="s" s="7">
+      <c r="E8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>18401</v>
       </c>
-      <c r="G8" t="s" s="7">
+      <c r="G8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s" s="7">
+      <c r="H8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I8" t="s" s="7">
+      <c r="I8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J8" t="s" s="7">
+      <c r="J8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K8" t="s" s="7">
+      <c r="K8" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="L8" t="s" s="7">
+      <c r="L8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M8" t="s" s="7">
+      <c r="M8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N8" t="s" s="7">
+      <c r="N8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="9">
         <v>12351</v>
       </c>
-      <c r="P8" t="s" s="7">
+      <c r="P8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" t="s" s="7">
+      <c r="Q8" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="R8" t="s" s="7">
+      <c r="R8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="S8" t="s" s="7">
+      <c r="S8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="T8" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U8" t="s" s="7">
+      <c r="T8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V8" t="s" s="7">
+      <c r="V8" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="7">
+    <row r="9" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s" s="11">
+      <c r="D9" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E9" t="s" s="7">
+      <c r="E9" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>18402</v>
       </c>
-      <c r="G9" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I9" t="s" s="7">
+      <c r="G9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J9" t="s" s="7">
+      <c r="J9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="K9" t="s" s="7">
+      <c r="K9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="L9" t="s" s="7">
+      <c r="L9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M9" t="s" s="7">
+      <c r="M9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N9" t="s" s="7">
+      <c r="N9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>12352</v>
       </c>
-      <c r="P9" t="s" s="7">
+      <c r="P9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" t="s" s="7">
+      <c r="Q9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="R9" t="s" s="7">
+      <c r="R9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="S9" t="s" s="7">
+      <c r="S9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="T9" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U9" t="s" s="7">
+      <c r="T9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V9" t="s" s="7">
+      <c r="V9" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="7">
+    <row r="10" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s" s="7">
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s" s="8">
+      <c r="D10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E10" t="s" s="7">
+      <c r="E10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>18403</v>
       </c>
-      <c r="G10" t="s" s="7">
+      <c r="G10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s" s="7">
+      <c r="H10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I10" t="s" s="7">
+      <c r="I10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J10" t="s" s="7">
+      <c r="J10" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K10" t="s" s="7">
+      <c r="K10" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L10" t="s" s="7">
+      <c r="L10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M10" t="s" s="7">
+      <c r="M10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N10" t="s" s="7">
+      <c r="N10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <v>12353</v>
       </c>
-      <c r="P10" t="s" s="7">
+      <c r="P10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" t="s" s="7">
+      <c r="Q10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="R10" t="s" s="7">
+      <c r="R10" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="S10" t="s" s="7">
+      <c r="S10" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="T10" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U10" t="s" s="7">
+      <c r="T10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V10" t="s" s="7">
+      <c r="V10" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="7">
+    <row r="11" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s" s="7">
+      <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s" s="11">
+      <c r="D11" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E11" t="s" s="7">
+      <c r="E11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>18404</v>
       </c>
-      <c r="G11" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H11" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I11" t="s" s="7">
+      <c r="G11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J11" t="s" s="7">
+      <c r="J11" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="K11" t="s" s="7">
+      <c r="K11" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L11" t="s" s="7">
+      <c r="L11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="M11" t="s" s="7">
+      <c r="M11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N11" t="s" s="7">
+      <c r="N11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="9">
         <v>12354</v>
       </c>
-      <c r="P11" t="s" s="7">
+      <c r="P11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" t="s" s="7">
+      <c r="Q11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="R11" t="s" s="7">
+      <c r="R11" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="S11" t="s" s="7">
+      <c r="S11" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="T11" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U11" t="s" s="7">
+      <c r="T11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V11" t="s" s="7">
+      <c r="V11" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="7">
+    <row r="12" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s" s="7">
+      <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s" s="11">
+      <c r="D12" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E12" t="s" s="7">
+      <c r="E12" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>18405</v>
       </c>
-      <c r="G12" t="s" s="7">
+      <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H12" t="s" s="7">
+      <c r="H12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I12" t="s" s="7">
+      <c r="I12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J12" t="s" s="7">
+      <c r="J12" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K12" t="s" s="7">
+      <c r="K12" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="L12" t="s" s="7">
+      <c r="L12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M12" t="s" s="7">
+      <c r="M12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N12" t="s" s="7">
+      <c r="N12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="9">
         <v>12355</v>
       </c>
-      <c r="P12" t="s" s="7">
+      <c r="P12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" t="s" s="7">
+      <c r="Q12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="R12" t="s" s="7">
+      <c r="R12" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="S12" t="s" s="7">
+      <c r="S12" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="T12" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U12" t="s" s="7">
+      <c r="T12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V12" t="s" s="7">
+      <c r="V12" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="7">
+    <row r="13" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C13" t="s" s="7">
+      <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s" s="11">
+      <c r="D13" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E13" t="s" s="7">
+      <c r="E13" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>18406</v>
       </c>
-      <c r="G13" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H13" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I13" t="s" s="7">
+      <c r="G13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J13" t="s" s="7">
+      <c r="J13" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="K13" t="s" s="7">
+      <c r="K13" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="L13" t="s" s="7">
+      <c r="L13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M13" t="s" s="7">
+      <c r="M13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N13" t="s" s="7">
+      <c r="N13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="9">
         <v>12356</v>
       </c>
-      <c r="P13" t="s" s="7">
+      <c r="P13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" t="s" s="7">
+      <c r="Q13" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="R13" t="s" s="7">
+      <c r="R13" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S13" t="s" s="7">
+      <c r="S13" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="T13" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U13" t="s" s="7">
+      <c r="T13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V13" t="s" s="7">
+      <c r="V13" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="7">
+    <row r="14" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s" s="7">
+      <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s" s="8">
+      <c r="D14" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E14" t="s" s="7">
+      <c r="E14" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>18407</v>
       </c>
-      <c r="G14" t="s" s="7">
+      <c r="G14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H14" t="s" s="7">
+      <c r="H14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I14" t="s" s="7">
+      <c r="I14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J14" t="s" s="7">
+      <c r="J14" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="K14" t="s" s="7">
+      <c r="K14" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="L14" t="s" s="7">
+      <c r="L14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M14" t="s" s="7">
+      <c r="M14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N14" t="s" s="7">
+      <c r="N14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="9">
         <v>12357</v>
       </c>
-      <c r="P14" t="s" s="7">
+      <c r="P14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q14" t="s" s="7">
+      <c r="Q14" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="R14" t="s" s="7">
+      <c r="R14" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="S14" t="s" s="7">
+      <c r="S14" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="T14" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U14" t="s" s="7">
+      <c r="T14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V14" t="s" s="7">
+      <c r="V14" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="7">
+    <row r="15" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s" s="11">
+      <c r="D15" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E15" t="s" s="7">
+      <c r="E15" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>18408</v>
       </c>
-      <c r="G15" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H15" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I15" t="s" s="7">
+      <c r="G15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J15" t="s" s="7">
+      <c r="J15" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="K15" t="s" s="7">
+      <c r="K15" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="L15" t="s" s="7">
+      <c r="L15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M15" t="s" s="7">
+      <c r="M15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N15" t="s" s="7">
+      <c r="N15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="9">
         <v>12358</v>
       </c>
-      <c r="P15" t="s" s="7">
+      <c r="P15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" t="s" s="7">
+      <c r="Q15" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="R15" t="s" s="7">
+      <c r="R15" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S15" t="s" s="7">
+      <c r="S15" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="T15" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U15" t="s" s="7">
+      <c r="T15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V15" t="s" s="7">
+      <c r="V15" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="7">
+    <row r="16" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s" s="7">
+      <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D16" t="s" s="11">
+      <c r="D16" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E16" t="s" s="7">
+      <c r="E16" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>18409</v>
       </c>
-      <c r="G16" t="s" s="7">
+      <c r="G16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H16" t="s" s="7">
+      <c r="H16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I16" t="s" s="7">
+      <c r="I16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J16" t="s" s="7">
+      <c r="J16" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="K16" t="s" s="7">
+      <c r="K16" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="L16" t="s" s="7">
+      <c r="L16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="M16" t="s" s="7">
+      <c r="M16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N16" t="s" s="7">
+      <c r="N16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="9">
         <v>12359</v>
       </c>
-      <c r="P16" t="s" s="7">
+      <c r="P16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" t="s" s="7">
+      <c r="Q16" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="R16" t="s" s="7">
+      <c r="R16" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="S16" t="s" s="7">
+      <c r="S16" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="T16" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U16" t="s" s="7">
+      <c r="T16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V16" t="s" s="7">
+      <c r="V16" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="7">
+    <row r="17" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C17" t="s" s="7">
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s" s="11">
+      <c r="D17" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E17" t="s" s="7">
+      <c r="E17" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>18410</v>
       </c>
-      <c r="G17" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H17" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I17" t="s" s="7">
+      <c r="G17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J17" t="s" s="7">
+      <c r="J17" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="K17" t="s" s="7">
+      <c r="K17" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="L17" t="s" s="7">
+      <c r="L17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M17" t="s" s="7">
+      <c r="M17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N17" t="s" s="7">
+      <c r="N17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="9">
         <v>12360</v>
       </c>
-      <c r="P17" t="s" s="7">
+      <c r="P17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q17" t="s" s="7">
+      <c r="Q17" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="R17" t="s" s="7">
+      <c r="R17" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="S17" t="s" s="7">
+      <c r="S17" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="T17" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U17" t="s" s="7">
+      <c r="T17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V17" t="s" s="7">
+      <c r="V17" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="7">
+    <row r="18" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s" s="7">
+      <c r="C18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D18" t="s" s="8">
+      <c r="D18" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E18" t="s" s="7">
+      <c r="E18" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>18411</v>
       </c>
-      <c r="G18" t="s" s="7">
+      <c r="G18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H18" t="s" s="7">
+      <c r="H18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I18" t="s" s="7">
+      <c r="I18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J18" t="s" s="7">
+      <c r="J18" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="K18" t="s" s="7">
+      <c r="K18" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="L18" t="s" s="7">
+      <c r="L18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M18" t="s" s="7">
+      <c r="M18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N18" t="s" s="7">
+      <c r="N18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="9">
         <v>12361</v>
       </c>
-      <c r="P18" t="s" s="7">
+      <c r="P18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" t="s" s="7">
+      <c r="Q18" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="R18" t="s" s="7">
+      <c r="R18" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="S18" t="s" s="7">
+      <c r="S18" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="T18" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U18" t="s" s="7">
+      <c r="T18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V18" t="s" s="7">
+      <c r="V18" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="7">
+    <row r="19" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s" s="7">
+      <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D19" t="s" s="11">
+      <c r="D19" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E19" t="s" s="7">
+      <c r="E19" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>18412</v>
       </c>
-      <c r="G19" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H19" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I19" t="s" s="7">
+      <c r="G19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J19" t="s" s="7">
+      <c r="J19" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="K19" t="s" s="7">
+      <c r="K19" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="L19" t="s" s="7">
+      <c r="L19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M19" t="s" s="7">
+      <c r="M19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N19" t="s" s="7">
+      <c r="N19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="9">
         <v>12362</v>
       </c>
-      <c r="P19" t="s" s="7">
+      <c r="P19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" t="s" s="7">
+      <c r="Q19" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="R19" t="s" s="7">
+      <c r="R19" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="S19" t="s" s="7">
+      <c r="S19" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="T19" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U19" t="s" s="7">
+      <c r="T19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V19" t="s" s="7">
+      <c r="V19" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="7">
+    <row r="20" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s" s="7">
+      <c r="C20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s" s="11">
+      <c r="D20" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E20" t="s" s="7">
+      <c r="E20" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>18413</v>
       </c>
-      <c r="G20" t="s" s="7">
+      <c r="G20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H20" t="s" s="7">
+      <c r="H20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I20" t="s" s="7">
+      <c r="I20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J20" t="s" s="7">
+      <c r="J20" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="K20" t="s" s="7">
+      <c r="K20" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="L20" t="s" s="7">
+      <c r="L20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M20" t="s" s="7">
+      <c r="M20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N20" t="s" s="7">
+      <c r="N20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="9">
         <v>12363</v>
       </c>
-      <c r="P20" t="s" s="7">
+      <c r="P20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" t="s" s="7">
+      <c r="Q20" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R20" t="s" s="7">
+      <c r="R20" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="S20" t="s" s="7">
+      <c r="S20" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="T20" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U20" t="s" s="7">
+      <c r="T20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V20" t="s" s="7">
+      <c r="V20" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" t="s" s="7">
+    <row r="21" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C21" t="s" s="7">
+      <c r="C21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D21" t="s" s="11">
+      <c r="D21" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E21" t="s" s="7">
+      <c r="E21" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>18414</v>
       </c>
-      <c r="G21" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H21" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I21" t="s" s="7">
+      <c r="G21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J21" t="s" s="7">
+      <c r="J21" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="K21" t="s" s="7">
+      <c r="K21" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="L21" t="s" s="7">
+      <c r="L21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="M21" t="s" s="7">
+      <c r="M21" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N21" t="s" s="7">
+      <c r="N21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="9">
         <v>12364</v>
       </c>
-      <c r="P21" t="s" s="7">
+      <c r="P21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" t="s" s="7">
+      <c r="Q21" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="R21" t="s" s="7">
+      <c r="R21" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S21" t="s" s="7">
+      <c r="S21" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="T21" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U21" t="s" s="7">
+      <c r="T21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V21" t="s" s="7">
+      <c r="V21" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="7">
+    <row r="22" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="s" s="7">
+      <c r="C22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D22" t="s" s="8">
+      <c r="D22" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E22" t="s" s="7">
+      <c r="E22" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>18415</v>
       </c>
-      <c r="G22" t="s" s="7">
+      <c r="G22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H22" t="s" s="7">
+      <c r="H22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I22" t="s" s="7">
+      <c r="I22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J22" t="s" s="7">
+      <c r="J22" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="K22" t="s" s="7">
+      <c r="K22" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="L22" t="s" s="7">
+      <c r="L22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M22" t="s" s="7">
+      <c r="M22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N22" t="s" s="7">
+      <c r="N22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="9">
         <v>12365</v>
       </c>
-      <c r="P22" t="s" s="7">
+      <c r="P22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q22" t="s" s="7">
+      <c r="Q22" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="R22" t="s" s="7">
+      <c r="R22" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="S22" t="s" s="7">
+      <c r="S22" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="T22" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U22" t="s" s="7">
+      <c r="T22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V22" t="s" s="7">
+      <c r="V22" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" t="s" s="7">
+    <row r="23" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="s" s="7">
+      <c r="C23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D23" t="s" s="11">
+      <c r="D23" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E23" t="s" s="7">
+      <c r="E23" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>18416</v>
       </c>
-      <c r="G23" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H23" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I23" t="s" s="7">
+      <c r="G23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J23" t="s" s="7">
+      <c r="J23" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="K23" t="s" s="7">
+      <c r="K23" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="L23" t="s" s="7">
+      <c r="L23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M23" t="s" s="7">
+      <c r="M23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N23" t="s" s="7">
+      <c r="N23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="9">
         <v>12366</v>
       </c>
-      <c r="P23" t="s" s="7">
+      <c r="P23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q23" t="s" s="7">
+      <c r="Q23" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="R23" t="s" s="7">
+      <c r="R23" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="S23" t="s" s="7">
+      <c r="S23" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="T23" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U23" t="s" s="7">
+      <c r="T23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V23" t="s" s="7">
+      <c r="V23" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="7">
+    <row r="24" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s" s="7">
+      <c r="C24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D24" t="s" s="11">
+      <c r="D24" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E24" t="s" s="7">
+      <c r="E24" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>18417</v>
       </c>
-      <c r="G24" t="s" s="7">
+      <c r="G24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H24" t="s" s="7">
+      <c r="H24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I24" t="s" s="7">
+      <c r="I24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J24" t="s" s="7">
+      <c r="J24" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K24" t="s" s="7">
+      <c r="K24" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="L24" t="s" s="7">
+      <c r="L24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M24" t="s" s="7">
+      <c r="M24" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N24" t="s" s="7">
+      <c r="N24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="9">
         <v>12367</v>
       </c>
-      <c r="P24" t="s" s="7">
+      <c r="P24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q24" t="s" s="7">
+      <c r="Q24" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="R24" t="s" s="7">
+      <c r="R24" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="S24" t="s" s="7">
+      <c r="S24" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="T24" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U24" t="s" s="7">
+      <c r="T24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V24" t="s" s="7">
+      <c r="V24" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" t="s" s="7">
+    <row r="25" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s" s="7">
+      <c r="B25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C25" t="s" s="7">
+      <c r="C25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D25" t="s" s="11">
+      <c r="D25" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E25" t="s" s="7">
+      <c r="E25" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>18418</v>
       </c>
-      <c r="G25" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H25" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I25" t="s" s="7">
+      <c r="G25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J25" t="s" s="7">
+      <c r="J25" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="K25" t="s" s="7">
+      <c r="K25" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="L25" t="s" s="7">
+      <c r="L25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M25" t="s" s="7">
+      <c r="M25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N25" t="s" s="7">
+      <c r="N25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="9">
         <v>12368</v>
       </c>
-      <c r="P25" t="s" s="7">
+      <c r="P25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" t="s" s="7">
+      <c r="Q25" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="R25" t="s" s="7">
+      <c r="R25" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="S25" t="s" s="7">
+      <c r="S25" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="T25" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U25" t="s" s="7">
+      <c r="T25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V25" t="s" s="7">
+      <c r="V25" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="7">
+    <row r="26" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="s" s="7">
+      <c r="C26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D26" t="s" s="8">
+      <c r="D26" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E26" t="s" s="7">
+      <c r="E26" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>18419</v>
       </c>
-      <c r="G26" t="s" s="7">
+      <c r="G26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H26" t="s" s="7">
+      <c r="H26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I26" t="s" s="7">
+      <c r="I26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J26" t="s" s="7">
+      <c r="J26" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="K26" t="s" s="7">
+      <c r="K26" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="L26" t="s" s="7">
+      <c r="L26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="M26" t="s" s="7">
+      <c r="M26" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N26" t="s" s="7">
+      <c r="N26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="9">
         <v>12369</v>
       </c>
-      <c r="P26" t="s" s="7">
+      <c r="P26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q26" t="s" s="7">
+      <c r="Q26" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="R26" t="s" s="7">
+      <c r="R26" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="S26" t="s" s="7">
+      <c r="S26" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="T26" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U26" t="s" s="7">
+      <c r="T26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V26" t="s" s="7">
+      <c r="V26" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" t="s" s="7">
+    <row r="27" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B27" t="s" s="7">
+      <c r="B27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C27" t="s" s="7">
+      <c r="C27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D27" t="s" s="11">
+      <c r="D27" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E27" t="s" s="7">
+      <c r="E27" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>18420</v>
       </c>
-      <c r="G27" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H27" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I27" t="s" s="7">
+      <c r="G27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J27" t="s" s="7">
+      <c r="J27" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="K27" t="s" s="7">
+      <c r="K27" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="L27" t="s" s="7">
+      <c r="L27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M27" t="s" s="7">
+      <c r="M27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N27" t="s" s="7">
+      <c r="N27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="9">
         <v>12370</v>
       </c>
-      <c r="P27" t="s" s="7">
+      <c r="P27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" t="s" s="7">
+      <c r="Q27" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="R27" t="s" s="7">
+      <c r="R27" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="S27" t="s" s="7">
+      <c r="S27" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="T27" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U27" t="s" s="7">
+      <c r="T27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V27" t="s" s="7">
+      <c r="V27" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="7">
+    <row r="28" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C28" t="s" s="7">
+      <c r="C28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D28" t="s" s="11">
+      <c r="D28" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E28" t="s" s="7">
+      <c r="E28" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>18421</v>
       </c>
-      <c r="G28" t="s" s="7">
+      <c r="G28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H28" t="s" s="7">
+      <c r="H28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I28" t="s" s="7">
+      <c r="I28" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J28" t="s" s="7">
+      <c r="J28" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="K28" t="s" s="7">
+      <c r="K28" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="L28" t="s" s="7">
+      <c r="L28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M28" t="s" s="7">
+      <c r="M28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N28" t="s" s="7">
+      <c r="N28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="9">
         <v>12371</v>
       </c>
-      <c r="P28" t="s" s="7">
+      <c r="P28" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q28" t="s" s="7">
+      <c r="Q28" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="R28" t="s" s="7">
+      <c r="R28" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S28" t="s" s="7">
+      <c r="S28" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="T28" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U28" t="s" s="7">
+      <c r="T28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V28" t="s" s="7">
+      <c r="V28" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="7">
+    <row r="29" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="B29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C29" t="s" s="7">
+      <c r="C29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D29" t="s" s="11">
+      <c r="D29" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E29" t="s" s="7">
+      <c r="E29" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>18422</v>
       </c>
-      <c r="G29" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H29" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I29" t="s" s="7">
+      <c r="G29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J29" t="s" s="7">
+      <c r="J29" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="K29" t="s" s="7">
+      <c r="K29" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="L29" t="s" s="7">
+      <c r="L29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M29" t="s" s="7">
+      <c r="M29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N29" t="s" s="7">
+      <c r="N29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O29" s="10">
+      <c r="O29" s="9">
         <v>12372</v>
       </c>
-      <c r="P29" t="s" s="7">
+      <c r="P29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q29" t="s" s="7">
+      <c r="Q29" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="R29" t="s" s="7">
+      <c r="R29" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="S29" t="s" s="7">
+      <c r="S29" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="T29" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U29" t="s" s="7">
+      <c r="T29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V29" t="s" s="7">
+      <c r="V29" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" t="s" s="7">
+    <row r="30" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s" s="7">
+      <c r="B30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C30" t="s" s="7">
+      <c r="C30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D30" t="s" s="8">
+      <c r="D30" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E30" t="s" s="7">
+      <c r="E30" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>18423</v>
       </c>
-      <c r="G30" t="s" s="7">
+      <c r="G30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H30" t="s" s="7">
+      <c r="H30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I30" t="s" s="7">
+      <c r="I30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J30" t="s" s="7">
+      <c r="J30" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="K30" t="s" s="7">
+      <c r="K30" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="L30" t="s" s="7">
+      <c r="L30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M30" t="s" s="7">
+      <c r="M30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N30" t="s" s="7">
+      <c r="N30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="9">
         <v>12373</v>
       </c>
-      <c r="P30" t="s" s="7">
+      <c r="P30" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" t="s" s="7">
+      <c r="Q30" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="R30" t="s" s="7">
+      <c r="R30" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="S30" t="s" s="7">
+      <c r="S30" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="T30" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U30" t="s" s="7">
+      <c r="T30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V30" t="s" s="7">
+      <c r="V30" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" t="s" s="7">
+    <row r="31" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B31" t="s" s="7">
+      <c r="B31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C31" t="s" s="7">
+      <c r="C31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D31" t="s" s="11">
+      <c r="D31" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E31" t="s" s="7">
+      <c r="E31" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>18424</v>
       </c>
-      <c r="G31" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H31" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I31" t="s" s="7">
+      <c r="G31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J31" t="s" s="7">
+      <c r="J31" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="K31" t="s" s="7">
+      <c r="K31" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="L31" t="s" s="7">
+      <c r="L31" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="M31" t="s" s="7">
+      <c r="M31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N31" t="s" s="7">
+      <c r="N31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="9">
         <v>12374</v>
       </c>
-      <c r="P31" t="s" s="7">
+      <c r="P31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q31" t="s" s="7">
+      <c r="Q31" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="R31" t="s" s="7">
+      <c r="R31" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="S31" t="s" s="7">
+      <c r="S31" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="T31" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U31" t="s" s="7">
+      <c r="T31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V31" t="s" s="7">
+      <c r="V31" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" t="s" s="7">
+    <row r="32" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C32" t="s" s="7">
+      <c r="C32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D32" t="s" s="11">
+      <c r="D32" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E32" t="s" s="7">
+      <c r="E32" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>18425</v>
       </c>
-      <c r="G32" t="s" s="7">
+      <c r="G32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H32" t="s" s="7">
+      <c r="H32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I32" t="s" s="7">
+      <c r="I32" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J32" t="s" s="7">
+      <c r="J32" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="K32" t="s" s="7">
+      <c r="K32" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="L32" t="s" s="7">
+      <c r="L32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M32" t="s" s="7">
+      <c r="M32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N32" t="s" s="7">
+      <c r="N32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="9">
         <v>12375</v>
       </c>
-      <c r="P32" t="s" s="7">
+      <c r="P32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q32" t="s" s="7">
+      <c r="Q32" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="R32" t="s" s="7">
+      <c r="R32" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="S32" t="s" s="7">
+      <c r="S32" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="T32" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U32" t="s" s="7">
+      <c r="T32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V32" t="s" s="7">
+      <c r="V32" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" t="s" s="7">
+    <row r="33" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="B33" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C33" t="s" s="7">
+      <c r="C33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D33" t="s" s="11">
+      <c r="D33" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E33" t="s" s="7">
+      <c r="E33" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <v>18426</v>
       </c>
-      <c r="G33" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H33" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I33" t="s" s="7">
+      <c r="G33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J33" t="s" s="7">
+      <c r="J33" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="K33" t="s" s="7">
+      <c r="K33" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="L33" t="s" s="7">
+      <c r="L33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M33" t="s" s="7">
+      <c r="M33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N33" t="s" s="7">
+      <c r="N33" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O33" s="10">
+      <c r="O33" s="9">
         <v>12376</v>
       </c>
-      <c r="P33" t="s" s="7">
+      <c r="P33" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q33" t="s" s="7">
+      <c r="Q33" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="R33" t="s" s="7">
+      <c r="R33" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="S33" t="s" s="7">
+      <c r="S33" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="T33" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U33" t="s" s="7">
+      <c r="T33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V33" t="s" s="7">
+      <c r="V33" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" t="s" s="7">
+    <row r="34" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C34" t="s" s="7">
+      <c r="C34" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D34" t="s" s="8">
+      <c r="D34" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E34" t="s" s="7">
+      <c r="E34" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>18427</v>
       </c>
-      <c r="G34" t="s" s="7">
+      <c r="G34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H34" t="s" s="7">
+      <c r="H34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I34" t="s" s="7">
+      <c r="I34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J34" t="s" s="7">
+      <c r="J34" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="K34" t="s" s="7">
+      <c r="K34" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="L34" t="s" s="7">
+      <c r="L34" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M34" t="s" s="7">
+      <c r="M34" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N34" t="s" s="7">
+      <c r="N34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="10">
+      <c r="O34" s="9">
         <v>12377</v>
       </c>
-      <c r="P34" t="s" s="7">
+      <c r="P34" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q34" t="s" s="7">
+      <c r="Q34" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="R34" t="s" s="7">
+      <c r="R34" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="S34" t="s" s="7">
+      <c r="S34" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="T34" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U34" t="s" s="7">
+      <c r="T34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V34" t="s" s="7">
+      <c r="V34" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" t="s" s="7">
+    <row r="35" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B35" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C35" t="s" s="7">
+      <c r="C35" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D35" t="s" s="11">
+      <c r="D35" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E35" t="s" s="7">
+      <c r="E35" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <v>18428</v>
       </c>
-      <c r="G35" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H35" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I35" t="s" s="7">
+      <c r="G35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J35" t="s" s="7">
+      <c r="J35" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="K35" t="s" s="7">
+      <c r="K35" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="L35" t="s" s="7">
+      <c r="L35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M35" t="s" s="7">
+      <c r="M35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N35" t="s" s="7">
+      <c r="N35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O35" s="10">
+      <c r="O35" s="9">
         <v>12378</v>
       </c>
-      <c r="P35" t="s" s="7">
+      <c r="P35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q35" t="s" s="7">
+      <c r="Q35" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="R35" t="s" s="7">
+      <c r="R35" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="S35" t="s" s="7">
+      <c r="S35" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="T35" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U35" t="s" s="7">
+      <c r="T35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V35" t="s" s="7">
+      <c r="V35" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" t="s" s="7">
+    <row r="36" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B36" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C36" t="s" s="7">
+      <c r="C36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D36" t="s" s="11">
+      <c r="D36" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E36" t="s" s="7">
+      <c r="E36" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>18429</v>
       </c>
-      <c r="G36" t="s" s="7">
+      <c r="G36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H36" t="s" s="7">
+      <c r="H36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I36" t="s" s="7">
+      <c r="I36" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J36" t="s" s="7">
+      <c r="J36" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="K36" t="s" s="7">
+      <c r="K36" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="L36" t="s" s="7">
+      <c r="L36" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="M36" t="s" s="7">
+      <c r="M36" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N36" t="s" s="7">
+      <c r="N36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O36" s="10">
+      <c r="O36" s="9">
         <v>12379</v>
       </c>
-      <c r="P36" t="s" s="7">
+      <c r="P36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q36" t="s" s="7">
+      <c r="Q36" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="R36" t="s" s="7">
+      <c r="R36" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="S36" t="s" s="7">
+      <c r="S36" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="T36" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U36" t="s" s="7">
+      <c r="T36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U36" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V36" t="s" s="7">
+      <c r="V36" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" t="s" s="7">
+    <row r="37" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B37" t="s" s="7">
+      <c r="B37" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C37" t="s" s="7">
+      <c r="C37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D37" t="s" s="11">
+      <c r="D37" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="E37" t="s" s="7">
+      <c r="E37" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <v>18430</v>
       </c>
-      <c r="G37" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H37" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I37" t="s" s="7">
+      <c r="G37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J37" t="s" s="7">
+      <c r="J37" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="K37" t="s" s="7">
+      <c r="K37" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="L37" t="s" s="7">
+      <c r="L37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M37" t="s" s="7">
+      <c r="M37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N37" t="s" s="7">
+      <c r="N37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O37" s="10">
+      <c r="O37" s="9">
         <v>12380</v>
       </c>
-      <c r="P37" t="s" s="7">
+      <c r="P37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q37" t="s" s="7">
+      <c r="Q37" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="R37" t="s" s="7">
+      <c r="R37" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="S37" t="s" s="7">
+      <c r="S37" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="T37" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U37" t="s" s="7">
+      <c r="T37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U37" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V37" t="s" s="7">
+      <c r="V37" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" t="s" s="7">
+    <row r="38" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B38" t="s" s="7">
+      <c r="B38" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C38" t="s" s="7">
+      <c r="C38" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D38" t="s" s="8">
+      <c r="D38" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="E38" t="s" s="7">
+      <c r="E38" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <v>18431</v>
       </c>
-      <c r="G38" t="s" s="7">
+      <c r="G38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H38" t="s" s="7">
+      <c r="H38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I38" t="s" s="7">
+      <c r="I38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J38" t="s" s="7">
+      <c r="J38" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="K38" t="s" s="7">
+      <c r="K38" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="L38" t="s" s="7">
+      <c r="L38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M38" t="s" s="7">
+      <c r="M38" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N38" t="s" s="7">
+      <c r="N38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="9">
         <v>12381</v>
       </c>
-      <c r="P38" t="s" s="7">
+      <c r="P38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q38" t="s" s="7">
+      <c r="Q38" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="R38" t="s" s="7">
+      <c r="R38" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="S38" t="s" s="7">
+      <c r="S38" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="T38" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U38" t="s" s="7">
+      <c r="T38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V38" t="s" s="7">
+      <c r="V38" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" t="s" s="7">
+    <row r="39" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B39" t="s" s="7">
+      <c r="B39" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C39" t="s" s="7">
+      <c r="C39" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D39" t="s" s="11">
+      <c r="D39" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="E39" t="s" s="7">
+      <c r="E39" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <v>18432</v>
       </c>
-      <c r="G39" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H39" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I39" t="s" s="7">
+      <c r="G39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J39" t="s" s="7">
+      <c r="J39" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="K39" t="s" s="7">
+      <c r="K39" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="L39" t="s" s="7">
+      <c r="L39" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M39" t="s" s="7">
+      <c r="M39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N39" t="s" s="7">
+      <c r="N39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O39" s="10">
+      <c r="O39" s="9">
         <v>12382</v>
       </c>
-      <c r="P39" t="s" s="7">
+      <c r="P39" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q39" t="s" s="7">
+      <c r="Q39" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="R39" t="s" s="7">
+      <c r="R39" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="S39" t="s" s="7">
+      <c r="S39" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="T39" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U39" t="s" s="7">
+      <c r="T39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V39" t="s" s="7">
+      <c r="V39" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" t="s" s="7">
+    <row r="40" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B40" t="s" s="7">
+      <c r="B40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C40" t="s" s="7">
+      <c r="C40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D40" t="s" s="11">
+      <c r="D40" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="E40" t="s" s="7">
+      <c r="E40" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>18433</v>
       </c>
-      <c r="G40" t="s" s="7">
+      <c r="G40" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H40" t="s" s="7">
+      <c r="H40" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I40" t="s" s="7">
+      <c r="I40" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J40" t="s" s="7">
+      <c r="J40" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="K40" t="s" s="7">
+      <c r="K40" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="L40" t="s" s="7">
+      <c r="L40" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M40" t="s" s="7">
+      <c r="M40" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N40" t="s" s="7">
+      <c r="N40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O40" s="10">
+      <c r="O40" s="9">
         <v>12383</v>
       </c>
-      <c r="P40" t="s" s="7">
+      <c r="P40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q40" t="s" s="7">
+      <c r="Q40" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="R40" t="s" s="7">
+      <c r="R40" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="S40" t="s" s="7">
+      <c r="S40" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="T40" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U40" t="s" s="7">
+      <c r="T40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V40" t="s" s="7">
+      <c r="V40" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" ht="16" customHeight="1">
-      <c r="A41" t="s" s="7">
+    <row r="41" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="s" s="7">
+      <c r="B41" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C41" t="s" s="7">
+      <c r="C41" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D41" t="s" s="11">
+      <c r="D41" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="E41" t="s" s="7">
+      <c r="E41" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="8">
         <v>18434</v>
       </c>
-      <c r="G41" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H41" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I41" t="s" s="7">
+      <c r="G41" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J41" t="s" s="7">
+      <c r="J41" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="K41" t="s" s="7">
+      <c r="K41" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="L41" t="s" s="7">
+      <c r="L41" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="M41" t="s" s="7">
+      <c r="M41" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N41" t="s" s="7">
+      <c r="N41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O41" s="10">
+      <c r="O41" s="9">
         <v>12384</v>
       </c>
-      <c r="P41" t="s" s="7">
+      <c r="P41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q41" t="s" s="7">
+      <c r="Q41" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="R41" t="s" s="7">
+      <c r="R41" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="S41" t="s" s="7">
+      <c r="S41" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="T41" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U41" t="s" s="7">
+      <c r="T41" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U41" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V41" t="s" s="7">
+      <c r="V41" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" ht="16" customHeight="1">
-      <c r="A42" t="s" s="7">
+    <row r="42" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B42" t="s" s="7">
+      <c r="B42" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C42" t="s" s="7">
+      <c r="C42" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D42" t="s" s="8">
+      <c r="D42" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E42" t="s" s="7">
+      <c r="E42" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="8">
         <v>18435</v>
       </c>
-      <c r="G42" t="s" s="7">
+      <c r="G42" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H42" t="s" s="7">
+      <c r="H42" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I42" t="s" s="7">
+      <c r="I42" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J42" t="s" s="7">
+      <c r="J42" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="K42" t="s" s="7">
+      <c r="K42" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="L42" t="s" s="7">
+      <c r="L42" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M42" t="s" s="7">
+      <c r="M42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N42" t="s" s="7">
+      <c r="N42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O42" s="10">
+      <c r="O42" s="9">
         <v>12385</v>
       </c>
-      <c r="P42" t="s" s="7">
+      <c r="P42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q42" t="s" s="7">
+      <c r="Q42" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="R42" t="s" s="7">
+      <c r="R42" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="S42" t="s" s="7">
+      <c r="S42" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="T42" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U42" t="s" s="7">
+      <c r="T42" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V42" t="s" s="7">
+      <c r="V42" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" ht="16" customHeight="1">
-      <c r="A43" t="s" s="7">
+    <row r="43" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B43" t="s" s="7">
+      <c r="B43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C43" t="s" s="7">
+      <c r="C43" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D43" t="s" s="11">
+      <c r="D43" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="E43" t="s" s="7">
+      <c r="E43" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="8">
         <v>18436</v>
       </c>
-      <c r="G43" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H43" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I43" t="s" s="7">
+      <c r="G43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J43" t="s" s="7">
+      <c r="J43" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="K43" t="s" s="7">
+      <c r="K43" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="L43" t="s" s="7">
+      <c r="L43" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M43" t="s" s="7">
+      <c r="M43" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N43" t="s" s="7">
+      <c r="N43" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O43" s="10">
+      <c r="O43" s="9">
         <v>12386</v>
       </c>
-      <c r="P43" t="s" s="7">
+      <c r="P43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q43" t="s" s="7">
+      <c r="Q43" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="R43" t="s" s="7">
+      <c r="R43" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="S43" t="s" s="7">
+      <c r="S43" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="T43" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U43" t="s" s="7">
+      <c r="T43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V43" t="s" s="7">
+      <c r="V43" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" ht="16" customHeight="1">
-      <c r="A44" t="s" s="7">
+    <row r="44" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B44" t="s" s="7">
+      <c r="B44" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C44" t="s" s="7">
+      <c r="C44" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D44" t="s" s="11">
+      <c r="D44" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E44" t="s" s="7">
+      <c r="E44" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <v>18437</v>
       </c>
-      <c r="G44" t="s" s="7">
+      <c r="G44" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H44" t="s" s="7">
+      <c r="H44" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I44" t="s" s="7">
+      <c r="I44" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J44" t="s" s="7">
+      <c r="J44" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="K44" t="s" s="7">
+      <c r="K44" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="L44" t="s" s="7">
+      <c r="L44" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M44" t="s" s="7">
+      <c r="M44" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N44" t="s" s="7">
+      <c r="N44" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="10">
+      <c r="O44" s="9">
         <v>12387</v>
       </c>
-      <c r="P44" t="s" s="7">
+      <c r="P44" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q44" t="s" s="7">
+      <c r="Q44" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="R44" t="s" s="7">
+      <c r="R44" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="S44" t="s" s="7">
+      <c r="S44" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="T44" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U44" t="s" s="7">
+      <c r="T44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V44" t="s" s="7">
+      <c r="V44" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" ht="16" customHeight="1">
-      <c r="A45" t="s" s="7">
+    <row r="45" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="s" s="7">
+      <c r="B45" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C45" t="s" s="7">
+      <c r="C45" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D45" t="s" s="11">
+      <c r="D45" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="E45" t="s" s="7">
+      <c r="E45" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <v>18438</v>
       </c>
-      <c r="G45" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H45" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I45" t="s" s="7">
+      <c r="G45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J45" t="s" s="7">
+      <c r="J45" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="K45" t="s" s="7">
+      <c r="K45" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="L45" t="s" s="7">
+      <c r="L45" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M45" t="s" s="7">
+      <c r="M45" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N45" t="s" s="7">
+      <c r="N45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="10">
+      <c r="O45" s="9">
         <v>12388</v>
       </c>
-      <c r="P45" t="s" s="7">
+      <c r="P45" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q45" t="s" s="7">
+      <c r="Q45" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="R45" t="s" s="7">
+      <c r="R45" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="S45" t="s" s="7">
+      <c r="S45" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="T45" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U45" t="s" s="7">
+      <c r="T45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U45" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V45" t="s" s="7">
+      <c r="V45" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" ht="16" customHeight="1">
-      <c r="A46" t="s" s="7">
+    <row r="46" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B46" t="s" s="7">
+      <c r="B46" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C46" t="s" s="7">
+      <c r="C46" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D46" t="s" s="8">
+      <c r="D46" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="E46" t="s" s="7">
+      <c r="E46" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <v>18439</v>
       </c>
-      <c r="G46" t="s" s="7">
+      <c r="G46" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H46" t="s" s="7">
+      <c r="H46" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I46" t="s" s="7">
+      <c r="I46" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J46" t="s" s="7">
+      <c r="J46" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="K46" t="s" s="7">
+      <c r="K46" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="L46" t="s" s="7">
+      <c r="L46" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="M46" t="s" s="7">
+      <c r="M46" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N46" t="s" s="7">
+      <c r="N46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O46" s="10">
+      <c r="O46" s="9">
         <v>12389</v>
       </c>
-      <c r="P46" t="s" s="7">
+      <c r="P46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q46" t="s" s="7">
+      <c r="Q46" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="R46" t="s" s="7">
+      <c r="R46" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="S46" t="s" s="7">
+      <c r="S46" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="T46" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U46" t="s" s="7">
+      <c r="T46" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U46" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V46" t="s" s="7">
+      <c r="V46" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" ht="16" customHeight="1">
-      <c r="A47" t="s" s="7">
+    <row r="47" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B47" t="s" s="7">
+      <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C47" t="s" s="7">
+      <c r="C47" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D47" t="s" s="11">
+      <c r="D47" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="E47" t="s" s="7">
+      <c r="E47" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="8">
         <v>18440</v>
       </c>
-      <c r="G47" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H47" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I47" t="s" s="7">
+      <c r="G47" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J47" t="s" s="7">
+      <c r="J47" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="K47" t="s" s="7">
+      <c r="K47" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="L47" t="s" s="7">
+      <c r="L47" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M47" t="s" s="7">
+      <c r="M47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N47" t="s" s="7">
+      <c r="N47" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O47" s="10">
+      <c r="O47" s="9">
         <v>12390</v>
       </c>
-      <c r="P47" t="s" s="7">
+      <c r="P47" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q47" t="s" s="7">
+      <c r="Q47" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="R47" t="s" s="7">
+      <c r="R47" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="S47" t="s" s="7">
+      <c r="S47" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="T47" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U47" t="s" s="7">
+      <c r="T47" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U47" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V47" t="s" s="7">
+      <c r="V47" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" ht="16" customHeight="1">
-      <c r="A48" t="s" s="7">
+    <row r="48" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B48" t="s" s="7">
+      <c r="B48" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s" s="7">
+      <c r="C48" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D48" t="s" s="11">
+      <c r="D48" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E48" t="s" s="7">
+      <c r="E48" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="8">
         <v>18441</v>
       </c>
-      <c r="G48" t="s" s="7">
+      <c r="G48" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H48" t="s" s="7">
+      <c r="H48" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I48" t="s" s="7">
+      <c r="I48" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J48" t="s" s="7">
+      <c r="J48" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="K48" t="s" s="7">
+      <c r="K48" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="L48" t="s" s="7">
+      <c r="L48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M48" t="s" s="7">
+      <c r="M48" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N48" t="s" s="7">
+      <c r="N48" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O48" s="10">
+      <c r="O48" s="9">
         <v>12391</v>
       </c>
-      <c r="P48" t="s" s="7">
+      <c r="P48" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q48" t="s" s="7">
+      <c r="Q48" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="R48" t="s" s="7">
+      <c r="R48" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="S48" t="s" s="7">
+      <c r="S48" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="T48" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U48" t="s" s="7">
+      <c r="T48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V48" t="s" s="7">
+      <c r="V48" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" ht="16" customHeight="1">
-      <c r="A49" t="s" s="7">
+    <row r="49" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B49" t="s" s="7">
+      <c r="B49" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C49" t="s" s="7">
+      <c r="C49" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D49" t="s" s="11">
+      <c r="D49" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E49" t="s" s="7">
+      <c r="E49" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="8">
         <v>18442</v>
       </c>
-      <c r="G49" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="H49" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I49" t="s" s="7">
+      <c r="G49" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J49" t="s" s="7">
+      <c r="J49" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="K49" t="s" s="7">
+      <c r="K49" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="L49" t="s" s="7">
+      <c r="L49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M49" t="s" s="7">
+      <c r="M49" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N49" t="s" s="7">
+      <c r="N49" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O49" s="10">
+      <c r="O49" s="9">
         <v>12392</v>
       </c>
-      <c r="P49" t="s" s="7">
+      <c r="P49" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q49" t="s" s="7">
+      <c r="Q49" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="R49" t="s" s="7">
+      <c r="R49" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="S49" t="s" s="7">
+      <c r="S49" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="T49" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U49" t="s" s="7">
+      <c r="T49" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U49" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V49" t="s" s="7">
+      <c r="V49" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" ht="16" customHeight="1">
-      <c r="A50" t="s" s="7">
+    <row r="50" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B50" t="s" s="7">
+      <c r="B50" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C50" t="s" s="7">
+      <c r="C50" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D50" t="s" s="8">
+      <c r="D50" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="E50" t="s" s="7">
+      <c r="E50" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="8">
         <v>18443</v>
       </c>
-      <c r="G50" t="s" s="7">
+      <c r="G50" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H50" t="s" s="7">
+      <c r="H50" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I50" t="s" s="7">
+      <c r="I50" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J50" t="s" s="7">
+      <c r="J50" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="K50" t="s" s="7">
+      <c r="K50" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="L50" t="s" s="7">
+      <c r="L50" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M50" t="s" s="7">
+      <c r="M50" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N50" t="s" s="7">
+      <c r="N50" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O50" s="10">
+      <c r="O50" s="9">
         <v>12393</v>
       </c>
-      <c r="P50" t="s" s="7">
+      <c r="P50" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q50" t="s" s="7">
+      <c r="Q50" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="R50" t="s" s="7">
+      <c r="R50" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="S50" t="s" s="7">
+      <c r="S50" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="T50" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="U50" t="s" s="7">
+      <c r="T50" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U50" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V50" t="s" s="7">
+      <c r="V50" s="6" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display="sandy.peterson12@abc.com"/>
-    <hyperlink ref="D3" r:id="rId2" location="" tooltip="" display="sam.peterson13@abc.com"/>
-    <hyperlink ref="D4" r:id="rId3" location="" tooltip="" display="hillary.peterson14@abc.com"/>
-    <hyperlink ref="D5" r:id="rId4" location="" tooltip="" display="michael.peterson15@abc.com"/>
-    <hyperlink ref="D6" r:id="rId5" location="" tooltip="" display="sandy.peterson13@abc.com"/>
-    <hyperlink ref="D7" r:id="rId6" location="" tooltip="" display="sam.peterson14@abc.com"/>
-    <hyperlink ref="D8" r:id="rId7" location="" tooltip="" display="hillary.peterson15@abc.com"/>
-    <hyperlink ref="D9" r:id="rId8" location="" tooltip="" display="michael.peterson16@abc.com"/>
-    <hyperlink ref="D10" r:id="rId9" location="" tooltip="" display="sandy.peterson14@abc.com"/>
-    <hyperlink ref="D11" r:id="rId10" location="" tooltip="" display="sam.peterson15@abc.com"/>
-    <hyperlink ref="D12" r:id="rId11" location="" tooltip="" display="hillary.peterson16@abc.com"/>
-    <hyperlink ref="D13" r:id="rId12" location="" tooltip="" display="michael.peterson17@abc.com"/>
-    <hyperlink ref="D14" r:id="rId13" location="" tooltip="" display="sandy.peterson15@abc.com"/>
-    <hyperlink ref="D15" r:id="rId14" location="" tooltip="" display="sam.peterson16@abc.com"/>
-    <hyperlink ref="D16" r:id="rId15" location="" tooltip="" display="hillary.peterson17@abc.com"/>
-    <hyperlink ref="D17" r:id="rId16" location="" tooltip="" display="michael.peterson18@abc.com"/>
-    <hyperlink ref="D18" r:id="rId17" location="" tooltip="" display="sandy.peterson16@abc.com"/>
-    <hyperlink ref="D19" r:id="rId18" location="" tooltip="" display="sam.peterson17@abc.com"/>
-    <hyperlink ref="D20" r:id="rId19" location="" tooltip="" display="hillary.peterson18@abc.com"/>
-    <hyperlink ref="D21" r:id="rId20" location="" tooltip="" display="michael.peterson19@abc.com"/>
-    <hyperlink ref="D22" r:id="rId21" location="" tooltip="" display="sandy.peterson17@abc.com"/>
-    <hyperlink ref="D23" r:id="rId22" location="" tooltip="" display="sam.peterson18@abc.com"/>
-    <hyperlink ref="D24" r:id="rId23" location="" tooltip="" display="hillary.peterson19@abc.com"/>
-    <hyperlink ref="D25" r:id="rId24" location="" tooltip="" display="michael.peterson20@abc.com"/>
-    <hyperlink ref="D26" r:id="rId25" location="" tooltip="" display="sandy.peterson18@abc.com"/>
-    <hyperlink ref="D27" r:id="rId26" location="" tooltip="" display="sam.peterson19@abc.com"/>
-    <hyperlink ref="D28" r:id="rId27" location="" tooltip="" display="hillary.peterson20@abc.com"/>
-    <hyperlink ref="D29" r:id="rId28" location="" tooltip="" display="michael.peterson21@abc.com"/>
-    <hyperlink ref="D30" r:id="rId29" location="" tooltip="" display="sandy.peterson19@abc.com"/>
-    <hyperlink ref="D31" r:id="rId30" location="" tooltip="" display="sam.peterson20@abc.com"/>
-    <hyperlink ref="D32" r:id="rId31" location="" tooltip="" display="hillary.peterson21@abc.com"/>
-    <hyperlink ref="D33" r:id="rId32" location="" tooltip="" display="michael.peterson22@abc.com"/>
-    <hyperlink ref="D34" r:id="rId33" location="" tooltip="" display="sandy.peterson20@abc.com"/>
-    <hyperlink ref="D35" r:id="rId34" location="" tooltip="" display="sam.peterson21@abc.com"/>
-    <hyperlink ref="D36" r:id="rId35" location="" tooltip="" display="hillary.peterson22@abc.com"/>
-    <hyperlink ref="D37" r:id="rId36" location="" tooltip="" display="michael.peterson23@abc.com"/>
-    <hyperlink ref="D38" r:id="rId37" location="" tooltip="" display="sandy.peterson21@abc.com"/>
-    <hyperlink ref="D39" r:id="rId38" location="" tooltip="" display="sam.peterson22@abc.com"/>
-    <hyperlink ref="D40" r:id="rId39" location="" tooltip="" display="hillary.peterson23@abc.com"/>
-    <hyperlink ref="D41" r:id="rId40" location="" tooltip="" display="michael.peterson24@abc.com"/>
-    <hyperlink ref="D42" r:id="rId41" location="" tooltip="" display="sandy.peterson22@abc.com"/>
-    <hyperlink ref="D43" r:id="rId42" location="" tooltip="" display="sam.peterson23@abc.com"/>
-    <hyperlink ref="D44" r:id="rId43" location="" tooltip="" display="hillary.peterson24@abc.com"/>
-    <hyperlink ref="D45" r:id="rId44" location="" tooltip="" display="michael.peterson25@abc.com"/>
-    <hyperlink ref="D46" r:id="rId45" location="" tooltip="" display="sandy.peterson23@abc.com"/>
-    <hyperlink ref="D47" r:id="rId46" location="" tooltip="" display="sam.peterson24@abc.com"/>
-    <hyperlink ref="D48" r:id="rId47" location="" tooltip="" display="hillary.peterson25@abc.com"/>
-    <hyperlink ref="D49" r:id="rId48" location="" tooltip="" display="michael.peterson26@abc.com"/>
-    <hyperlink ref="D50" r:id="rId49" location="" tooltip="" display="sandy.peterson24@abc.com"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6853,102 +7071,102 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="12" customWidth="1"/>
-    <col min="2" max="5" width="9" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="12" customWidth="1"/>
+    <col min="1" max="1" width="22.46875" style="11" customWidth="1"/>
+    <col min="2" max="6" width="9" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="8">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display="kevinlee1234@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6956,113 +7174,113 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.3516" style="14" customWidth="1"/>
-    <col min="3" max="5" width="9" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="14" customWidth="1"/>
+    <col min="1" max="1" width="21" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.3515625" style="13" customWidth="1"/>
+    <col min="3" max="6" width="9" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="8">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display="kevinlee1234@gmail"/>
-    <hyperlink ref="A3" r:id="rId2" location="" tooltip="" display="kevinlee1234@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId3" location="" tooltip="" display="kevinlee1234"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7070,123 +7288,123 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9.17188" style="15" customWidth="1"/>
-    <col min="3" max="3" width="103.172" style="15" customWidth="1"/>
-    <col min="4" max="5" width="9" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="15" customWidth="1"/>
+    <col min="1" max="1" width="21" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.17578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="103.17578125" style="14" customWidth="1"/>
+    <col min="4" max="6" width="9" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="8">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" t="s" s="7">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="12"/>
+      <c r="B4" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="8">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" t="s" s="7">
+      <c r="B5" s="12"/>
+      <c r="C5" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display="kevinlee1234@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId2" location="" tooltip="" display="kevinlee1234@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7194,95 +7412,95 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="47.1719" style="16" customWidth="1"/>
-    <col min="2" max="5" width="9" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="16" customWidth="1"/>
+    <col min="1" max="1" width="47.17578125" style="15" customWidth="1"/>
+    <col min="2" max="6" width="9" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" ht="126" customHeight="1">
-      <c r="A2" t="s" s="17">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7290,156 +7508,157 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.3516" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="14" style="18" customWidth="1"/>
-    <col min="4" max="4" width="53.8516" style="18" customWidth="1"/>
-    <col min="5" max="5" width="9" style="18" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="18" customWidth="1"/>
+    <col min="1" max="1" width="14.3515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.46875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14" style="17" customWidth="1"/>
+    <col min="4" max="4" width="53.8203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9" style="17" customWidth="1"/>
+    <col min="6" max="6" width="19.46875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D1" t="s" s="7">
+      <c r="D1" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="E1" t="s" s="7">
+      <c r="E1" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="F1" t="s" s="7">
+      <c r="F1" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="7">
+    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s" s="7">
+      <c r="F2" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s" s="7">
+      <c r="F3" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" t="s" s="7">
+      <c r="C4" s="12"/>
+      <c r="D4" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="E4" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s" s="7">
+      <c r="E4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display="henry123@abc.com"/>
-    <hyperlink ref="B3" r:id="rId2" location="" tooltip="" display="henry124@abc.com"/>
-    <hyperlink ref="B4" r:id="rId3" location="" tooltip="" display="kevinlee1234@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7447,123 +7666,123 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14" style="19" customWidth="1"/>
-    <col min="2" max="2" width="33.1719" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.1719" style="19" customWidth="1"/>
-    <col min="4" max="5" width="9" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="19" customWidth="1"/>
+    <col min="1" max="1" width="14" style="18" customWidth="1"/>
+    <col min="2" max="2" width="33.17578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="18.17578125" style="18" customWidth="1"/>
+    <col min="4" max="6" width="9" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="7">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C2" t="s" s="20">
+      <c r="C2" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C3" t="s" s="20">
+      <c r="C3" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C4" t="s" s="20">
+      <c r="C4" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C5" t="s" s="20">
+      <c r="C5" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7571,102 +7790,102 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="59.5" style="21" customWidth="1"/>
-    <col min="2" max="2" width="43.6719" style="21" customWidth="1"/>
-    <col min="3" max="5" width="9" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="21" customWidth="1"/>
+    <col min="1" max="1" width="59.46875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="43.64453125" style="20" customWidth="1"/>
+    <col min="3" max="6" width="9" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="7">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/main/resources/testData/ecommerce.xlsx
+++ b/src/main/resources/testData/ecommerce.xlsx
@@ -22,14 +22,14 @@
     <sheet name="contactUs" sheetId="7" r:id="rId7"/>
     <sheet name="searchKeywords" sheetId="8" r:id="rId8"/>
     <sheet name="dresses" sheetId="9" r:id="rId9"/>
-    <sheet name="ProductPage" sheetId="10" r:id="rId10"/>
+    <sheet name="ProductPage" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -124,15 +124,7 @@
     <t>Peterson</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sandy.peterson12@abc.com</t>
-    </r>
+    <t>sandy.peterson12@abc.com</t>
   </si>
   <si>
     <t>S-12Peter!</t>
@@ -180,15 +172,7 @@
     <t>Sam</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sam.peterson13@abc.com</t>
-    </r>
+    <t>sam.peterson13@abc.com</t>
   </si>
   <si>
     <t>S-13Peter!</t>
@@ -221,15 +205,7 @@
     <t>Hillary</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>hillary.peterson14@abc.com</t>
-    </r>
+    <t>hillary.peterson14@abc.com</t>
   </si>
   <si>
     <t>S-14Peter!</t>
@@ -259,15 +235,7 @@
     <t>Michael</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>michael.peterson15@abc.com</t>
-    </r>
+    <t>michael.peterson15@abc.com</t>
   </si>
   <si>
     <t>S-15Peter!</t>
@@ -294,15 +262,7 @@
     <t>800-666-6669</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sandy.peterson13@abc.com</t>
-    </r>
+    <t>sandy.peterson13@abc.com</t>
   </si>
   <si>
     <t>S-16Peter!</t>
@@ -326,15 +286,7 @@
     <t>800-666-6670</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sam.peterson14@abc.com</t>
-    </r>
+    <t>sam.peterson14@abc.com</t>
   </si>
   <si>
     <t>S-17Peter!</t>
@@ -352,15 +304,7 @@
     <t>800-666-6671</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>hillary.peterson15@abc.com</t>
-    </r>
+    <t>hillary.peterson15@abc.com</t>
   </si>
   <si>
     <t>S-18Peter!</t>
@@ -378,15 +322,7 @@
     <t>800-666-6672</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>michael.peterson16@abc.com</t>
-    </r>
+    <t>michael.peterson16@abc.com</t>
   </si>
   <si>
     <t>S-19Peter!</t>
@@ -404,15 +340,7 @@
     <t>800-666-6673</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sandy.peterson14@abc.com</t>
-    </r>
+    <t>sandy.peterson14@abc.com</t>
   </si>
   <si>
     <t>S-20Peter!</t>
@@ -430,15 +358,7 @@
     <t>800-666-6674</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sam.peterson15@abc.com</t>
-    </r>
+    <t>sam.peterson15@abc.com</t>
   </si>
   <si>
     <t>S-21Peter!</t>
@@ -456,15 +376,7 @@
     <t>800-666-6675</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>hillary.peterson16@abc.com</t>
-    </r>
+    <t>hillary.peterson16@abc.com</t>
   </si>
   <si>
     <t>S-22Peter!</t>
@@ -482,15 +394,7 @@
     <t>800-666-6676</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>michael.peterson17@abc.com</t>
-    </r>
+    <t>michael.peterson17@abc.com</t>
   </si>
   <si>
     <t>S-23Peter!</t>
@@ -508,15 +412,7 @@
     <t>800-666-6677</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sandy.peterson15@abc.com</t>
-    </r>
+    <t>sandy.peterson15@abc.com</t>
   </si>
   <si>
     <t>S-24Peter!</t>
@@ -534,15 +430,7 @@
     <t>800-666-6678</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sam.peterson16@abc.com</t>
-    </r>
+    <t>sam.peterson16@abc.com</t>
   </si>
   <si>
     <t>S-25Peter!</t>
@@ -560,15 +448,7 @@
     <t>800-666-6679</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>hillary.peterson17@abc.com</t>
-    </r>
+    <t>hillary.peterson17@abc.com</t>
   </si>
   <si>
     <t>S-26Peter!</t>
@@ -586,15 +466,7 @@
     <t>800-666-6680</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>michael.peterson18@abc.com</t>
-    </r>
+    <t>michael.peterson18@abc.com</t>
   </si>
   <si>
     <t>S-27Peter!</t>
@@ -612,15 +484,7 @@
     <t>800-666-6681</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sandy.peterson16@abc.com</t>
-    </r>
+    <t>sandy.peterson16@abc.com</t>
   </si>
   <si>
     <t>S-28Peter!</t>
@@ -638,15 +502,7 @@
     <t>800-666-6682</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sam.peterson17@abc.com</t>
-    </r>
+    <t>sam.peterson17@abc.com</t>
   </si>
   <si>
     <t>S-29Peter!</t>
@@ -664,15 +520,7 @@
     <t>800-666-6683</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>hillary.peterson18@abc.com</t>
-    </r>
+    <t>hillary.peterson18@abc.com</t>
   </si>
   <si>
     <t>S-30Peter!</t>
@@ -690,15 +538,7 @@
     <t>800-666-6684</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>michael.peterson19@abc.com</t>
-    </r>
+    <t>michael.peterson19@abc.com</t>
   </si>
   <si>
     <t>S-31Peter!</t>
@@ -716,15 +556,7 @@
     <t>800-666-6685</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sandy.peterson17@abc.com</t>
-    </r>
+    <t>sandy.peterson17@abc.com</t>
   </si>
   <si>
     <t>S-32Peter!</t>
@@ -742,15 +574,7 @@
     <t>800-666-6686</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sam.peterson18@abc.com</t>
-    </r>
+    <t>sam.peterson18@abc.com</t>
   </si>
   <si>
     <t>S-33Peter!</t>
@@ -768,15 +592,7 @@
     <t>800-666-6687</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>hillary.peterson19@abc.com</t>
-    </r>
+    <t>hillary.peterson19@abc.com</t>
   </si>
   <si>
     <t>S-34Peter!</t>
@@ -794,15 +610,7 @@
     <t>800-666-6688</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>michael.peterson20@abc.com</t>
-    </r>
+    <t>michael.peterson20@abc.com</t>
   </si>
   <si>
     <t>S-35Peter!</t>
@@ -820,15 +628,7 @@
     <t>800-666-6689</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sandy.peterson18@abc.com</t>
-    </r>
+    <t>sandy.peterson18@abc.com</t>
   </si>
   <si>
     <t>S-36Peter!</t>
@@ -846,15 +646,7 @@
     <t>800-666-6690</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sam.peterson19@abc.com</t>
-    </r>
+    <t>sam.peterson19@abc.com</t>
   </si>
   <si>
     <t>S-37Peter!</t>
@@ -872,15 +664,7 @@
     <t>800-666-6691</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>hillary.peterson20@abc.com</t>
-    </r>
+    <t>hillary.peterson20@abc.com</t>
   </si>
   <si>
     <t>S-38Peter!</t>
@@ -898,15 +682,7 @@
     <t>800-666-6692</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>michael.peterson21@abc.com</t>
-    </r>
+    <t>michael.peterson21@abc.com</t>
   </si>
   <si>
     <t>S-39Peter!</t>
@@ -924,15 +700,7 @@
     <t>800-666-6693</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sandy.peterson19@abc.com</t>
-    </r>
+    <t>sandy.peterson19@abc.com</t>
   </si>
   <si>
     <t>S-40Peter!</t>
@@ -950,15 +718,7 @@
     <t>800-666-6694</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sam.peterson20@abc.com</t>
-    </r>
+    <t>sam.peterson20@abc.com</t>
   </si>
   <si>
     <t>S-41Peter!</t>
@@ -976,15 +736,7 @@
     <t>800-666-6695</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>hillary.peterson21@abc.com</t>
-    </r>
+    <t>hillary.peterson21@abc.com</t>
   </si>
   <si>
     <t>S-42Peter!</t>
@@ -1002,15 +754,7 @@
     <t>800-666-6696</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>michael.peterson22@abc.com</t>
-    </r>
+    <t>michael.peterson22@abc.com</t>
   </si>
   <si>
     <t>S-43Peter!</t>
@@ -1028,15 +772,7 @@
     <t>800-666-6697</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sandy.peterson20@abc.com</t>
-    </r>
+    <t>sandy.peterson20@abc.com</t>
   </si>
   <si>
     <t>S-44Peter!</t>
@@ -1054,15 +790,7 @@
     <t>800-666-6698</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sam.peterson21@abc.com</t>
-    </r>
+    <t>sam.peterson21@abc.com</t>
   </si>
   <si>
     <t>S-45Peter!</t>
@@ -1080,15 +808,7 @@
     <t>800-666-6699</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>hillary.peterson22@abc.com</t>
-    </r>
+    <t>hillary.peterson22@abc.com</t>
   </si>
   <si>
     <t>S-46Peter!</t>
@@ -1106,15 +826,7 @@
     <t>800-666-6700</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>michael.peterson23@abc.com</t>
-    </r>
+    <t>michael.peterson23@abc.com</t>
   </si>
   <si>
     <t>S-47Peter!</t>
@@ -1132,15 +844,7 @@
     <t>800-666-6701</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sandy.peterson21@abc.com</t>
-    </r>
+    <t>sandy.peterson21@abc.com</t>
   </si>
   <si>
     <t>S-48Peter!</t>
@@ -1158,15 +862,7 @@
     <t>800-666-6702</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sam.peterson22@abc.com</t>
-    </r>
+    <t>sam.peterson22@abc.com</t>
   </si>
   <si>
     <t>S-49Peter!</t>
@@ -1184,15 +880,7 @@
     <t>800-666-6703</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>hillary.peterson23@abc.com</t>
-    </r>
+    <t>hillary.peterson23@abc.com</t>
   </si>
   <si>
     <t>S-50Peter!</t>
@@ -1210,15 +898,7 @@
     <t>800-666-6704</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>michael.peterson24@abc.com</t>
-    </r>
+    <t>michael.peterson24@abc.com</t>
   </si>
   <si>
     <t>S-51Peter!</t>
@@ -1236,15 +916,7 @@
     <t>800-666-6705</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sandy.peterson22@abc.com</t>
-    </r>
+    <t>sandy.peterson22@abc.com</t>
   </si>
   <si>
     <t>S-52Peter!</t>
@@ -1262,15 +934,7 @@
     <t>800-666-6706</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sam.peterson23@abc.com</t>
-    </r>
+    <t>sam.peterson23@abc.com</t>
   </si>
   <si>
     <t>S-53Peter!</t>
@@ -1288,15 +952,7 @@
     <t>800-666-6707</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>hillary.peterson24@abc.com</t>
-    </r>
+    <t>hillary.peterson24@abc.com</t>
   </si>
   <si>
     <t>S-54Peter!</t>
@@ -1314,15 +970,7 @@
     <t>800-666-6708</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>michael.peterson25@abc.com</t>
-    </r>
+    <t>michael.peterson25@abc.com</t>
   </si>
   <si>
     <t>S-55Peter!</t>
@@ -1340,15 +988,7 @@
     <t>800-666-6709</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sandy.peterson23@abc.com</t>
-    </r>
+    <t>sandy.peterson23@abc.com</t>
   </si>
   <si>
     <t>S-56Peter!</t>
@@ -1366,15 +1006,7 @@
     <t>800-666-6710</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sam.peterson24@abc.com</t>
-    </r>
+    <t>sam.peterson24@abc.com</t>
   </si>
   <si>
     <t>S-57Peter!</t>
@@ -1392,15 +1024,7 @@
     <t>800-666-6711</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>hillary.peterson25@abc.com</t>
-    </r>
+    <t>hillary.peterson25@abc.com</t>
   </si>
   <si>
     <t>S-58Peter!</t>
@@ -1418,15 +1042,7 @@
     <t>800-666-6712</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="13"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>michael.peterson26@abc.com</t>
-    </r>
+    <t>michael.peterson26@abc.com</t>
   </si>
   <si>
     <t>S-59Peter!</t>
@@ -1444,15 +1060,7 @@
     <t>800-666-6713</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>sandy.peterson24@abc.com</t>
-    </r>
+    <t>sandy.peterson24@abc.com</t>
   </si>
   <si>
     <t>S-60Peter!</t>
@@ -1473,15 +1081,7 @@
     <t>userLogin</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>kevinlee1234@gmail.com</t>
-    </r>
+    <t>kevinlee1234@gmail.com</t>
   </si>
   <si>
     <t>Kevin123</t>
@@ -1493,15 +1093,7 @@
     <t>errorMessages</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>kevinlee1234@gmail</t>
-    </r>
+    <t>kevinlee1234@gmail</t>
   </si>
   <si>
     <t>Invalid email address.</t>
@@ -1510,15 +1102,7 @@
     <t>An account using this email address has already been registered. Please enter a valid password or request a new one.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>kevinlee1234</t>
-    </r>
+    <t>kevinlee1234</t>
   </si>
   <si>
     <t>negativeLogin</t>
@@ -1576,15 +1160,7 @@
     <t>Webmaster</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>henry123@abc.com</t>
-    </r>
+    <t>henry123@abc.com</t>
   </si>
   <si>
     <t>KDF3454GH</t>
@@ -1599,15 +1175,7 @@
     <t>Customer service</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>henry124@abc.com</t>
-    </r>
+    <t>henry124@abc.com</t>
   </si>
   <si>
     <t>LPDJ4689KL</t>
@@ -1722,6 +1290,30 @@
   </si>
   <si>
     <t>Peter@gmail.com</t>
+  </si>
+  <si>
+    <t>fdtrg</t>
+  </si>
+  <si>
+    <t>PickColor</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>ShippingCost</t>
+  </si>
+  <si>
+    <t>TotalCost</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mm&quot;-&quot;yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1802,6 +1394,10 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1890,7 +1486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2015,6 +1611,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3182,20 +2781,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="30.52734375" customWidth="1"/>
+    <col min="2" max="2" width="30.52734375" customWidth="1"/>
+    <col min="3" max="3" width="30.52734375" customWidth="1"/>
+    <col min="4" max="4" width="30.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="50" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" customHeight="1" ht="48">
       <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
     </row>
-    <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.5">
+    <row r="7" ht="18">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -3206,14 +2807,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="9" ht="15">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="10" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>5</v>
@@ -3222,14 +2823,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="11" ht="15">
       <c r="B11" s="2" t="s">
         <v>349</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="12" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>5</v>
@@ -3238,14 +2839,14 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="13" ht="15">
       <c r="B13" s="2" t="s">
         <v>352</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="14" ht="15">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>5</v>
@@ -3254,14 +2855,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="15" ht="15">
       <c r="B15" s="2" t="s">
         <v>358</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="16" ht="15">
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>5</v>
@@ -3270,14 +2871,14 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="17" ht="15">
       <c r="B17" s="2" t="s">
         <v>364</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="18" ht="15">
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
@@ -3286,14 +2887,14 @@
         <v>364</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="19" ht="15">
       <c r="B19" s="2" t="s">
         <v>366</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="20" ht="15">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>5</v>
@@ -3302,14 +2903,14 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="21" ht="15">
       <c r="B21" s="2" t="s">
         <v>383</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="22" ht="15">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>5</v>
@@ -3318,14 +2919,14 @@
         <v>383</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="23" ht="15">
       <c r="B23" s="2" t="s">
         <v>394</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="24" ht="15">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>5</v>
@@ -3334,14 +2935,14 @@
         <v>394</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="25" ht="15">
       <c r="B25" s="2" t="s">
         <v>399</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:4" ht="15.7" x14ac:dyDescent="0.5">
+    <row r="26" ht="15">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
         <v>5</v>
@@ -3370,30 +2971,15 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="A1" activeCellId="0" sqref="1:2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="24.46875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="12.52734375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="9.9375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="31.3515625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="16.05859375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="9" style="21" customWidth="1"/>
-    <col min="7" max="7" width="11.1171875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="14.5859375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="11.703125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="14.05859375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="15.76171875" style="21" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="21"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1">
       <c r="A1" s="31" t="s">
         <v>400</v>
       </c>
@@ -3424,11 +3010,26 @@
       <c r="J1" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="34" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="L1" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" ht="18">
       <c r="A2" s="35" t="s">
         <v>405</v>
       </c>
@@ -3448,7 +3049,7 @@
         <v>30.51</v>
       </c>
       <c r="G2" s="38">
-        <v>0.05</v>
+        <v>5E-2</v>
       </c>
       <c r="H2" s="34">
         <v>4</v>
@@ -3462,120 +3063,28 @@
       <c r="K2" s="41" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="24"/>
-    </row>
-    <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-    </row>
-    <row r="6" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-    </row>
-    <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-    </row>
-    <row r="8" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-    </row>
-    <row r="9" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-    </row>
-    <row r="10" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="L2" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="N2" s="0">
+        <v>2</v>
+      </c>
+      <c r="O2" s="0">
+        <v>2</v>
+      </c>
+      <c r="P2" s="0">
+        <f>E2*N2+O2</f>
+        <v>59.96</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{961FA685-23C6-4EC9-9FAE-528022F10CC8}"/>
+    <hyperlink ref="K2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3585,9 +3094,11 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="9" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" customWidth="1"/>
     <col min="4" max="4" width="27.46875" style="5" customWidth="1"/>
     <col min="5" max="5" width="9" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.46875" style="5" customWidth="1"/>
@@ -3598,7 +3109,8 @@
     <col min="11" max="11" width="9" style="5" customWidth="1"/>
     <col min="12" max="12" width="13" style="5" customWidth="1"/>
     <col min="13" max="13" width="14.64453125" style="5" customWidth="1"/>
-    <col min="14" max="15" width="12.46875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12.46875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="12.46875" style="5" customWidth="1"/>
     <col min="16" max="16" width="41.46875" style="5" customWidth="1"/>
     <col min="17" max="17" width="12.46875" style="5" customWidth="1"/>
     <col min="18" max="18" width="13.3515625" style="5" customWidth="1"/>
@@ -3610,7 +3122,7 @@
     <col min="24" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" customHeight="1" ht="15">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -3678,7 +3190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" customHeight="1" ht="15">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -3746,7 +3258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" customHeight="1" ht="15">
       <c r="A3" s="6" t="s">
         <v>45</v>
       </c>
@@ -3814,7 +3326,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" customHeight="1" ht="15">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -3882,7 +3394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" customHeight="1" ht="15">
       <c r="A5" s="6" t="s">
         <v>45</v>
       </c>
@@ -3950,7 +3462,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" customHeight="1" ht="15">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -4018,7 +3530,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" customHeight="1" ht="15">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
@@ -4086,7 +3598,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" customHeight="1" ht="15">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -4154,7 +3666,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" customHeight="1" ht="15">
       <c r="A9" s="6" t="s">
         <v>45</v>
       </c>
@@ -4222,7 +3734,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" customHeight="1" ht="15">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -4290,7 +3802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" customHeight="1" ht="15">
       <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
@@ -4358,7 +3870,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" customHeight="1" ht="15">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -4426,7 +3938,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" customHeight="1" ht="15">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
@@ -4494,7 +4006,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" customHeight="1" ht="15">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
@@ -4562,7 +4074,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" customHeight="1" ht="15">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -4630,7 +4142,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" customHeight="1" ht="15">
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
@@ -4698,7 +4210,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" customHeight="1" ht="15">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -4766,7 +4278,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" customHeight="1" ht="15">
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
@@ -4834,7 +4346,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" customHeight="1" ht="15">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -4902,7 +4414,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" customHeight="1" ht="15">
       <c r="A20" s="6" t="s">
         <v>28</v>
       </c>
@@ -4970,7 +4482,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" customHeight="1" ht="15">
       <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
@@ -5038,7 +4550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" customHeight="1" ht="15">
       <c r="A22" s="6" t="s">
         <v>28</v>
       </c>
@@ -5106,7 +4618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" customHeight="1" ht="15">
       <c r="A23" s="6" t="s">
         <v>45</v>
       </c>
@@ -5174,7 +4686,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" customHeight="1" ht="15">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -5242,7 +4754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" customHeight="1" ht="15">
       <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
@@ -5310,7 +4822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" customHeight="1" ht="15">
       <c r="A26" s="6" t="s">
         <v>28</v>
       </c>
@@ -5378,7 +4890,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" customHeight="1" ht="15">
       <c r="A27" s="6" t="s">
         <v>45</v>
       </c>
@@ -5446,7 +4958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" customHeight="1" ht="15">
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
@@ -5514,7 +5026,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" customHeight="1" ht="15">
       <c r="A29" s="6" t="s">
         <v>45</v>
       </c>
@@ -5582,7 +5094,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" customHeight="1" ht="15">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -5650,7 +5162,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" customHeight="1" ht="15">
       <c r="A31" s="6" t="s">
         <v>45</v>
       </c>
@@ -5718,7 +5230,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" customHeight="1" ht="15">
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
@@ -5786,7 +5298,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" customHeight="1" ht="15">
       <c r="A33" s="6" t="s">
         <v>45</v>
       </c>
@@ -5854,7 +5366,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" customHeight="1" ht="15">
       <c r="A34" s="6" t="s">
         <v>28</v>
       </c>
@@ -5922,7 +5434,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" customHeight="1" ht="15">
       <c r="A35" s="6" t="s">
         <v>45</v>
       </c>
@@ -5990,7 +5502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" customHeight="1" ht="15">
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
@@ -6058,7 +5570,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" customHeight="1" ht="15">
       <c r="A37" s="6" t="s">
         <v>45</v>
       </c>
@@ -6126,7 +5638,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" customHeight="1" ht="15">
       <c r="A38" s="6" t="s">
         <v>28</v>
       </c>
@@ -6194,7 +5706,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" customHeight="1" ht="15">
       <c r="A39" s="6" t="s">
         <v>45</v>
       </c>
@@ -6262,7 +5774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" customHeight="1" ht="15">
       <c r="A40" s="6" t="s">
         <v>28</v>
       </c>
@@ -6330,7 +5842,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="41" customHeight="1" ht="15">
       <c r="A41" s="6" t="s">
         <v>45</v>
       </c>
@@ -6398,7 +5910,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" customHeight="1" ht="15">
       <c r="A42" s="6" t="s">
         <v>28</v>
       </c>
@@ -6466,7 +5978,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="43" customHeight="1" ht="15">
       <c r="A43" s="6" t="s">
         <v>45</v>
       </c>
@@ -6534,7 +6046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="44" customHeight="1" ht="15">
       <c r="A44" s="6" t="s">
         <v>28</v>
       </c>
@@ -6602,7 +6114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" customHeight="1" ht="15">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
@@ -6670,7 +6182,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="46" customHeight="1" ht="15">
       <c r="A46" s="6" t="s">
         <v>28</v>
       </c>
@@ -6738,7 +6250,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="47" customHeight="1" ht="15">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -6806,7 +6318,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="48" customHeight="1" ht="15">
       <c r="A48" s="6" t="s">
         <v>28</v>
       </c>
@@ -6874,7 +6386,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="49" customHeight="1" ht="15">
       <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
@@ -6942,7 +6454,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="50" customHeight="1" ht="15">
       <c r="A50" s="6" t="s">
         <v>28</v>
       </c>
@@ -7076,14 +6588,18 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="22.46875" style="11" customWidth="1"/>
-    <col min="2" max="6" width="9" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9" style="11" customWidth="1"/>
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" customHeight="1" ht="15">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -7094,7 +6610,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" customHeight="1" ht="15">
       <c r="A2" s="7" t="s">
         <v>350</v>
       </c>
@@ -7105,56 +6621,56 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" customHeight="1" ht="15">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" customHeight="1" ht="15">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" customHeight="1" ht="15">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" customHeight="1" ht="15">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" customHeight="1" ht="15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" customHeight="1" ht="15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" customHeight="1" ht="15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" customHeight="1" ht="15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -7179,15 +6695,18 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="21" style="13" customWidth="1"/>
     <col min="2" max="2" width="19.3515625" style="13" customWidth="1"/>
-    <col min="3" max="6" width="9" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9" style="13" customWidth="1"/>
     <col min="7" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" customHeight="1" ht="15">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -7198,7 +6717,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" customHeight="1" ht="15">
       <c r="A2" s="7" t="s">
         <v>354</v>
       </c>
@@ -7209,7 +6728,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" customHeight="1" ht="15">
       <c r="A3" s="7" t="s">
         <v>350</v>
       </c>
@@ -7220,7 +6739,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" customHeight="1" ht="15">
       <c r="A4" s="7" t="s">
         <v>357</v>
       </c>
@@ -7231,42 +6750,42 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" customHeight="1" ht="15">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" customHeight="1" ht="15">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" customHeight="1" ht="15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" customHeight="1" ht="15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" customHeight="1" ht="15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" customHeight="1" ht="15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -7293,16 +6812,18 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="21" style="14" customWidth="1"/>
     <col min="2" max="2" width="9.17578125" style="14" customWidth="1"/>
     <col min="3" max="3" width="103.17578125" style="14" customWidth="1"/>
-    <col min="4" max="6" width="9" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9" style="14" customWidth="1"/>
+    <col min="5" max="5" width="9" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9" style="14" customWidth="1"/>
     <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" customHeight="1" ht="15">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -7315,7 +6836,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" customHeight="1" ht="15">
       <c r="A2" s="7" t="s">
         <v>350</v>
       </c>
@@ -7328,7 +6849,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" customHeight="1" ht="15">
       <c r="A3" s="6" t="s">
         <v>361</v>
       </c>
@@ -7341,7 +6862,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" customHeight="1" ht="15">
       <c r="A4" s="12"/>
       <c r="B4" s="6" t="s">
         <v>351</v>
@@ -7352,7 +6873,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" customHeight="1" ht="15">
       <c r="A5" s="7" t="s">
         <v>350</v>
       </c>
@@ -7363,35 +6884,35 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" customHeight="1" ht="15">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" customHeight="1" ht="15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" customHeight="1" ht="15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" customHeight="1" ht="15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" customHeight="1" ht="15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -7417,14 +6938,18 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="47.17578125" style="15" customWidth="1"/>
-    <col min="2" max="6" width="9" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9" style="15" customWidth="1"/>
+    <col min="3" max="3" width="9" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9" style="15" customWidth="1"/>
+    <col min="5" max="5" width="9" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9" style="15" customWidth="1"/>
     <col min="7" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" customHeight="1" ht="15">
       <c r="A1" s="6" t="s">
         <v>353</v>
       </c>
@@ -7433,7 +6958,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" customHeight="1" ht="126">
       <c r="A2" s="16" t="s">
         <v>365</v>
       </c>
@@ -7442,56 +6967,56 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" customHeight="1" ht="15">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" customHeight="1" ht="15">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" customHeight="1" ht="15">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" customHeight="1" ht="15">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" customHeight="1" ht="15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" customHeight="1" ht="15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" customHeight="1" ht="15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" customHeight="1" ht="15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -7513,7 +7038,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="14.3515625" style="17" customWidth="1"/>
     <col min="2" max="2" width="22.46875" style="17" customWidth="1"/>
@@ -7525,7 +7050,7 @@
     <col min="8" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" customHeight="1" ht="15">
       <c r="A1" s="6" t="s">
         <v>367</v>
       </c>
@@ -7545,7 +7070,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" customHeight="1" ht="15">
       <c r="A2" s="6" t="s">
         <v>373</v>
       </c>
@@ -7565,7 +7090,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" customHeight="1" ht="15">
       <c r="A3" s="6" t="s">
         <v>378</v>
       </c>
@@ -7585,7 +7110,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" customHeight="1" ht="15">
       <c r="A4" s="6" t="s">
         <v>373</v>
       </c>
@@ -7603,7 +7128,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" customHeight="1" ht="15">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -7611,7 +7136,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" customHeight="1" ht="15">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -7619,7 +7144,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" customHeight="1" ht="15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -7627,7 +7152,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" customHeight="1" ht="15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -7635,7 +7160,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" customHeight="1" ht="15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -7643,7 +7168,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" customHeight="1" ht="15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -7671,16 +7196,18 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="14" style="18" customWidth="1"/>
     <col min="2" max="2" width="33.17578125" style="18" customWidth="1"/>
     <col min="3" max="3" width="18.17578125" style="18" customWidth="1"/>
-    <col min="4" max="6" width="9" style="18" customWidth="1"/>
+    <col min="4" max="4" width="9" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9" style="18" customWidth="1"/>
     <col min="7" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" customHeight="1" ht="15">
       <c r="A1" s="6" t="s">
         <v>384</v>
       </c>
@@ -7693,7 +7220,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" customHeight="1" ht="15">
       <c r="A2" s="6" t="s">
         <v>387</v>
       </c>
@@ -7706,7 +7233,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" customHeight="1" ht="15">
       <c r="A3" s="6" t="s">
         <v>390</v>
       </c>
@@ -7719,7 +7246,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" customHeight="1" ht="15">
       <c r="A4" s="6" t="s">
         <v>391</v>
       </c>
@@ -7732,7 +7259,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" customHeight="1" ht="15">
       <c r="A5" s="6" t="s">
         <v>393</v>
       </c>
@@ -7745,35 +7272,35 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" customHeight="1" ht="15">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" customHeight="1" ht="15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" customHeight="1" ht="15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" customHeight="1" ht="15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" customHeight="1" ht="15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -7795,15 +7322,18 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="59.46875" style="20" customWidth="1"/>
     <col min="2" max="2" width="43.64453125" style="20" customWidth="1"/>
-    <col min="3" max="6" width="9" style="20" customWidth="1"/>
+    <col min="3" max="3" width="9" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9" style="20" customWidth="1"/>
     <col min="7" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" customHeight="1" ht="15">
       <c r="A1" s="6" t="s">
         <v>395</v>
       </c>
@@ -7816,7 +7346,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" customHeight="1" ht="15">
       <c r="A2" s="6" t="s">
         <v>397</v>
       </c>
@@ -7827,56 +7357,56 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" customHeight="1" ht="15">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" customHeight="1" ht="15">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" customHeight="1" ht="15">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" customHeight="1" ht="15">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" customHeight="1" ht="15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" customHeight="1" ht="15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" customHeight="1" ht="15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" customHeight="1" ht="15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>

--- a/src/main/resources/testData/ecommerce.xlsx
+++ b/src/main/resources/testData/ecommerce.xlsx
@@ -1321,11 +1321,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="d&quot;-&quot;mm&quot;-&quot;yyyy"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="d&quot;-&quot;mm&quot;-&quot;yyyy"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1392,39 +1392,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,10 +1407,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1449,14 +1443,6 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1475,16 +1461,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1497,8 +1504,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1506,7 +1514,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1517,14 +1525,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1555,13 +1555,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,13 +1663,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,25 +1687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,7 +1705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,67 +1717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1705,37 +1735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,20 +1809,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1832,6 +1836,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1868,24 +1881,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1894,145 +1894,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2091,7 +2091,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3478,7 +3478,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelRow="1"/>

--- a/src/main/resources/testData/ecommerce.xlsx
+++ b/src/main/resources/testData/ecommerce.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16120" firstSheet="1" activeTab="9"/>
+    <workbookView windowHeight="16180" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="434">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -1280,6 +1280,15 @@
     <t>TotalCost</t>
   </si>
   <si>
+    <t>Rule1</t>
+  </si>
+  <si>
+    <t>Rule2</t>
+  </si>
+  <si>
+    <t>Rule3</t>
+  </si>
+  <si>
     <t>Printed Summer Dress</t>
   </si>
   <si>
@@ -1314,6 +1323,18 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use this website for all our practices of automation scripts. We (seleniumframework.com) have gone a long way to invest in creating this website and providing excellent experience for you to have a practice platform
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please try not spamming on this website. Also do not hit this website through a cron job or scheduled job that runs continuously. You might be taking away opportunity for other folks who may be using this website.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your feedback is the most critical piece of advice that we would appreciate. Please write to support@seleniumframework.com or support@automationpractice.com
+</t>
   </si>
 </sst>
 </file>
@@ -1323,9 +1344,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="d&quot;-&quot;mm&quot;-&quot;yyyy"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1385,6 +1406,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -1393,8 +1422,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1408,7 +1460,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1417,88 +1469,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1514,7 +1484,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1523,6 +1500,50 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1561,7 +1582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,13 +1594,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,19 +1618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,7 +1636,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,7 +1672,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,49 +1738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,43 +1756,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1816,35 +1837,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1860,6 +1859,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1881,11 +1889,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1894,152 +1915,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2067,8 +2088,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="48" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2130,39 +2154,39 @@
     <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
     <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
-    <cellStyle name="Bad" xfId="22" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
-    <cellStyle name="Total" xfId="24" builtinId="25"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="Currency" xfId="26" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
-    <cellStyle name="Note" xfId="28" builtinId="10"/>
-    <cellStyle name="Input" xfId="29" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
-    <cellStyle name="Good" xfId="32" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="Title" xfId="38" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
-    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
-    <cellStyle name="Link" xfId="43" builtinId="8"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -3278,7 +3302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:D26"/>
   <sheetViews>
@@ -3289,166 +3313,166 @@
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="30.5267857142857" customWidth="1"/>
+    <col min="2" max="4" width="30.5234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="48" customHeight="1" spans="2:2">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="17.6" spans="2:4">
-      <c r="B7" s="20" t="s">
+    <row r="7" ht="16.8" spans="2:4">
+      <c r="B7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="2:4">
-      <c r="B9" s="21" t="s">
+    <row r="9" ht="14.8" spans="2:4">
+      <c r="B9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" ht="15.6" spans="2:4">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" ht="14.8" spans="2:4">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="2:4">
-      <c r="B11" s="21" t="s">
+    <row r="11" ht="14.8" spans="2:4">
+      <c r="B11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" ht="15.6" spans="2:4">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" ht="14.8" spans="2:4">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="2:4">
-      <c r="B13" s="21" t="s">
+    <row r="13" ht="14.8" spans="2:4">
+      <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" ht="15.6" spans="2:4">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" ht="14.8" spans="2:4">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="2:4">
-      <c r="B15" s="21" t="s">
+    <row r="15" ht="14.8" spans="2:4">
+      <c r="B15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" ht="15.6" spans="2:4">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" ht="14.8" spans="2:4">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="2:4">
-      <c r="B17" s="21" t="s">
+    <row r="17" ht="14.8" spans="2:4">
+      <c r="B17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" ht="15.6" spans="2:4">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" ht="14.8" spans="2:4">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="2:4">
-      <c r="B19" s="21" t="s">
+    <row r="19" ht="14.8" spans="2:4">
+      <c r="B19" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" ht="15.6" spans="2:4">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" ht="14.8" spans="2:4">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="2:4">
-      <c r="B21" s="21" t="s">
+    <row r="21" ht="14.8" spans="2:4">
+      <c r="B21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="22" ht="15.6" spans="2:4">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" ht="14.8" spans="2:4">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="2:4">
-      <c r="B23" s="21" t="s">
+    <row r="23" ht="14.8" spans="2:4">
+      <c r="B23" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" ht="15.6" spans="2:4">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" ht="14.8" spans="2:4">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="2:4">
-      <c r="B25" s="21" t="s">
+    <row r="25" ht="14.8" spans="2:4">
+      <c r="B25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-    </row>
-    <row r="26" ht="15.6" spans="2:4">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" ht="14.8" spans="2:4">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3473,17 +3497,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9.890625" customWidth="1"/>
+    <col min="15" max="15" width="15.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>400</v>
       </c>
@@ -3532,19 +3560,28 @@
       <c r="P1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:16">
+      <c r="Q1" t="s">
+        <v>416</v>
+      </c>
+      <c r="R1" t="s">
+        <v>417</v>
+      </c>
+      <c r="S1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" ht="220" customHeight="1" spans="1:19">
       <c r="A2" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E2" s="6">
         <v>28.98</v>
@@ -3553,28 +3590,28 @@
         <v>30.51</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -3582,6 +3619,15 @@
       <c r="P2">
         <f>E2*N2+O2</f>
         <v>59.96</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -3594,7 +3640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:V50"/>
   <sheetViews>
@@ -3604,3426 +3650,3426 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="9" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.4732142857143" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.4732142857143" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.3482142857143" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.8214285714286" style="10" customWidth="1"/>
-    <col min="9" max="9" width="23.1785714285714" style="10" customWidth="1"/>
-    <col min="10" max="10" width="14.1785714285714" style="10" customWidth="1"/>
-    <col min="11" max="11" width="9" style="10" customWidth="1"/>
-    <col min="12" max="12" width="13" style="10" customWidth="1"/>
-    <col min="13" max="13" width="14.6428571428571" style="10" customWidth="1"/>
-    <col min="14" max="15" width="12.4732142857143" style="10" customWidth="1"/>
-    <col min="16" max="16" width="41.4732142857143" style="10" customWidth="1"/>
-    <col min="17" max="17" width="12.4732142857143" style="10" customWidth="1"/>
-    <col min="18" max="18" width="13.3482142857143" style="10" customWidth="1"/>
-    <col min="19" max="19" width="14.1785714285714" style="10" customWidth="1"/>
-    <col min="20" max="20" width="9" style="10" customWidth="1"/>
-    <col min="21" max="21" width="41.4732142857143" style="10" customWidth="1"/>
-    <col min="22" max="22" width="37.6428571428571" style="10" customWidth="1"/>
-    <col min="23" max="23" width="9" style="10" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="10"/>
+    <col min="1" max="3" width="9" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.4765625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9" style="11" customWidth="1"/>
+    <col min="6" max="6" width="12.4765625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="11.3515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.8203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="9" style="11" customWidth="1"/>
+    <col min="12" max="12" width="13" style="11" customWidth="1"/>
+    <col min="13" max="13" width="14.640625" style="11" customWidth="1"/>
+    <col min="14" max="15" width="12.4765625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="41.4765625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="12.4765625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="13.3515625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" style="11" customWidth="1"/>
+    <col min="20" max="20" width="9" style="11" customWidth="1"/>
+    <col min="21" max="21" width="41.4765625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="37.640625" style="11" customWidth="1"/>
+    <col min="23" max="23" width="9" style="11" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:22">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:22">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="18">
         <v>18395</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="19">
         <v>12345</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:22">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="18">
         <v>18396</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="G3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="19">
         <v>12346</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="11" t="s">
+      <c r="T3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:22">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="18">
         <v>18397</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="19">
         <v>12347</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="11" t="s">
+      <c r="T4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:22">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="18">
         <v>18398</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="G5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="19">
         <v>12348</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="T5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" s="11" t="s">
+      <c r="T5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V5" s="11" t="s">
+      <c r="V5" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:22">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="18">
         <v>18399</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="19">
         <v>12349</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="T6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" s="11" t="s">
+      <c r="T6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="V6" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:22">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="18">
         <v>18400</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="G7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="19">
         <v>12350</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U7" s="11" t="s">
+      <c r="T7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="V7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:22">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="18">
         <v>18401</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="19">
         <v>12351</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="T8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U8" s="11" t="s">
+      <c r="T8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="V8" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:22">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="18">
         <v>18402</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="11" t="s">
+      <c r="G9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="19">
         <v>12352</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="T9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U9" s="11" t="s">
+      <c r="T9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V9" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:22">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="18">
         <v>18403</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="19">
         <v>12353</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="T10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U10" s="11" t="s">
+      <c r="T10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="V10" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:22">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="18">
         <v>18404</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="11" t="s">
+      <c r="G11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="19">
         <v>12354</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S11" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U11" s="11" t="s">
+      <c r="T11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="V11" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:22">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="18">
         <v>18405</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="19">
         <v>12355</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="T12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U12" s="11" t="s">
+      <c r="T12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="V12" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:22">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="18">
         <v>18406</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="11" t="s">
+      <c r="G13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="19">
         <v>12356</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="S13" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="T13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U13" s="11" t="s">
+      <c r="T13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="V13" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:22">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="18">
         <v>18407</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="19">
         <v>12357</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="T14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U14" s="11" t="s">
+      <c r="T14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="V14" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:22">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="18">
         <v>18408</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="G15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="19">
         <v>12358</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="S15" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="T15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U15" s="11" t="s">
+      <c r="T15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="V15" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:22">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="18">
         <v>18409</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="19">
         <v>12359</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U16" s="11" t="s">
+      <c r="T16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="V16" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:22">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="18">
         <v>18410</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="11" t="s">
+      <c r="G17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="19">
         <v>12360</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="R17" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="S17" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="T17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U17" s="11" t="s">
+      <c r="T17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V17" s="11" t="s">
+      <c r="V17" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:22">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="18">
         <v>18411</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="19">
         <v>12361</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="S18" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="T18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U18" s="11" t="s">
+      <c r="T18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V18" s="11" t="s">
+      <c r="V18" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:22">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="18">
         <v>18412</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="11" t="s">
+      <c r="G19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="19">
         <v>12362</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" s="11" t="s">
+      <c r="Q19" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="R19" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="S19" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="T19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U19" s="11" t="s">
+      <c r="T19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="V19" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:22">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="18">
         <v>18413</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="19">
         <v>12363</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="R20" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="S20" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="T20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U20" s="11" t="s">
+      <c r="T20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="V20" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:22">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="18">
         <v>18414</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="11" t="s">
+      <c r="G21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="19">
         <v>12364</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="R21" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="S21" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U21" s="11" t="s">
+      <c r="T21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="V21" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:22">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="18">
         <v>18415</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="19">
         <v>12365</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="R22" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="S22" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="T22" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U22" s="11" t="s">
+      <c r="T22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V22" s="11" t="s">
+      <c r="V22" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:22">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="18">
         <v>18416</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="11" t="s">
+      <c r="G23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="M23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="19">
         <v>12366</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="R23" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="S23" s="11" t="s">
+      <c r="S23" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="T23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U23" s="11" t="s">
+      <c r="T23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U23" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V23" s="11" t="s">
+      <c r="V23" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:22">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="18">
         <v>18417</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="N24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="19">
         <v>12367</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="Q24" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="R24" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="S24" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="T24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U24" s="11" t="s">
+      <c r="T24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V24" s="11" t="s">
+      <c r="V24" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:22">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="18">
         <v>18418</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="11" t="s">
+      <c r="G25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="N25" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="19">
         <v>12368</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="P25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="R25" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="S25" s="11" t="s">
+      <c r="S25" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="T25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U25" s="11" t="s">
+      <c r="T25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U25" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V25" s="11" t="s">
+      <c r="V25" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:22">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="18">
         <v>18419</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O26" s="19">
         <v>12369</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q26" s="11" t="s">
+      <c r="Q26" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="R26" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="S26" s="11" t="s">
+      <c r="S26" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="T26" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U26" s="11" t="s">
+      <c r="T26" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U26" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V26" s="11" t="s">
+      <c r="V26" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:22">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="18">
         <v>18420</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="11" t="s">
+      <c r="G27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="N27" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="19">
         <v>12370</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q27" s="11" t="s">
+      <c r="Q27" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="R27" s="11" t="s">
+      <c r="R27" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="S27" s="11" t="s">
+      <c r="S27" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="T27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U27" s="11" t="s">
+      <c r="T27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U27" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V27" s="11" t="s">
+      <c r="V27" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:22">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="18">
         <v>18421</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="N28" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="19">
         <v>12371</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="Q28" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="R28" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="S28" s="11" t="s">
+      <c r="S28" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="T28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U28" s="11" t="s">
+      <c r="T28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U28" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V28" s="11" t="s">
+      <c r="V28" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:22">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="18">
         <v>18422</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29" s="11" t="s">
+      <c r="G29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M29" s="11" t="s">
+      <c r="M29" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N29" s="11" t="s">
+      <c r="N29" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="19">
         <v>12372</v>
       </c>
-      <c r="P29" s="11" t="s">
+      <c r="P29" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q29" s="11" t="s">
+      <c r="Q29" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="R29" s="11" t="s">
+      <c r="R29" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="S29" s="11" t="s">
+      <c r="S29" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="T29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U29" s="11" t="s">
+      <c r="T29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U29" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V29" s="11" t="s">
+      <c r="V29" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:22">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="18">
         <v>18423</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N30" s="11" t="s">
+      <c r="N30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O30" s="19">
         <v>12373</v>
       </c>
-      <c r="P30" s="11" t="s">
+      <c r="P30" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q30" s="11" t="s">
+      <c r="Q30" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="R30" s="11" t="s">
+      <c r="R30" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="S30" s="11" t="s">
+      <c r="S30" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="T30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U30" s="11" t="s">
+      <c r="T30" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V30" s="11" t="s">
+      <c r="V30" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:22">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="18">
         <v>18424</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="11" t="s">
+      <c r="G31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="M31" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="11" t="s">
+      <c r="N31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O31" s="19">
         <v>12374</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="P31" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q31" s="11" t="s">
+      <c r="Q31" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="R31" s="11" t="s">
+      <c r="R31" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="S31" s="11" t="s">
+      <c r="S31" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="T31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U31" s="11" t="s">
+      <c r="T31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U31" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V31" s="11" t="s">
+      <c r="V31" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:22">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="18">
         <v>18425</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="11" t="s">
+      <c r="N32" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O32" s="18">
+      <c r="O32" s="19">
         <v>12375</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="P32" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q32" s="11" t="s">
+      <c r="Q32" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="R32" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="S32" s="11" t="s">
+      <c r="S32" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="T32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U32" s="11" t="s">
+      <c r="T32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U32" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V32" s="11" t="s">
+      <c r="V32" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:22">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="18">
         <v>18426</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" s="11" t="s">
+      <c r="G33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N33" s="11" t="s">
+      <c r="N33" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O33" s="18">
+      <c r="O33" s="19">
         <v>12376</v>
       </c>
-      <c r="P33" s="11" t="s">
+      <c r="P33" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R33" s="11" t="s">
+      <c r="R33" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="S33" s="11" t="s">
+      <c r="S33" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="T33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U33" s="11" t="s">
+      <c r="T33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U33" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V33" s="11" t="s">
+      <c r="V33" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:22">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="18">
         <v>18427</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="L34" s="11" t="s">
+      <c r="L34" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="N34" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O34" s="19">
         <v>12377</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="R34" s="11" t="s">
+      <c r="R34" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="S34" s="11" t="s">
+      <c r="S34" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="T34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U34" s="11" t="s">
+      <c r="T34" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U34" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V34" s="11" t="s">
+      <c r="V34" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:22">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="18">
         <v>18428</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" s="11" t="s">
+      <c r="G35" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L35" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N35" s="11" t="s">
+      <c r="N35" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O35" s="19">
         <v>12378</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="P35" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="Q35" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="S35" s="11" t="s">
+      <c r="S35" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="T35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U35" s="11" t="s">
+      <c r="T35" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U35" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V35" s="11" t="s">
+      <c r="V35" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:22">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="18">
         <v>18429</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="L36" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O36" s="19">
         <v>12379</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q36" s="11" t="s">
+      <c r="Q36" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="R36" s="11" t="s">
+      <c r="R36" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="S36" s="11" t="s">
+      <c r="S36" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="T36" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U36" s="11" t="s">
+      <c r="T36" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U36" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V36" s="11" t="s">
+      <c r="V36" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:22">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="18">
         <v>18430</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I37" s="11" t="s">
+      <c r="G37" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="L37" s="11" t="s">
+      <c r="L37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="N37" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O37" s="19">
         <v>12380</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q37" s="11" t="s">
+      <c r="Q37" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="R37" s="11" t="s">
+      <c r="R37" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="S37" s="11" t="s">
+      <c r="S37" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="T37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U37" s="11" t="s">
+      <c r="T37" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U37" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V37" s="11" t="s">
+      <c r="V37" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:22">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="18">
         <v>18431</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="L38" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O38" s="19">
         <v>12381</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q38" s="11" t="s">
+      <c r="Q38" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="R38" s="11" t="s">
+      <c r="R38" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="S38" s="11" t="s">
+      <c r="S38" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="T38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U38" s="11" t="s">
+      <c r="T38" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U38" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V38" s="11" t="s">
+      <c r="V38" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:22">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="18">
         <v>18432</v>
       </c>
-      <c r="G39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="11" t="s">
+      <c r="G39" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O39" s="18">
+      <c r="O39" s="19">
         <v>12382</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="P39" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="R39" s="11" t="s">
+      <c r="R39" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="S39" s="11" t="s">
+      <c r="S39" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="T39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U39" s="11" t="s">
+      <c r="T39" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U39" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V39" s="11" t="s">
+      <c r="V39" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:22">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="18">
         <v>18433</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="11" t="s">
+      <c r="M40" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N40" s="11" t="s">
+      <c r="N40" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O40" s="18">
+      <c r="O40" s="19">
         <v>12383</v>
       </c>
-      <c r="P40" s="11" t="s">
+      <c r="P40" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q40" s="11" t="s">
+      <c r="Q40" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="R40" s="11" t="s">
+      <c r="R40" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="S40" s="11" t="s">
+      <c r="S40" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="T40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U40" s="11" t="s">
+      <c r="T40" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U40" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V40" s="11" t="s">
+      <c r="V40" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:22">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="18">
         <v>18434</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41" s="11" t="s">
+      <c r="G41" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M41" s="11" t="s">
+      <c r="M41" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="N41" s="11" t="s">
+      <c r="N41" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O41" s="18">
+      <c r="O41" s="19">
         <v>12384</v>
       </c>
-      <c r="P41" s="11" t="s">
+      <c r="P41" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q41" s="11" t="s">
+      <c r="Q41" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="R41" s="11" t="s">
+      <c r="R41" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="S41" s="11" t="s">
+      <c r="S41" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="T41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U41" s="11" t="s">
+      <c r="T41" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U41" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V41" s="11" t="s">
+      <c r="V41" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:22">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="18">
         <v>18435</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N42" s="11" t="s">
+      <c r="N42" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O42" s="19">
         <v>12385</v>
       </c>
-      <c r="P42" s="11" t="s">
+      <c r="P42" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q42" s="11" t="s">
+      <c r="Q42" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="R42" s="11" t="s">
+      <c r="R42" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="S42" s="11" t="s">
+      <c r="S42" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="T42" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U42" s="11" t="s">
+      <c r="T42" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U42" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V42" s="11" t="s">
+      <c r="V42" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:22">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="18">
         <v>18436</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I43" s="11" t="s">
+      <c r="G43" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M43" s="11" t="s">
+      <c r="M43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N43" s="11" t="s">
+      <c r="N43" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O43" s="18">
+      <c r="O43" s="19">
         <v>12386</v>
       </c>
-      <c r="P43" s="11" t="s">
+      <c r="P43" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q43" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="R43" s="11" t="s">
+      <c r="R43" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="S43" s="11" t="s">
+      <c r="S43" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="T43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U43" s="11" t="s">
+      <c r="T43" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U43" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V43" s="11" t="s">
+      <c r="V43" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:22">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="18">
         <v>18437</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M44" s="11" t="s">
+      <c r="M44" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N44" s="11" t="s">
+      <c r="N44" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O44" s="18">
+      <c r="O44" s="19">
         <v>12387</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="P44" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q44" s="11" t="s">
+      <c r="Q44" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="R44" s="11" t="s">
+      <c r="R44" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="S44" s="11" t="s">
+      <c r="S44" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="T44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U44" s="11" t="s">
+      <c r="T44" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U44" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V44" s="11" t="s">
+      <c r="V44" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="1:22">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="18">
         <v>18438</v>
       </c>
-      <c r="G45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="11" t="s">
+      <c r="G45" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="L45" s="11" t="s">
+      <c r="L45" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="M45" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N45" s="11" t="s">
+      <c r="N45" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O45" s="18">
+      <c r="O45" s="19">
         <v>12388</v>
       </c>
-      <c r="P45" s="11" t="s">
+      <c r="P45" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q45" s="11" t="s">
+      <c r="Q45" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="R45" s="11" t="s">
+      <c r="R45" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="S45" s="11" t="s">
+      <c r="S45" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="T45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U45" s="11" t="s">
+      <c r="T45" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U45" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V45" s="11" t="s">
+      <c r="V45" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:22">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="18">
         <v>18439</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="L46" s="11" t="s">
+      <c r="L46" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M46" s="11" t="s">
+      <c r="M46" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="N46" s="11" t="s">
+      <c r="N46" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O46" s="18">
+      <c r="O46" s="19">
         <v>12389</v>
       </c>
-      <c r="P46" s="11" t="s">
+      <c r="P46" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q46" s="11" t="s">
+      <c r="Q46" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="R46" s="11" t="s">
+      <c r="R46" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="S46" s="11" t="s">
+      <c r="S46" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="T46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U46" s="11" t="s">
+      <c r="T46" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U46" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V46" s="11" t="s">
+      <c r="V46" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:22">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="18">
         <v>18440</v>
       </c>
-      <c r="G47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I47" s="11" t="s">
+      <c r="G47" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="L47" s="11" t="s">
+      <c r="L47" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M47" s="11" t="s">
+      <c r="M47" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N47" s="11" t="s">
+      <c r="N47" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O47" s="18">
+      <c r="O47" s="19">
         <v>12390</v>
       </c>
-      <c r="P47" s="11" t="s">
+      <c r="P47" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="R47" s="11" t="s">
+      <c r="R47" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="S47" s="11" t="s">
+      <c r="S47" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="T47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U47" s="11" t="s">
+      <c r="T47" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U47" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V47" s="11" t="s">
+      <c r="V47" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="1:22">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="18">
         <v>18441</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="L48" s="11" t="s">
+      <c r="L48" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M48" s="11" t="s">
+      <c r="M48" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N48" s="11" t="s">
+      <c r="N48" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O48" s="18">
+      <c r="O48" s="19">
         <v>12391</v>
       </c>
-      <c r="P48" s="11" t="s">
+      <c r="P48" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q48" s="11" t="s">
+      <c r="Q48" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="R48" s="11" t="s">
+      <c r="R48" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="S48" s="11" t="s">
+      <c r="S48" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="T48" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U48" s="11" t="s">
+      <c r="T48" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U48" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V48" s="11" t="s">
+      <c r="V48" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:22">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="18">
         <v>18442</v>
       </c>
-      <c r="G49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="11" t="s">
+      <c r="G49" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="L49" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N49" s="11" t="s">
+      <c r="N49" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O49" s="18">
+      <c r="O49" s="19">
         <v>12392</v>
       </c>
-      <c r="P49" s="11" t="s">
+      <c r="P49" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q49" s="11" t="s">
+      <c r="Q49" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="R49" s="11" t="s">
+      <c r="R49" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="S49" s="11" t="s">
+      <c r="S49" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="T49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U49" s="11" t="s">
+      <c r="T49" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U49" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V49" s="11" t="s">
+      <c r="V49" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:22">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="18">
         <v>18443</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N50" s="11" t="s">
+      <c r="N50" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="O50" s="18">
+      <c r="O50" s="19">
         <v>12393</v>
       </c>
-      <c r="P50" s="11" t="s">
+      <c r="P50" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q50" s="11" t="s">
+      <c r="Q50" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="R50" s="11" t="s">
+      <c r="R50" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="S50" s="11" t="s">
+      <c r="S50" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="T50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U50" s="11" t="s">
+      <c r="T50" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U50" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V50" s="11" t="s">
+      <c r="V50" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7088,7 +7134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -7098,88 +7144,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.4732142857143" style="10" customWidth="1"/>
-    <col min="2" max="6" width="9" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="22.4765625" style="11" customWidth="1"/>
+    <col min="2" max="6" width="9" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7194,7 +7240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -7204,97 +7250,97 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.3482142857143" style="10" customWidth="1"/>
-    <col min="3" max="6" width="9" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="21" style="11" customWidth="1"/>
+    <col min="2" max="2" width="19.3515625" style="11" customWidth="1"/>
+    <col min="3" max="6" width="9" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7311,7 +7357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -7321,108 +7367,108 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.17857142857143" style="10" customWidth="1"/>
-    <col min="3" max="3" width="103.178571428571" style="10" customWidth="1"/>
-    <col min="4" max="6" width="9" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="21" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="103.1796875" style="11" customWidth="1"/>
+    <col min="4" max="6" width="9" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7438,7 +7484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -7448,84 +7494,84 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="47.1785714285714" style="10" customWidth="1"/>
-    <col min="2" max="6" width="9" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="47.1796875" style="11" customWidth="1"/>
+    <col min="2" max="6" width="9" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" ht="126" customHeight="1" spans="1:5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7537,7 +7583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -7547,141 +7593,141 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.3482142857143" style="10" customWidth="1"/>
-    <col min="2" max="2" width="22.4732142857143" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14" style="10" customWidth="1"/>
-    <col min="4" max="4" width="53.8214285714286" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10" customWidth="1"/>
-    <col min="6" max="6" width="19.4732142857143" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="14.3515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.4765625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14" style="11" customWidth="1"/>
+    <col min="4" max="4" width="53.8203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9" style="11" customWidth="1"/>
+    <col min="6" max="6" width="19.4765625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:6">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:6">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:6">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:6">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:6">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7698,7 +7744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -7708,112 +7754,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14" style="10" customWidth="1"/>
-    <col min="2" max="2" width="33.1785714285714" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.1785714285714" style="10" customWidth="1"/>
-    <col min="4" max="6" width="9" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="14" style="11" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="11" customWidth="1"/>
+    <col min="4" max="6" width="9" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7825,7 +7871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -7835,91 +7881,91 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="59.4732142857143" style="10" customWidth="1"/>
-    <col min="2" max="2" width="43.6428571428571" style="10" customWidth="1"/>
-    <col min="3" max="6" width="9" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="59.4765625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.640625" style="11" customWidth="1"/>
+    <col min="3" max="6" width="9" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/src/main/resources/testData/ecommerce.xlsx
+++ b/src/main/resources/testData/ecommerce.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12027\Desktop\e2e-using-page-object-model-extent-reports\src\main\resources\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD9301F-17BE-4D8F-825A-6CFD3144672C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="16180" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="-24885" yWindow="11565" windowWidth="20775" windowHeight="12360" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,24 @@
     <sheet name="dresses" sheetId="9" r:id="rId9"/>
     <sheet name="ProductPage" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="438">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -1336,19 +1354,28 @@
     <t xml:space="preserve">Your feedback is the most critical piece of advice that we would appreciate. Please write to support@seleniumframework.com or support@automationpractice.com
 </t>
   </si>
+  <si>
+    <t>59.96</t>
+  </si>
+  <si>
+    <t>TotalCostBeforeShip</t>
+  </si>
+  <si>
+    <t>PaymentMethod</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="d&quot;-&quot;mm&quot;-&quot;yyyy"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d&quot;-&quot;mm&quot;-&quot;yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1406,150 +1433,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1574,194 +1464,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1812,255 +1516,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2088,7 +1553,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="48" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2115,14 +1580,11 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2136,58 +1598,30 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -2260,6 +1694,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3298,181 +2735,181 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="30.5234375" customWidth="1"/>
+    <col min="2" max="4" width="30.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="48" customHeight="1" spans="2:2">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:4" ht="48" customHeight="1">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" ht="16.8" spans="2:4">
-      <c r="B7" s="21" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="7" spans="2:4" ht="18">
+      <c r="B7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="14.8" spans="2:4">
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="2:4" ht="15.7">
+      <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" ht="14.8" spans="2:4">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="2:4" ht="15.7">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" ht="14.8" spans="2:4">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="2:4" ht="15.7">
+      <c r="B11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" ht="14.8" spans="2:4">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="2:4" ht="15.7">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" ht="14.8" spans="2:4">
-      <c r="B13" s="22" t="s">
+    <row r="13" spans="2:4" ht="15.7">
+      <c r="B13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" ht="14.8" spans="2:4">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="2:4" ht="15.7">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="14.8" spans="2:4">
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="2:4" ht="15.7">
+      <c r="B15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" ht="14.8" spans="2:4">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="2:4" ht="15.7">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" ht="14.8" spans="2:4">
-      <c r="B17" s="22" t="s">
+    <row r="17" spans="2:4" ht="15.7">
+      <c r="B17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" ht="14.8" spans="2:4">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="2:4" ht="15.7">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" ht="14.8" spans="2:4">
-      <c r="B19" s="22" t="s">
+    <row r="19" spans="2:4" ht="15.7">
+      <c r="B19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" ht="14.8" spans="2:4">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="2:4" ht="15.7">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="14.8" spans="2:4">
-      <c r="B21" s="22" t="s">
+    <row r="21" spans="2:4" ht="15.7">
+      <c r="B21" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-    </row>
-    <row r="22" ht="14.8" spans="2:4">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="2:4" ht="15.7">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" ht="14.8" spans="2:4">
-      <c r="B23" s="22" t="s">
+    <row r="23" spans="2:4" ht="15.7">
+      <c r="B23" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" ht="14.8" spans="2:4">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="2:4" ht="15.7">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="14.8" spans="2:4">
-      <c r="B25" s="22" t="s">
+    <row r="25" spans="2:4" ht="15.7">
+      <c r="B25" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-    </row>
-    <row r="26" ht="14.8" spans="2:4">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="2:4" ht="15.7">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3481,37 +2918,40 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'newUsers'!R1C1" display="newUsers"/>
-    <hyperlink ref="D12" location="'userLogin'!R1C1" display="userLogin"/>
-    <hyperlink ref="D14" location="'negativeAccountCreate'!R1C1" display="negativeAccountCreate"/>
-    <hyperlink ref="D16" location="'negativeLogin'!R1C1" display="negativeLogin"/>
-    <hyperlink ref="D18" location="'registerErrorMessages'!R1C1" display="registerErrorMessages"/>
-    <hyperlink ref="D20" location="'contactUs'!R1C1" display="contactUs"/>
-    <hyperlink ref="D22" location="'searchKeywords'!R1C1" display="searchKeywords"/>
-    <hyperlink ref="D24" location="'dresses'!R1C1" display="dresses"/>
-    <hyperlink ref="D26" location="'ProductPage'!R1C1" display="ProductPage"/>
+    <hyperlink ref="D10" location="'newUsers'!R1C1" display="newUsers" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" location="'userLogin'!R1C1" display="userLogin" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D14" location="'negativeAccountCreate'!R1C1" display="negativeAccountCreate" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D16" location="'negativeLogin'!R1C1" display="negativeLogin" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D18" location="'registerErrorMessages'!R1C1" display="registerErrorMessages" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D20" location="'contactUs'!R1C1" display="contactUs" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D22" location="'searchKeywords'!R1C1" display="searchKeywords" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D24" location="'dresses'!R1C1" display="dresses" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D26" location="'ProductPage'!R1C1" display="ProductPage" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="9.890625" customWidth="1"/>
-    <col min="15" max="15" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="9.87890625" customWidth="1"/>
+    <col min="2" max="2" width="13.64453125" customWidth="1"/>
+    <col min="4" max="4" width="12.17578125" customWidth="1"/>
+    <col min="15" max="15" width="18.29296875" style="24" customWidth="1"/>
+    <col min="16" max="16" width="15.64453125" customWidth="1"/>
+    <col min="17" max="17" width="9" style="26"/>
+    <col min="21" max="21" width="16.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>400</v>
       </c>
@@ -3554,23 +2994,29 @@
       <c r="N1" t="s">
         <v>413</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="P1" t="s">
         <v>414</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>416</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>417</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" ht="220" customHeight="1" spans="1:19">
+      <c r="U1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="220" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>419</v>
       </c>
@@ -3613,67 +3059,70 @@
       <c r="N2" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="25">
+        <f>(E2*N2)</f>
+        <v>57.96</v>
+      </c>
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="P2">
-        <f>E2*N2+O2</f>
-        <v>59.96</v>
-      </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>433</v>
+      </c>
+      <c r="U2" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="Peter@gmail.com"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="11" customWidth="1"/>
-    <col min="4" max="4" width="27.4765625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.46875" style="11" customWidth="1"/>
     <col min="5" max="5" width="9" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.4765625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="12.46875" style="11" customWidth="1"/>
     <col min="7" max="7" width="11.3515625" style="11" customWidth="1"/>
     <col min="8" max="8" width="11.8203125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="23.1796875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="23.17578125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="14.17578125" style="11" customWidth="1"/>
     <col min="11" max="11" width="9" style="11" customWidth="1"/>
     <col min="12" max="12" width="13" style="11" customWidth="1"/>
-    <col min="13" max="13" width="14.640625" style="11" customWidth="1"/>
-    <col min="14" max="15" width="12.4765625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="41.4765625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="12.4765625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="14.64453125" style="11" customWidth="1"/>
+    <col min="14" max="15" width="12.46875" style="11" customWidth="1"/>
+    <col min="16" max="16" width="41.46875" style="11" customWidth="1"/>
+    <col min="17" max="17" width="12.46875" style="11" customWidth="1"/>
     <col min="18" max="18" width="13.3515625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" style="11" customWidth="1"/>
+    <col min="19" max="19" width="14.17578125" style="11" customWidth="1"/>
     <col min="20" max="20" width="9" style="11" customWidth="1"/>
-    <col min="21" max="21" width="41.4765625" style="11" customWidth="1"/>
-    <col min="22" max="22" width="37.640625" style="11" customWidth="1"/>
+    <col min="21" max="21" width="41.46875" style="11" customWidth="1"/>
+    <col min="22" max="22" width="37.64453125" style="11" customWidth="1"/>
     <col min="23" max="23" width="9" style="11" customWidth="1"/>
     <col min="24" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:22">
+    <row r="1" spans="1:22" ht="15" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -3741,7 +3190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:22">
+    <row r="2" spans="1:22" ht="15" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
@@ -3809,7 +3258,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:22">
+    <row r="3" spans="1:22" ht="15" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>53</v>
       </c>
@@ -3877,7 +3326,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:22">
+    <row r="4" spans="1:22" ht="15" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -3945,7 +3394,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:22">
+    <row r="5" spans="1:22" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>53</v>
       </c>
@@ -4013,7 +3462,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:22">
+    <row r="6" spans="1:22" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
@@ -4081,7 +3530,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:22">
+    <row r="7" spans="1:22" ht="15" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>53</v>
       </c>
@@ -4149,7 +3598,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:22">
+    <row r="8" spans="1:22" ht="15" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>36</v>
       </c>
@@ -4217,7 +3666,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:22">
+    <row r="9" spans="1:22" ht="15" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>53</v>
       </c>
@@ -4285,7 +3734,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:22">
+    <row r="10" spans="1:22" ht="15" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -4353,7 +3802,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:22">
+    <row r="11" spans="1:22" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>53</v>
       </c>
@@ -4421,7 +3870,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:22">
+    <row r="12" spans="1:22" ht="15" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -4489,7 +3938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:22">
+    <row r="13" spans="1:22" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>53</v>
       </c>
@@ -4557,7 +4006,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:22">
+    <row r="14" spans="1:22" ht="15" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
@@ -4625,7 +4074,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:22">
+    <row r="15" spans="1:22" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>53</v>
       </c>
@@ -4693,7 +4142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:22">
+    <row r="16" spans="1:22" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
@@ -4761,7 +4210,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:22">
+    <row r="17" spans="1:22" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>53</v>
       </c>
@@ -4829,7 +4278,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:22">
+    <row r="18" spans="1:22" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>36</v>
       </c>
@@ -4897,7 +4346,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:22">
+    <row r="19" spans="1:22" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>53</v>
       </c>
@@ -4965,7 +4414,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:22">
+    <row r="20" spans="1:22" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>36</v>
       </c>
@@ -5033,7 +4482,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:22">
+    <row r="21" spans="1:22" ht="15" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>53</v>
       </c>
@@ -5101,7 +4550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:22">
+    <row r="22" spans="1:22" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>36</v>
       </c>
@@ -5169,7 +4618,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:22">
+    <row r="23" spans="1:22" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>53</v>
       </c>
@@ -5237,7 +4686,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:22">
+    <row r="24" spans="1:22" ht="15" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>36</v>
       </c>
@@ -5305,7 +4754,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:22">
+    <row r="25" spans="1:22" ht="15" customHeight="1">
       <c r="A25" s="12" t="s">
         <v>53</v>
       </c>
@@ -5373,7 +4822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:22">
+    <row r="26" spans="1:22" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>36</v>
       </c>
@@ -5441,7 +4890,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:22">
+    <row r="27" spans="1:22" ht="15" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>53</v>
       </c>
@@ -5509,7 +4958,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:22">
+    <row r="28" spans="1:22" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
@@ -5577,7 +5026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:22">
+    <row r="29" spans="1:22" ht="15" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>53</v>
       </c>
@@ -5645,7 +5094,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:22">
+    <row r="30" spans="1:22" ht="15" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>36</v>
       </c>
@@ -5713,7 +5162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:22">
+    <row r="31" spans="1:22" ht="15" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>53</v>
       </c>
@@ -5781,7 +5230,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:22">
+    <row r="32" spans="1:22" ht="15" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>36</v>
       </c>
@@ -5849,7 +5298,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:22">
+    <row r="33" spans="1:22" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>53</v>
       </c>
@@ -5917,7 +5366,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:22">
+    <row r="34" spans="1:22" ht="15" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>36</v>
       </c>
@@ -5985,7 +5434,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="1:22">
+    <row r="35" spans="1:22" ht="15" customHeight="1">
       <c r="A35" s="12" t="s">
         <v>53</v>
       </c>
@@ -6053,7 +5502,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:22">
+    <row r="36" spans="1:22" ht="15" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>36</v>
       </c>
@@ -6121,7 +5570,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" spans="1:22">
+    <row r="37" spans="1:22" ht="15" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>53</v>
       </c>
@@ -6189,7 +5638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="1:22">
+    <row r="38" spans="1:22" ht="15" customHeight="1">
       <c r="A38" s="12" t="s">
         <v>36</v>
       </c>
@@ -6257,7 +5706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" spans="1:22">
+    <row r="39" spans="1:22" ht="15" customHeight="1">
       <c r="A39" s="12" t="s">
         <v>53</v>
       </c>
@@ -6325,7 +5774,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" spans="1:22">
+    <row r="40" spans="1:22" ht="15" customHeight="1">
       <c r="A40" s="12" t="s">
         <v>36</v>
       </c>
@@ -6393,7 +5842,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" spans="1:22">
+    <row r="41" spans="1:22" ht="15" customHeight="1">
       <c r="A41" s="12" t="s">
         <v>53</v>
       </c>
@@ -6461,7 +5910,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" spans="1:22">
+    <row r="42" spans="1:22" ht="15" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>36</v>
       </c>
@@ -6529,7 +5978,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" spans="1:22">
+    <row r="43" spans="1:22" ht="15" customHeight="1">
       <c r="A43" s="12" t="s">
         <v>53</v>
       </c>
@@ -6597,7 +6046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" spans="1:22">
+    <row r="44" spans="1:22" ht="15" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>36</v>
       </c>
@@ -6665,7 +6114,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" spans="1:22">
+    <row r="45" spans="1:22" ht="15" customHeight="1">
       <c r="A45" s="12" t="s">
         <v>53</v>
       </c>
@@ -6733,7 +6182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" spans="1:22">
+    <row r="46" spans="1:22" ht="15" customHeight="1">
       <c r="A46" s="12" t="s">
         <v>36</v>
       </c>
@@ -6801,7 +6250,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1" spans="1:22">
+    <row r="47" spans="1:22" ht="15" customHeight="1">
       <c r="A47" s="12" t="s">
         <v>53</v>
       </c>
@@ -6869,7 +6318,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1" spans="1:22">
+    <row r="48" spans="1:22" ht="15" customHeight="1">
       <c r="A48" s="12" t="s">
         <v>36</v>
       </c>
@@ -6937,7 +6386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" spans="1:22">
+    <row r="49" spans="1:22" ht="15" customHeight="1">
       <c r="A49" s="12" t="s">
         <v>53</v>
       </c>
@@ -7005,7 +6454,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" spans="1:22">
+    <row r="50" spans="1:22" ht="15" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>36</v>
       </c>
@@ -7075,58 +6524,58 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="sandy.peterson12@abc.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="sam.peterson13@abc.com"/>
-    <hyperlink ref="D4" r:id="rId3" display="hillary.peterson14@abc.com"/>
-    <hyperlink ref="D5" r:id="rId4" display="michael.peterson15@abc.com"/>
-    <hyperlink ref="D6" r:id="rId1" display="sandy.peterson13@abc.com"/>
-    <hyperlink ref="D7" r:id="rId2" display="sam.peterson14@abc.com"/>
-    <hyperlink ref="D8" r:id="rId3" display="hillary.peterson15@abc.com"/>
-    <hyperlink ref="D9" r:id="rId4" display="michael.peterson16@abc.com"/>
-    <hyperlink ref="D10" r:id="rId1" display="sandy.peterson14@abc.com"/>
-    <hyperlink ref="D11" r:id="rId2" display="sam.peterson15@abc.com"/>
-    <hyperlink ref="D12" r:id="rId3" display="hillary.peterson16@abc.com"/>
-    <hyperlink ref="D13" r:id="rId4" display="michael.peterson17@abc.com"/>
-    <hyperlink ref="D14" r:id="rId1" display="sandy.peterson15@abc.com"/>
-    <hyperlink ref="D15" r:id="rId2" display="sam.peterson16@abc.com"/>
-    <hyperlink ref="D16" r:id="rId3" display="hillary.peterson17@abc.com"/>
-    <hyperlink ref="D17" r:id="rId4" display="michael.peterson18@abc.com"/>
-    <hyperlink ref="D18" r:id="rId1" display="sandy.peterson16@abc.com"/>
-    <hyperlink ref="D19" r:id="rId2" display="sam.peterson17@abc.com"/>
-    <hyperlink ref="D20" r:id="rId3" display="hillary.peterson18@abc.com"/>
-    <hyperlink ref="D21" r:id="rId4" display="michael.peterson19@abc.com"/>
-    <hyperlink ref="D22" r:id="rId1" display="sandy.peterson17@abc.com"/>
-    <hyperlink ref="D23" r:id="rId2" display="sam.peterson18@abc.com"/>
-    <hyperlink ref="D24" r:id="rId3" display="hillary.peterson19@abc.com"/>
-    <hyperlink ref="D25" r:id="rId4" display="michael.peterson20@abc.com"/>
-    <hyperlink ref="D26" r:id="rId1" display="sandy.peterson18@abc.com"/>
-    <hyperlink ref="D27" r:id="rId2" display="sam.peterson19@abc.com"/>
-    <hyperlink ref="D28" r:id="rId3" display="hillary.peterson20@abc.com"/>
-    <hyperlink ref="D29" r:id="rId4" display="michael.peterson21@abc.com"/>
-    <hyperlink ref="D30" r:id="rId1" display="sandy.peterson19@abc.com"/>
-    <hyperlink ref="D31" r:id="rId2" display="sam.peterson20@abc.com"/>
-    <hyperlink ref="D32" r:id="rId3" display="hillary.peterson21@abc.com"/>
-    <hyperlink ref="D33" r:id="rId4" display="michael.peterson22@abc.com"/>
-    <hyperlink ref="D34" r:id="rId1" display="sandy.peterson20@abc.com"/>
-    <hyperlink ref="D35" r:id="rId2" display="sam.peterson21@abc.com"/>
-    <hyperlink ref="D36" r:id="rId3" display="hillary.peterson22@abc.com"/>
-    <hyperlink ref="D37" r:id="rId4" display="michael.peterson23@abc.com"/>
-    <hyperlink ref="D38" r:id="rId1" display="sandy.peterson21@abc.com"/>
-    <hyperlink ref="D39" r:id="rId2" display="sam.peterson22@abc.com"/>
-    <hyperlink ref="D40" r:id="rId3" display="hillary.peterson23@abc.com"/>
-    <hyperlink ref="D41" r:id="rId4" display="michael.peterson24@abc.com"/>
-    <hyperlink ref="D42" r:id="rId1" display="sandy.peterson22@abc.com"/>
-    <hyperlink ref="D43" r:id="rId2" display="sam.peterson23@abc.com"/>
-    <hyperlink ref="D44" r:id="rId3" display="hillary.peterson24@abc.com"/>
-    <hyperlink ref="D45" r:id="rId4" display="michael.peterson25@abc.com"/>
-    <hyperlink ref="D46" r:id="rId1" display="sandy.peterson23@abc.com"/>
-    <hyperlink ref="D47" r:id="rId2" display="sam.peterson24@abc.com"/>
-    <hyperlink ref="D48" r:id="rId3" display="hillary.peterson25@abc.com"/>
-    <hyperlink ref="D49" r:id="rId4" display="michael.peterson26@abc.com"/>
-    <hyperlink ref="D50" r:id="rId1" display="sandy.peterson24@abc.com"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7134,22 +6583,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.4765625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="22.46875" style="11" customWidth="1"/>
     <col min="2" max="6" width="9" style="11" customWidth="1"/>
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
@@ -7160,7 +6606,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>357</v>
       </c>
@@ -7171,56 +6617,56 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -7229,10 +6675,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="kevinlee1234@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7240,15 +6686,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21" style="11" customWidth="1"/>
     <col min="2" max="2" width="19.3515625" style="11" customWidth="1"/>
@@ -7256,7 +6699,7 @@
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
@@ -7267,7 +6710,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>360</v>
       </c>
@@ -7278,7 +6721,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>357</v>
       </c>
@@ -7289,7 +6732,7 @@
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>363</v>
       </c>
@@ -7300,42 +6743,42 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -7344,12 +6787,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="kevinlee1234@gmail"/>
-    <hyperlink ref="A3" r:id="rId2" display="kevinlee1234@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId2" display="kevinlee1234"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7357,24 +6800,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="103.1796875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.17578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="103.17578125" style="11" customWidth="1"/>
     <col min="4" max="6" width="9" style="11" customWidth="1"/>
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
@@ -7387,7 +6827,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>357</v>
       </c>
@@ -7400,7 +6840,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>366</v>
       </c>
@@ -7413,7 +6853,7 @@
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="12" t="s">
         <v>358</v>
@@ -7424,7 +6864,7 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>357</v>
       </c>
@@ -7435,35 +6875,35 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -7472,11 +6912,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="kevinlee1234@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId1" display="kevinlee1234@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7484,22 +6924,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="47.1796875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="47.17578125" style="11" customWidth="1"/>
     <col min="2" max="6" width="9" style="11" customWidth="1"/>
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>359</v>
       </c>
@@ -7508,7 +6945,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" ht="126" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="126" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>369</v>
       </c>
@@ -7517,56 +6954,56 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -7574,8 +7011,8 @@
       <c r="E10" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7583,27 +7020,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.3515625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.4765625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.46875" style="11" customWidth="1"/>
     <col min="3" max="3" width="14" style="11" customWidth="1"/>
     <col min="4" max="4" width="53.8203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="9" style="11" customWidth="1"/>
-    <col min="6" max="6" width="19.4765625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="19.46875" style="11" customWidth="1"/>
     <col min="7" max="7" width="9" style="11" customWidth="1"/>
     <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>370</v>
       </c>
@@ -7623,7 +7057,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>376</v>
       </c>
@@ -7643,7 +7077,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>381</v>
       </c>
@@ -7663,7 +7097,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>376</v>
       </c>
@@ -7681,7 +7115,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -7689,7 +7123,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7697,7 +7131,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -7705,7 +7139,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -7713,7 +7147,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -7721,7 +7155,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -7731,12 +7165,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="henry123@abc.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="henry124@abc.com"/>
-    <hyperlink ref="B4" r:id="rId2" display="kevinlee1234@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7744,24 +7178,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" style="11" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="33.17578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.17578125" style="11" customWidth="1"/>
     <col min="4" max="6" width="9" style="11" customWidth="1"/>
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>386</v>
       </c>
@@ -7774,7 +7205,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>389</v>
       </c>
@@ -7787,7 +7218,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>392</v>
       </c>
@@ -7800,7 +7231,7 @@
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>393</v>
       </c>
@@ -7813,7 +7244,7 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>395</v>
       </c>
@@ -7826,35 +7257,35 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -7862,8 +7293,8 @@
       <c r="E10" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7871,23 +7302,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="59.4765625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="43.640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="59.46875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.64453125" style="11" customWidth="1"/>
     <col min="3" max="6" width="9" style="11" customWidth="1"/>
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>396</v>
       </c>
@@ -7900,7 +7328,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>398</v>
       </c>
@@ -7911,56 +7339,56 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -7968,8 +7396,8 @@
       <c r="E10" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/main/resources/testData/ecommerce.xlsx
+++ b/src/main/resources/testData/ecommerce.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12027\Desktop\e2e-using-page-object-model-extent-reports\src\main\resources\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD9301F-17BE-4D8F-825A-6CFD3144672C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24885" yWindow="11565" windowWidth="20775" windowHeight="12360" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28000" windowHeight="12540" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -24,24 +18,12 @@
     <sheet name="dresses" sheetId="9" r:id="rId9"/>
     <sheet name="ProductPage" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -1292,6 +1274,9 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>TotalCostBeforeShip</t>
+  </si>
+  <si>
     <t>ShippingCost</t>
   </si>
   <si>
@@ -1307,6 +1292,24 @@
     <t>Rule3</t>
   </si>
   <si>
+    <t>PaymentMethod</t>
+  </si>
+  <si>
+    <t>BankWireHeader</t>
+  </si>
+  <si>
+    <t>CheckHeader</t>
+  </si>
+  <si>
+    <t>BankWireSteps</t>
+  </si>
+  <si>
+    <t>CheckSteps</t>
+  </si>
+  <si>
+    <t>OrderCompleteInfo</t>
+  </si>
+  <si>
     <t>Printed Summer Dress</t>
   </si>
   <si>
@@ -1341,6 +1344,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>59.96</t>
   </si>
   <si>
     <t xml:space="preserve">Use this website for all our practices of automation scripts. We (seleniumframework.com) have gone a long way to invest in creating this website and providing excellent experience for you to have a practice platform
@@ -1355,27 +1361,48 @@
 </t>
   </si>
   <si>
-    <t>59.96</t>
-  </si>
-  <si>
-    <t>TotalCostBeforeShip</t>
-  </si>
-  <si>
-    <t>PaymentMethod</t>
-  </si>
-  <si>
     <t>Wire</t>
+  </si>
+  <si>
+    <t>bank-wire payment.</t>
+  </si>
+  <si>
+    <t>check payment</t>
+  </si>
+  <si>
+    <t>You have chosen to pay by bank wire. Here is a short summary of your order:+- We allow the following currency to be sent via bank wire: Dollar+- Bank wire account information will be displayed on the next page.
+- Please confirm your order by clicking "I confirm my order.".+</t>
+  </si>
+  <si>
+    <t>You have chosen to pay by check. Here is a short summary of your order:+- We allow the following currency to be sent via bank wire: Dollar+- Bank wire account information will be displayed on the next page.
+- Please confirm your order by clicking "I confirm my order.".+</t>
+  </si>
+  <si>
+    <t>Your order on My Store is complete.
+Please send us a bank wire with
+- Amount $59.96
+- Name of account owner Pradeep Macharla
+- Include these details xyz
+- Bank name RTP
+- Do not forget to insert your order reference in the subject of your bank wire.
+An email has been sent with this information.
+Your order will be sent as soon as we receive payment.
+If you have questions, comments or concerns, please contact our expert customer support team. .</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d&quot;-&quot;mm&quot;-&quot;yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="d&quot;-&quot;mm&quot;-&quot;yyyy"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1434,12 +1461,149 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1464,8 +1628,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1516,17 +1866,259 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1553,7 +2145,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1580,11 +2175,14 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1598,30 +2196,58 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1694,9 +2320,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2735,181 +3358,181 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B3:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="30.52734375" customWidth="1"/>
+    <col min="2" max="4" width="30.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="48" customHeight="1">
-      <c r="B3" s="28" t="s">
+    <row r="3" ht="48" customHeight="1" spans="2:2">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-    </row>
-    <row r="7" spans="2:4" ht="18">
-      <c r="B7" s="20" t="s">
+    </row>
+    <row r="7" ht="16.8" spans="2:4">
+      <c r="B7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15.7">
-      <c r="B9" s="21" t="s">
+    <row r="9" ht="14.8" spans="2:4">
+      <c r="B9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="2:4" ht="15.7">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" ht="14.8" spans="2:4">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15.7">
-      <c r="B11" s="21" t="s">
+    <row r="11" ht="14.8" spans="2:4">
+      <c r="B11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="2:4" ht="15.7">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" ht="14.8" spans="2:4">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15.7">
-      <c r="B13" s="21" t="s">
+    <row r="13" ht="14.8" spans="2:4">
+      <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="2:4" ht="15.7">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" ht="14.8" spans="2:4">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15.7">
-      <c r="B15" s="21" t="s">
+    <row r="15" ht="14.8" spans="2:4">
+      <c r="B15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="2:4" ht="15.7">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="16" ht="14.8" spans="2:4">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.7">
-      <c r="B17" s="21" t="s">
+    <row r="17" ht="14.8" spans="2:4">
+      <c r="B17" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="2:4" ht="15.7">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" ht="14.8" spans="2:4">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.7">
-      <c r="B19" s="21" t="s">
+    <row r="19" ht="14.8" spans="2:4">
+      <c r="B19" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="2:4" ht="15.7">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" ht="14.8" spans="2:4">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.7">
-      <c r="B21" s="21" t="s">
+    <row r="21" ht="14.8" spans="2:4">
+      <c r="B21" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="22" spans="2:4" ht="15.7">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" ht="14.8" spans="2:4">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.7">
-      <c r="B23" s="21" t="s">
+    <row r="23" ht="14.8" spans="2:4">
+      <c r="B23" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="2:4" ht="15.7">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" ht="14.8" spans="2:4">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.7">
-      <c r="B25" s="21" t="s">
+    <row r="25" ht="14.8" spans="2:4">
+      <c r="B25" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-    </row>
-    <row r="26" spans="2:4" ht="15.7">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" ht="14.8" spans="2:4">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2918,71 +3541,76 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'newUsers'!R1C1" display="newUsers" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D12" location="'userLogin'!R1C1" display="userLogin" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D14" location="'negativeAccountCreate'!R1C1" display="negativeAccountCreate" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D16" location="'negativeLogin'!R1C1" display="negativeLogin" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D18" location="'registerErrorMessages'!R1C1" display="registerErrorMessages" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D20" location="'contactUs'!R1C1" display="contactUs" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D22" location="'searchKeywords'!R1C1" display="searchKeywords" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D24" location="'dresses'!R1C1" display="dresses" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D26" location="'ProductPage'!R1C1" display="ProductPage" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D10" location="'newUsers'!R1C1" display="newUsers"/>
+    <hyperlink ref="D12" location="'userLogin'!R1C1" display="userLogin"/>
+    <hyperlink ref="D14" location="'negativeAccountCreate'!R1C1" display="negativeAccountCreate"/>
+    <hyperlink ref="D16" location="'negativeLogin'!R1C1" display="negativeLogin"/>
+    <hyperlink ref="D18" location="'registerErrorMessages'!R1C1" display="registerErrorMessages"/>
+    <hyperlink ref="D20" location="'contactUs'!R1C1" display="contactUs"/>
+    <hyperlink ref="D22" location="'searchKeywords'!R1C1" display="searchKeywords"/>
+    <hyperlink ref="D24" location="'dresses'!R1C1" display="dresses"/>
+    <hyperlink ref="D26" location="'ProductPage'!R1C1" display="ProductPage"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:U2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9.87890625" customWidth="1"/>
-    <col min="2" max="2" width="13.64453125" customWidth="1"/>
-    <col min="4" max="4" width="12.17578125" customWidth="1"/>
-    <col min="15" max="15" width="18.29296875" style="24" customWidth="1"/>
-    <col min="16" max="16" width="15.64453125" customWidth="1"/>
-    <col min="17" max="17" width="9" style="26"/>
+    <col min="1" max="1" width="9.8828125" customWidth="1"/>
+    <col min="2" max="2" width="13.6484375" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="15" max="15" width="18.296875" customWidth="1"/>
+    <col min="16" max="16" width="15.6484375" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
     <col min="21" max="21" width="16.8203125" customWidth="1"/>
+    <col min="24" max="24" width="20" customWidth="1"/>
+    <col min="25" max="25" width="19.7890625" customWidth="1"/>
+    <col min="26" max="26" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>410</v>
       </c>
       <c r="L1" t="s">
@@ -2994,3588 +3622,3622 @@
       <c r="N1" t="s">
         <v>413</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" t="s">
+        <v>414</v>
+      </c>
+      <c r="P1" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="R1" t="s">
+        <v>417</v>
+      </c>
+      <c r="S1" t="s">
+        <v>418</v>
+      </c>
+      <c r="T1" t="s">
+        <v>419</v>
+      </c>
+      <c r="U1" t="s">
+        <v>420</v>
+      </c>
+      <c r="V1" t="s">
+        <v>421</v>
+      </c>
+      <c r="W1" t="s">
+        <v>422</v>
+      </c>
+      <c r="X1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" ht="220" customHeight="1" spans="1:26">
+      <c r="A2" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" s="7">
+        <v>28.98</v>
+      </c>
+      <c r="F2" s="7">
+        <v>30.51</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="L2" t="s">
         <v>435</v>
       </c>
-      <c r="P1" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="R1" t="s">
-        <v>416</v>
-      </c>
-      <c r="S1" t="s">
-        <v>417</v>
-      </c>
-      <c r="T1" t="s">
-        <v>418</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="M2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="220" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E2" s="6">
-        <v>28.98</v>
-      </c>
-      <c r="F2" s="6">
-        <v>30.51</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="L2" t="s">
-        <v>428</v>
-      </c>
-      <c r="M2" t="s">
-        <v>429</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="O2" s="25">
+      <c r="N2" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="O2" s="11">
         <f>(E2*N2)</f>
         <v>57.96</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
-      <c r="Q2" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>433</v>
+      <c r="Q2" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>441</v>
       </c>
       <c r="U2" t="s">
-        <v>437</v>
+        <v>442</v>
+      </c>
+      <c r="V2" t="s">
+        <v>443</v>
+      </c>
+      <c r="W2" t="s">
+        <v>444</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="K2" r:id="rId1" display="Peter@gmail.com"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="9" style="11" customWidth="1"/>
-    <col min="4" max="4" width="27.46875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.46875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="11.3515625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.8203125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="23.17578125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="14.17578125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="9" style="11" customWidth="1"/>
-    <col min="12" max="12" width="13" style="11" customWidth="1"/>
-    <col min="13" max="13" width="14.64453125" style="11" customWidth="1"/>
-    <col min="14" max="15" width="12.46875" style="11" customWidth="1"/>
-    <col min="16" max="16" width="41.46875" style="11" customWidth="1"/>
-    <col min="17" max="17" width="12.46875" style="11" customWidth="1"/>
-    <col min="18" max="18" width="13.3515625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="14.17578125" style="11" customWidth="1"/>
-    <col min="20" max="20" width="9" style="11" customWidth="1"/>
-    <col min="21" max="21" width="41.46875" style="11" customWidth="1"/>
-    <col min="22" max="22" width="37.64453125" style="11" customWidth="1"/>
-    <col min="23" max="23" width="9" style="11" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="11"/>
+    <col min="1" max="3" width="9" style="13" customWidth="1"/>
+    <col min="4" max="4" width="27.46875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.46875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.3515625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="11.8203125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9" style="13" customWidth="1"/>
+    <col min="12" max="12" width="13" style="13" customWidth="1"/>
+    <col min="13" max="13" width="14.6484375" style="13" customWidth="1"/>
+    <col min="14" max="15" width="12.46875" style="13" customWidth="1"/>
+    <col min="16" max="16" width="41.46875" style="13" customWidth="1"/>
+    <col min="17" max="17" width="12.46875" style="13" customWidth="1"/>
+    <col min="18" max="18" width="13.3515625" style="13" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" style="13" customWidth="1"/>
+    <col min="20" max="20" width="9" style="13" customWidth="1"/>
+    <col min="21" max="21" width="41.46875" style="13" customWidth="1"/>
+    <col min="22" max="22" width="37.6484375" style="13" customWidth="1"/>
+    <col min="23" max="23" width="9" style="13" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" ht="15" customHeight="1" spans="1:22">
+      <c r="A2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="20">
         <v>18395</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="21">
         <v>12345</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1">
-      <c r="A3" s="12" t="s">
+    <row r="3" ht="15" customHeight="1" spans="1:22">
+      <c r="A3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="20">
         <v>18396</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="G3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="21">
         <v>12346</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="12" t="s">
+      <c r="T3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:22">
+      <c r="A4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="20">
         <v>18397</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="21">
         <v>12347</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="12" t="s">
+      <c r="T4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" ht="15" customHeight="1" spans="1:22">
+      <c r="A5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="20">
         <v>18398</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="G5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="21">
         <v>12348</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="T5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" s="12" t="s">
+      <c r="T5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1">
-      <c r="A6" s="12" t="s">
+    <row r="6" ht="15" customHeight="1" spans="1:22">
+      <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="20">
         <v>18399</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="21">
         <v>12349</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="T6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" s="12" t="s">
+      <c r="T6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1">
-      <c r="A7" s="12" t="s">
+    <row r="7" ht="15" customHeight="1" spans="1:22">
+      <c r="A7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="20">
         <v>18400</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="G7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="21">
         <v>12350</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U7" s="12" t="s">
+      <c r="T7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="V7" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1">
-      <c r="A8" s="12" t="s">
+    <row r="8" ht="15" customHeight="1" spans="1:22">
+      <c r="A8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="20">
         <v>18401</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="21">
         <v>12351</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="T8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U8" s="12" t="s">
+      <c r="T8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="12" t="s">
+      <c r="V8" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1">
-      <c r="A9" s="12" t="s">
+    <row r="9" ht="15" customHeight="1" spans="1:22">
+      <c r="A9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="20">
         <v>18402</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="12" t="s">
+      <c r="G9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="21">
         <v>12352</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="S9" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="T9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U9" s="12" t="s">
+      <c r="T9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="V9" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1">
-      <c r="A10" s="12" t="s">
+    <row r="10" ht="15" customHeight="1" spans="1:22">
+      <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="20">
         <v>18403</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="21">
         <v>12353</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="S10" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="T10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U10" s="12" t="s">
+      <c r="T10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V10" s="12" t="s">
+      <c r="V10" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1">
-      <c r="A11" s="12" t="s">
+    <row r="11" ht="15" customHeight="1" spans="1:22">
+      <c r="A11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="20">
         <v>18404</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="12" t="s">
+      <c r="G11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="21">
         <v>12354</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="Q11" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="S11" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="T11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U11" s="12" t="s">
+      <c r="T11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V11" s="12" t="s">
+      <c r="V11" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1">
-      <c r="A12" s="12" t="s">
+    <row r="12" ht="15" customHeight="1" spans="1:22">
+      <c r="A12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="20">
         <v>18405</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="21">
         <v>12355</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="Q12" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="S12" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="T12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U12" s="12" t="s">
+      <c r="T12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V12" s="12" t="s">
+      <c r="V12" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1">
-      <c r="A13" s="12" t="s">
+    <row r="13" ht="15" customHeight="1" spans="1:22">
+      <c r="A13" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="20">
         <v>18406</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="12" t="s">
+      <c r="G13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="21">
         <v>12356</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="R13" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="S13" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="T13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U13" s="12" t="s">
+      <c r="T13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V13" s="12" t="s">
+      <c r="V13" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1">
-      <c r="A14" s="12" t="s">
+    <row r="14" ht="15" customHeight="1" spans="1:22">
+      <c r="A14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="20">
         <v>18407</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="21">
         <v>12357</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="P14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="Q14" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="R14" s="12" t="s">
+      <c r="R14" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="S14" s="12" t="s">
+      <c r="S14" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="T14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U14" s="12" t="s">
+      <c r="T14" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V14" s="12" t="s">
+      <c r="V14" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1">
-      <c r="A15" s="12" t="s">
+    <row r="15" ht="15" customHeight="1" spans="1:22">
+      <c r="A15" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="20">
         <v>18408</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="12" t="s">
+      <c r="G15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15" s="21">
         <v>12358</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="R15" s="12" t="s">
+      <c r="R15" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="S15" s="12" t="s">
+      <c r="S15" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="T15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U15" s="12" t="s">
+      <c r="T15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V15" s="12" t="s">
+      <c r="V15" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1">
-      <c r="A16" s="12" t="s">
+    <row r="16" ht="15" customHeight="1" spans="1:22">
+      <c r="A16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="20">
         <v>18409</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="21">
         <v>12359</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="P16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="Q16" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="R16" s="12" t="s">
+      <c r="R16" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="S16" s="12" t="s">
+      <c r="S16" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="T16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U16" s="12" t="s">
+      <c r="T16" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V16" s="12" t="s">
+      <c r="V16" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1">
-      <c r="A17" s="12" t="s">
+    <row r="17" ht="15" customHeight="1" spans="1:22">
+      <c r="A17" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="20">
         <v>18410</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="12" t="s">
+      <c r="G17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="21">
         <v>12360</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="P17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="Q17" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="R17" s="12" t="s">
+      <c r="R17" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="S17" s="12" t="s">
+      <c r="S17" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="T17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U17" s="12" t="s">
+      <c r="T17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V17" s="12" t="s">
+      <c r="V17" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15" customHeight="1">
-      <c r="A18" s="12" t="s">
+    <row r="18" ht="15" customHeight="1" spans="1:22">
+      <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="20">
         <v>18411</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="21">
         <v>12361</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="R18" s="12" t="s">
+      <c r="R18" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="S18" s="12" t="s">
+      <c r="S18" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="T18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U18" s="12" t="s">
+      <c r="T18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V18" s="12" t="s">
+      <c r="V18" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" customHeight="1">
-      <c r="A19" s="12" t="s">
+    <row r="19" ht="15" customHeight="1" spans="1:22">
+      <c r="A19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="20">
         <v>18412</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="12" t="s">
+      <c r="G19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="21">
         <v>12362</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="P19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="Q19" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="R19" s="12" t="s">
+      <c r="R19" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="S19" s="12" t="s">
+      <c r="S19" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="T19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U19" s="12" t="s">
+      <c r="T19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V19" s="12" t="s">
+      <c r="V19" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15" customHeight="1">
-      <c r="A20" s="12" t="s">
+    <row r="20" ht="15" customHeight="1" spans="1:22">
+      <c r="A20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="20">
         <v>18413</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="N20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="21">
         <v>12363</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="Q20" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="R20" s="12" t="s">
+      <c r="R20" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="S20" s="12" t="s">
+      <c r="S20" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="T20" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U20" s="12" t="s">
+      <c r="T20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V20" s="12" t="s">
+      <c r="V20" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" customHeight="1">
-      <c r="A21" s="12" t="s">
+    <row r="21" ht="15" customHeight="1" spans="1:22">
+      <c r="A21" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="20">
         <v>18414</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="12" t="s">
+      <c r="G21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="N21" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="21">
         <v>12364</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="Q21" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="R21" s="12" t="s">
+      <c r="R21" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="S21" s="12" t="s">
+      <c r="S21" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="T21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U21" s="12" t="s">
+      <c r="T21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V21" s="12" t="s">
+      <c r="V21" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" customHeight="1">
-      <c r="A22" s="12" t="s">
+    <row r="22" ht="15" customHeight="1" spans="1:22">
+      <c r="A22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="20">
         <v>18415</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="21">
         <v>12365</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="P22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="Q22" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="R22" s="12" t="s">
+      <c r="R22" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="S22" s="12" t="s">
+      <c r="S22" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="T22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U22" s="12" t="s">
+      <c r="T22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U22" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V22" s="12" t="s">
+      <c r="V22" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" customHeight="1">
-      <c r="A23" s="12" t="s">
+    <row r="23" ht="15" customHeight="1" spans="1:22">
+      <c r="A23" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="20">
         <v>18416</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="12" t="s">
+      <c r="G23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O23" s="21">
         <v>12366</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q23" s="12" t="s">
+      <c r="Q23" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="R23" s="12" t="s">
+      <c r="R23" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="S23" s="12" t="s">
+      <c r="S23" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="T23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U23" s="12" t="s">
+      <c r="T23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V23" s="12" t="s">
+      <c r="V23" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15" customHeight="1">
-      <c r="A24" s="12" t="s">
+    <row r="24" ht="15" customHeight="1" spans="1:22">
+      <c r="A24" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="20">
         <v>18417</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="N24" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O24" s="21">
         <v>12367</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="P24" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q24" s="12" t="s">
+      <c r="Q24" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="R24" s="12" t="s">
+      <c r="R24" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="S24" s="12" t="s">
+      <c r="S24" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="T24" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U24" s="12" t="s">
+      <c r="T24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U24" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V24" s="12" t="s">
+      <c r="V24" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15" customHeight="1">
-      <c r="A25" s="12" t="s">
+    <row r="25" ht="15" customHeight="1" spans="1:22">
+      <c r="A25" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="20">
         <v>18418</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="12" t="s">
+      <c r="G25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N25" s="12" t="s">
+      <c r="N25" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="21">
         <v>12368</v>
       </c>
-      <c r="P25" s="12" t="s">
+      <c r="P25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q25" s="12" t="s">
+      <c r="Q25" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="R25" s="12" t="s">
+      <c r="R25" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="S25" s="12" t="s">
+      <c r="S25" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="T25" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U25" s="12" t="s">
+      <c r="T25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U25" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V25" s="12" t="s">
+      <c r="V25" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" customHeight="1">
-      <c r="A26" s="12" t="s">
+    <row r="26" ht="15" customHeight="1" spans="1:22">
+      <c r="A26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="20">
         <v>18419</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="N26" s="12" t="s">
+      <c r="N26" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="21">
         <v>12369</v>
       </c>
-      <c r="P26" s="12" t="s">
+      <c r="P26" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q26" s="12" t="s">
+      <c r="Q26" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="R26" s="12" t="s">
+      <c r="R26" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="S26" s="12" t="s">
+      <c r="S26" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="T26" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U26" s="12" t="s">
+      <c r="T26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U26" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V26" s="12" t="s">
+      <c r="V26" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15" customHeight="1">
-      <c r="A27" s="12" t="s">
+    <row r="27" ht="15" customHeight="1" spans="1:22">
+      <c r="A27" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="20">
         <v>18420</v>
       </c>
-      <c r="G27" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="12" t="s">
+      <c r="G27" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="12" t="s">
+      <c r="N27" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O27" s="19">
+      <c r="O27" s="21">
         <v>12370</v>
       </c>
-      <c r="P27" s="12" t="s">
+      <c r="P27" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q27" s="12" t="s">
+      <c r="Q27" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="R27" s="12" t="s">
+      <c r="R27" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="S27" s="12" t="s">
+      <c r="S27" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="T27" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U27" s="12" t="s">
+      <c r="T27" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U27" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V27" s="12" t="s">
+      <c r="V27" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15" customHeight="1">
-      <c r="A28" s="12" t="s">
+    <row r="28" ht="15" customHeight="1" spans="1:22">
+      <c r="A28" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="20">
         <v>18421</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="N28" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O28" s="19">
+      <c r="O28" s="21">
         <v>12371</v>
       </c>
-      <c r="P28" s="12" t="s">
+      <c r="P28" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q28" s="12" t="s">
+      <c r="Q28" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="R28" s="12" t="s">
+      <c r="R28" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="S28" s="12" t="s">
+      <c r="S28" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="T28" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U28" s="12" t="s">
+      <c r="T28" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U28" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V28" s="12" t="s">
+      <c r="V28" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15" customHeight="1">
-      <c r="A29" s="12" t="s">
+    <row r="29" ht="15" customHeight="1" spans="1:22">
+      <c r="A29" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="20">
         <v>18422</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29" s="12" t="s">
+      <c r="G29" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="N29" s="12" t="s">
+      <c r="N29" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O29" s="21">
         <v>12372</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="P29" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q29" s="12" t="s">
+      <c r="Q29" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="R29" s="12" t="s">
+      <c r="R29" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="S29" s="12" t="s">
+      <c r="S29" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="T29" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U29" s="12" t="s">
+      <c r="T29" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U29" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V29" s="12" t="s">
+      <c r="V29" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1">
-      <c r="A30" s="12" t="s">
+    <row r="30" ht="15" customHeight="1" spans="1:22">
+      <c r="A30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="20">
         <v>18423</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="M30" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N30" s="12" t="s">
+      <c r="N30" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O30" s="19">
+      <c r="O30" s="21">
         <v>12373</v>
       </c>
-      <c r="P30" s="12" t="s">
+      <c r="P30" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q30" s="12" t="s">
+      <c r="Q30" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="R30" s="12" t="s">
+      <c r="R30" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="S30" s="12" t="s">
+      <c r="S30" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="T30" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U30" s="12" t="s">
+      <c r="T30" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U30" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V30" s="12" t="s">
+      <c r="V30" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1">
-      <c r="A31" s="12" t="s">
+    <row r="31" ht="15" customHeight="1" spans="1:22">
+      <c r="A31" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="20">
         <v>18424</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="12" t="s">
+      <c r="G31" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="M31" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="12" t="s">
+      <c r="N31" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="19">
+      <c r="O31" s="21">
         <v>12374</v>
       </c>
-      <c r="P31" s="12" t="s">
+      <c r="P31" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q31" s="12" t="s">
+      <c r="Q31" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="R31" s="12" t="s">
+      <c r="R31" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="S31" s="12" t="s">
+      <c r="S31" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="T31" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U31" s="12" t="s">
+      <c r="T31" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U31" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V31" s="12" t="s">
+      <c r="V31" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15" customHeight="1">
-      <c r="A32" s="12" t="s">
+    <row r="32" ht="15" customHeight="1" spans="1:22">
+      <c r="A32" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="20">
         <v>18425</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M32" s="12" t="s">
+      <c r="M32" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="12" t="s">
+      <c r="N32" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O32" s="19">
+      <c r="O32" s="21">
         <v>12375</v>
       </c>
-      <c r="P32" s="12" t="s">
+      <c r="P32" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q32" s="12" t="s">
+      <c r="Q32" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="R32" s="12" t="s">
+      <c r="R32" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="S32" s="12" t="s">
+      <c r="S32" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="T32" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U32" s="12" t="s">
+      <c r="T32" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U32" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V32" s="12" t="s">
+      <c r="V32" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" customHeight="1">
-      <c r="A33" s="12" t="s">
+    <row r="33" ht="15" customHeight="1" spans="1:22">
+      <c r="A33" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="20">
         <v>18426</v>
       </c>
-      <c r="G33" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" s="12" t="s">
+      <c r="G33" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M33" s="12" t="s">
+      <c r="M33" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N33" s="12" t="s">
+      <c r="N33" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O33" s="19">
+      <c r="O33" s="21">
         <v>12376</v>
       </c>
-      <c r="P33" s="12" t="s">
+      <c r="P33" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q33" s="12" t="s">
+      <c r="Q33" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="R33" s="12" t="s">
+      <c r="R33" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="S33" s="12" t="s">
+      <c r="S33" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="T33" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U33" s="12" t="s">
+      <c r="T33" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U33" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V33" s="12" t="s">
+      <c r="V33" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" customHeight="1">
-      <c r="A34" s="12" t="s">
+    <row r="34" ht="15" customHeight="1" spans="1:22">
+      <c r="A34" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="20">
         <v>18427</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="M34" s="12" t="s">
+      <c r="M34" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="N34" s="12" t="s">
+      <c r="N34" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="21">
         <v>12377</v>
       </c>
-      <c r="P34" s="12" t="s">
+      <c r="P34" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q34" s="12" t="s">
+      <c r="Q34" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="R34" s="12" t="s">
+      <c r="R34" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="S34" s="12" t="s">
+      <c r="S34" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="T34" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U34" s="12" t="s">
+      <c r="T34" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U34" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V34" s="12" t="s">
+      <c r="V34" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" customHeight="1">
-      <c r="A35" s="12" t="s">
+    <row r="35" ht="15" customHeight="1" spans="1:22">
+      <c r="A35" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="20">
         <v>18428</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" s="12" t="s">
+      <c r="G35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M35" s="12" t="s">
+      <c r="M35" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N35" s="12" t="s">
+      <c r="N35" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O35" s="19">
+      <c r="O35" s="21">
         <v>12378</v>
       </c>
-      <c r="P35" s="12" t="s">
+      <c r="P35" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q35" s="12" t="s">
+      <c r="Q35" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="R35" s="12" t="s">
+      <c r="R35" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="S35" s="12" t="s">
+      <c r="S35" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="T35" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U35" s="12" t="s">
+      <c r="T35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U35" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V35" s="12" t="s">
+      <c r="V35" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" customHeight="1">
-      <c r="A36" s="12" t="s">
+    <row r="36" ht="15" customHeight="1" spans="1:22">
+      <c r="A36" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="20">
         <v>18429</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="K36" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="M36" s="12" t="s">
+      <c r="M36" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="N36" s="12" t="s">
+      <c r="N36" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O36" s="19">
+      <c r="O36" s="21">
         <v>12379</v>
       </c>
-      <c r="P36" s="12" t="s">
+      <c r="P36" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q36" s="12" t="s">
+      <c r="Q36" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="R36" s="12" t="s">
+      <c r="R36" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="S36" s="12" t="s">
+      <c r="S36" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="T36" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U36" s="12" t="s">
+      <c r="T36" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U36" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V36" s="12" t="s">
+      <c r="V36" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" customHeight="1">
-      <c r="A37" s="12" t="s">
+    <row r="37" ht="15" customHeight="1" spans="1:22">
+      <c r="A37" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="20">
         <v>18430</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I37" s="12" t="s">
+      <c r="G37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="K37" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L37" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M37" s="12" t="s">
+      <c r="M37" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N37" s="12" t="s">
+      <c r="N37" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O37" s="19">
+      <c r="O37" s="21">
         <v>12380</v>
       </c>
-      <c r="P37" s="12" t="s">
+      <c r="P37" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q37" s="12" t="s">
+      <c r="Q37" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="R37" s="12" t="s">
+      <c r="R37" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="S37" s="12" t="s">
+      <c r="S37" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="T37" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U37" s="12" t="s">
+      <c r="T37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U37" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V37" s="12" t="s">
+      <c r="V37" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" customHeight="1">
-      <c r="A38" s="12" t="s">
+    <row r="38" ht="15" customHeight="1" spans="1:22">
+      <c r="A38" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="20">
         <v>18431</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K38" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M38" s="12" t="s">
+      <c r="M38" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N38" s="12" t="s">
+      <c r="N38" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O38" s="19">
+      <c r="O38" s="21">
         <v>12381</v>
       </c>
-      <c r="P38" s="12" t="s">
+      <c r="P38" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q38" s="12" t="s">
+      <c r="Q38" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="R38" s="12" t="s">
+      <c r="R38" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="S38" s="12" t="s">
+      <c r="S38" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="T38" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U38" s="12" t="s">
+      <c r="T38" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U38" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V38" s="12" t="s">
+      <c r="V38" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" customHeight="1">
-      <c r="A39" s="12" t="s">
+    <row r="39" ht="15" customHeight="1" spans="1:22">
+      <c r="A39" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="20">
         <v>18432</v>
       </c>
-      <c r="G39" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="12" t="s">
+      <c r="G39" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="K39" s="12" t="s">
+      <c r="K39" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="L39" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="M39" s="12" t="s">
+      <c r="M39" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="N39" s="12" t="s">
+      <c r="N39" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O39" s="21">
         <v>12382</v>
       </c>
-      <c r="P39" s="12" t="s">
+      <c r="P39" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q39" s="12" t="s">
+      <c r="Q39" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="R39" s="12" t="s">
+      <c r="R39" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="S39" s="12" t="s">
+      <c r="S39" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="T39" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U39" s="12" t="s">
+      <c r="T39" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U39" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V39" s="12" t="s">
+      <c r="V39" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" customHeight="1">
-      <c r="A40" s="12" t="s">
+    <row r="40" ht="15" customHeight="1" spans="1:22">
+      <c r="A40" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="20">
         <v>18433</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="K40" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="12" t="s">
+      <c r="M40" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N40" s="12" t="s">
+      <c r="N40" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O40" s="19">
+      <c r="O40" s="21">
         <v>12383</v>
       </c>
-      <c r="P40" s="12" t="s">
+      <c r="P40" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q40" s="12" t="s">
+      <c r="Q40" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="R40" s="12" t="s">
+      <c r="R40" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="S40" s="12" t="s">
+      <c r="S40" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="T40" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U40" s="12" t="s">
+      <c r="T40" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U40" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V40" s="12" t="s">
+      <c r="V40" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" customHeight="1">
-      <c r="A41" s="12" t="s">
+    <row r="41" ht="15" customHeight="1" spans="1:22">
+      <c r="A41" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="20">
         <v>18434</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41" s="12" t="s">
+      <c r="G41" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="K41" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="L41" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="M41" s="12" t="s">
+      <c r="M41" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="N41" s="12" t="s">
+      <c r="N41" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O41" s="19">
+      <c r="O41" s="21">
         <v>12384</v>
       </c>
-      <c r="P41" s="12" t="s">
+      <c r="P41" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q41" s="12" t="s">
+      <c r="Q41" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="R41" s="12" t="s">
+      <c r="R41" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="S41" s="12" t="s">
+      <c r="S41" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="T41" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U41" s="12" t="s">
+      <c r="T41" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U41" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V41" s="12" t="s">
+      <c r="V41" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" customHeight="1">
-      <c r="A42" s="12" t="s">
+    <row r="42" ht="15" customHeight="1" spans="1:22">
+      <c r="A42" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="20">
         <v>18435</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="L42" s="12" t="s">
+      <c r="L42" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M42" s="12" t="s">
+      <c r="M42" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N42" s="12" t="s">
+      <c r="N42" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O42" s="19">
+      <c r="O42" s="21">
         <v>12385</v>
       </c>
-      <c r="P42" s="12" t="s">
+      <c r="P42" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q42" s="12" t="s">
+      <c r="Q42" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="R42" s="12" t="s">
+      <c r="R42" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="S42" s="12" t="s">
+      <c r="S42" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="T42" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U42" s="12" t="s">
+      <c r="T42" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U42" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V42" s="12" t="s">
+      <c r="V42" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" customHeight="1">
-      <c r="A43" s="12" t="s">
+    <row r="43" ht="15" customHeight="1" spans="1:22">
+      <c r="A43" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="20">
         <v>18436</v>
       </c>
-      <c r="G43" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I43" s="12" t="s">
+      <c r="G43" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="J43" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="K43" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="L43" s="12" t="s">
+      <c r="L43" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M43" s="12" t="s">
+      <c r="M43" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N43" s="12" t="s">
+      <c r="N43" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O43" s="19">
+      <c r="O43" s="21">
         <v>12386</v>
       </c>
-      <c r="P43" s="12" t="s">
+      <c r="P43" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q43" s="12" t="s">
+      <c r="Q43" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="R43" s="12" t="s">
+      <c r="R43" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="S43" s="12" t="s">
+      <c r="S43" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="T43" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U43" s="12" t="s">
+      <c r="T43" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U43" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V43" s="12" t="s">
+      <c r="V43" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" customHeight="1">
-      <c r="A44" s="12" t="s">
+    <row r="44" ht="15" customHeight="1" spans="1:22">
+      <c r="A44" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="20">
         <v>18437</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="K44" s="12" t="s">
+      <c r="K44" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="L44" s="12" t="s">
+      <c r="L44" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="M44" s="12" t="s">
+      <c r="M44" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="N44" s="12" t="s">
+      <c r="N44" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O44" s="19">
+      <c r="O44" s="21">
         <v>12387</v>
       </c>
-      <c r="P44" s="12" t="s">
+      <c r="P44" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q44" s="12" t="s">
+      <c r="Q44" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="R44" s="12" t="s">
+      <c r="R44" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="S44" s="12" t="s">
+      <c r="S44" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="T44" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U44" s="12" t="s">
+      <c r="T44" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U44" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V44" s="12" t="s">
+      <c r="V44" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" customHeight="1">
-      <c r="A45" s="12" t="s">
+    <row r="45" ht="15" customHeight="1" spans="1:22">
+      <c r="A45" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="20">
         <v>18438</v>
       </c>
-      <c r="G45" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="12" t="s">
+      <c r="G45" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J45" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="K45" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="L45" s="12" t="s">
+      <c r="L45" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M45" s="12" t="s">
+      <c r="M45" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N45" s="12" t="s">
+      <c r="N45" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O45" s="19">
+      <c r="O45" s="21">
         <v>12388</v>
       </c>
-      <c r="P45" s="12" t="s">
+      <c r="P45" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q45" s="12" t="s">
+      <c r="Q45" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="R45" s="12" t="s">
+      <c r="R45" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="S45" s="12" t="s">
+      <c r="S45" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="T45" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U45" s="12" t="s">
+      <c r="T45" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U45" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V45" s="12" t="s">
+      <c r="V45" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" customHeight="1">
-      <c r="A46" s="12" t="s">
+    <row r="46" ht="15" customHeight="1" spans="1:22">
+      <c r="A46" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="20">
         <v>18439</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="J46" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="K46" s="12" t="s">
+      <c r="K46" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="L46" s="12" t="s">
+      <c r="L46" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="M46" s="12" t="s">
+      <c r="M46" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="N46" s="12" t="s">
+      <c r="N46" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O46" s="19">
+      <c r="O46" s="21">
         <v>12389</v>
       </c>
-      <c r="P46" s="12" t="s">
+      <c r="P46" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q46" s="12" t="s">
+      <c r="Q46" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="R46" s="12" t="s">
+      <c r="R46" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="S46" s="12" t="s">
+      <c r="S46" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="T46" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U46" s="12" t="s">
+      <c r="T46" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U46" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V46" s="12" t="s">
+      <c r="V46" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" customHeight="1">
-      <c r="A47" s="12" t="s">
+    <row r="47" ht="15" customHeight="1" spans="1:22">
+      <c r="A47" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="20">
         <v>18440</v>
       </c>
-      <c r="G47" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I47" s="12" t="s">
+      <c r="G47" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J47" s="12" t="s">
+      <c r="J47" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="K47" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="L47" s="12" t="s">
+      <c r="L47" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M47" s="12" t="s">
+      <c r="M47" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N47" s="12" t="s">
+      <c r="N47" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O47" s="19">
+      <c r="O47" s="21">
         <v>12390</v>
       </c>
-      <c r="P47" s="12" t="s">
+      <c r="P47" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q47" s="12" t="s">
+      <c r="Q47" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="R47" s="12" t="s">
+      <c r="R47" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="S47" s="12" t="s">
+      <c r="S47" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="T47" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U47" s="12" t="s">
+      <c r="T47" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U47" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V47" s="12" t="s">
+      <c r="V47" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="15" customHeight="1">
-      <c r="A48" s="12" t="s">
+    <row r="48" ht="15" customHeight="1" spans="1:22">
+      <c r="A48" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="20">
         <v>18441</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J48" s="12" t="s">
+      <c r="J48" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="K48" s="12" t="s">
+      <c r="K48" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="L48" s="12" t="s">
+      <c r="L48" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M48" s="12" t="s">
+      <c r="M48" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N48" s="12" t="s">
+      <c r="N48" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O48" s="19">
+      <c r="O48" s="21">
         <v>12391</v>
       </c>
-      <c r="P48" s="12" t="s">
+      <c r="P48" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q48" s="12" t="s">
+      <c r="Q48" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="R48" s="12" t="s">
+      <c r="R48" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="S48" s="12" t="s">
+      <c r="S48" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="T48" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U48" s="12" t="s">
+      <c r="T48" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U48" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V48" s="12" t="s">
+      <c r="V48" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15" customHeight="1">
-      <c r="A49" s="12" t="s">
+    <row r="49" ht="15" customHeight="1" spans="1:22">
+      <c r="A49" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="20">
         <v>18442</v>
       </c>
-      <c r="G49" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="12" t="s">
+      <c r="G49" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J49" s="12" t="s">
+      <c r="J49" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="K49" s="12" t="s">
+      <c r="K49" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="L49" s="12" t="s">
+      <c r="L49" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="M49" s="12" t="s">
+      <c r="M49" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="N49" s="12" t="s">
+      <c r="N49" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O49" s="19">
+      <c r="O49" s="21">
         <v>12392</v>
       </c>
-      <c r="P49" s="12" t="s">
+      <c r="P49" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q49" s="12" t="s">
+      <c r="Q49" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="R49" s="12" t="s">
+      <c r="R49" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="S49" s="12" t="s">
+      <c r="S49" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="T49" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U49" s="12" t="s">
+      <c r="T49" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U49" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V49" s="12" t="s">
+      <c r="V49" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15" customHeight="1">
-      <c r="A50" s="12" t="s">
+    <row r="50" ht="15" customHeight="1" spans="1:22">
+      <c r="A50" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="20">
         <v>18443</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="K50" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="L50" s="12" t="s">
+      <c r="L50" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M50" s="12" t="s">
+      <c r="M50" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N50" s="12" t="s">
+      <c r="N50" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O50" s="19">
+      <c r="O50" s="21">
         <v>12393</v>
       </c>
-      <c r="P50" s="12" t="s">
+      <c r="P50" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q50" s="12" t="s">
+      <c r="Q50" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="R50" s="12" t="s">
+      <c r="R50" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="S50" s="12" t="s">
+      <c r="S50" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="T50" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U50" s="12" t="s">
+      <c r="T50" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U50" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V50" s="12" t="s">
+      <c r="V50" s="14" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="D2" r:id="rId1" display="sandy.peterson12@abc.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="sam.peterson13@abc.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="hillary.peterson14@abc.com"/>
+    <hyperlink ref="D5" r:id="rId4" display="michael.peterson15@abc.com"/>
+    <hyperlink ref="D6" r:id="rId1" display="sandy.peterson13@abc.com"/>
+    <hyperlink ref="D7" r:id="rId2" display="sam.peterson14@abc.com"/>
+    <hyperlink ref="D8" r:id="rId3" display="hillary.peterson15@abc.com"/>
+    <hyperlink ref="D9" r:id="rId4" display="michael.peterson16@abc.com"/>
+    <hyperlink ref="D10" r:id="rId1" display="sandy.peterson14@abc.com"/>
+    <hyperlink ref="D11" r:id="rId2" display="sam.peterson15@abc.com"/>
+    <hyperlink ref="D12" r:id="rId3" display="hillary.peterson16@abc.com"/>
+    <hyperlink ref="D13" r:id="rId4" display="michael.peterson17@abc.com"/>
+    <hyperlink ref="D14" r:id="rId1" display="sandy.peterson15@abc.com"/>
+    <hyperlink ref="D15" r:id="rId2" display="sam.peterson16@abc.com"/>
+    <hyperlink ref="D16" r:id="rId3" display="hillary.peterson17@abc.com"/>
+    <hyperlink ref="D17" r:id="rId4" display="michael.peterson18@abc.com"/>
+    <hyperlink ref="D18" r:id="rId1" display="sandy.peterson16@abc.com"/>
+    <hyperlink ref="D19" r:id="rId2" display="sam.peterson17@abc.com"/>
+    <hyperlink ref="D20" r:id="rId3" display="hillary.peterson18@abc.com"/>
+    <hyperlink ref="D21" r:id="rId4" display="michael.peterson19@abc.com"/>
+    <hyperlink ref="D22" r:id="rId1" display="sandy.peterson17@abc.com"/>
+    <hyperlink ref="D23" r:id="rId2" display="sam.peterson18@abc.com"/>
+    <hyperlink ref="D24" r:id="rId3" display="hillary.peterson19@abc.com"/>
+    <hyperlink ref="D25" r:id="rId4" display="michael.peterson20@abc.com"/>
+    <hyperlink ref="D26" r:id="rId1" display="sandy.peterson18@abc.com"/>
+    <hyperlink ref="D27" r:id="rId2" display="sam.peterson19@abc.com"/>
+    <hyperlink ref="D28" r:id="rId3" display="hillary.peterson20@abc.com"/>
+    <hyperlink ref="D29" r:id="rId4" display="michael.peterson21@abc.com"/>
+    <hyperlink ref="D30" r:id="rId1" display="sandy.peterson19@abc.com"/>
+    <hyperlink ref="D31" r:id="rId2" display="sam.peterson20@abc.com"/>
+    <hyperlink ref="D32" r:id="rId3" display="hillary.peterson21@abc.com"/>
+    <hyperlink ref="D33" r:id="rId4" display="michael.peterson22@abc.com"/>
+    <hyperlink ref="D34" r:id="rId1" display="sandy.peterson20@abc.com"/>
+    <hyperlink ref="D35" r:id="rId2" display="sam.peterson21@abc.com"/>
+    <hyperlink ref="D36" r:id="rId3" display="hillary.peterson22@abc.com"/>
+    <hyperlink ref="D37" r:id="rId4" display="michael.peterson23@abc.com"/>
+    <hyperlink ref="D38" r:id="rId1" display="sandy.peterson21@abc.com"/>
+    <hyperlink ref="D39" r:id="rId2" display="sam.peterson22@abc.com"/>
+    <hyperlink ref="D40" r:id="rId3" display="hillary.peterson23@abc.com"/>
+    <hyperlink ref="D41" r:id="rId4" display="michael.peterson24@abc.com"/>
+    <hyperlink ref="D42" r:id="rId1" display="sandy.peterson22@abc.com"/>
+    <hyperlink ref="D43" r:id="rId2" display="sam.peterson23@abc.com"/>
+    <hyperlink ref="D44" r:id="rId3" display="hillary.peterson24@abc.com"/>
+    <hyperlink ref="D45" r:id="rId4" display="michael.peterson25@abc.com"/>
+    <hyperlink ref="D46" r:id="rId1" display="sandy.peterson23@abc.com"/>
+    <hyperlink ref="D47" r:id="rId2" display="sam.peterson24@abc.com"/>
+    <hyperlink ref="D48" r:id="rId3" display="hillary.peterson25@abc.com"/>
+    <hyperlink ref="D49" r:id="rId4" display="michael.peterson26@abc.com"/>
+    <hyperlink ref="D50" r:id="rId1" display="sandy.peterson24@abc.com"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6583,102 +7245,105 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.46875" style="11" customWidth="1"/>
-    <col min="2" max="6" width="9" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="22.46875" style="13" customWidth="1"/>
+    <col min="2" max="6" width="9" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:5">
+      <c r="A2" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:5">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:5">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:5">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="kevinlee1234@gmail.com"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6686,113 +7351,116 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21" style="11" customWidth="1"/>
-    <col min="2" max="2" width="19.3515625" style="11" customWidth="1"/>
-    <col min="3" max="6" width="9" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="21" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.3515625" style="13" customWidth="1"/>
+    <col min="3" max="6" width="9" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:5">
+      <c r="A2" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:5">
+      <c r="A3" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5">
+      <c r="A4" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:5">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:5">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="kevinlee1234@gmail"/>
+    <hyperlink ref="A3" r:id="rId2" display="kevinlee1234@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="kevinlee1234"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6800,123 +7468,126 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.17578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="103.17578125" style="11" customWidth="1"/>
-    <col min="4" max="6" width="9" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="21" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="103.1796875" style="13" customWidth="1"/>
+    <col min="4" max="6" width="9" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:5">
+      <c r="A2" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:5">
+      <c r="A3" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5">
+      <c r="A4" s="15"/>
+      <c r="B4" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5">
+      <c r="A5" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:5">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:5">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="kevinlee1234@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId1" display="kevinlee1234@gmail.com"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6924,95 +7595,98 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="47.17578125" style="11" customWidth="1"/>
-    <col min="2" max="6" width="9" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="47.1796875" style="13" customWidth="1"/>
+    <col min="2" max="6" width="9" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A1" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="126" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" ht="126" customHeight="1" spans="1:5">
+      <c r="A2" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:5">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:5">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:5">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7020,157 +7694,160 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.3515625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.46875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="14" style="11" customWidth="1"/>
-    <col min="4" max="4" width="53.8203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9" style="11" customWidth="1"/>
-    <col min="6" max="6" width="19.46875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="14.3515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="22.46875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14" style="13" customWidth="1"/>
+    <col min="4" max="4" width="53.8203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13" customWidth="1"/>
+    <col min="6" max="6" width="19.46875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A1" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" ht="15" customHeight="1" spans="1:6">
+      <c r="A2" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="12" t="s">
+    <row r="3" ht="15" customHeight="1" spans="1:6">
+      <c r="A3" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:6">
+      <c r="A4" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+    <row r="5" ht="15" customHeight="1" spans="1:6">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:6">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:6">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:6">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:6">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:6">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="henry123@abc.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="henry124@abc.com"/>
+    <hyperlink ref="B4" r:id="rId2" display="kevinlee1234@gmail.com"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7178,123 +7855,126 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14" style="11" customWidth="1"/>
-    <col min="2" max="2" width="33.17578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="18.17578125" style="11" customWidth="1"/>
-    <col min="4" max="6" width="9" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="14" style="13" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="13" customWidth="1"/>
+    <col min="4" max="6" width="9" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A1" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:5">
+      <c r="A2" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:5">
+      <c r="A3" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5">
+      <c r="A4" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5">
+      <c r="A5" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:5">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:5">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7302,102 +7982,105 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="59.46875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="43.64453125" style="11" customWidth="1"/>
-    <col min="3" max="6" width="9" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="59.46875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="43.6484375" style="13" customWidth="1"/>
+    <col min="3" max="6" width="9" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A1" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:5">
+      <c r="A2" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:5">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:5">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:5">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/main/resources/testData/ecommerce.xlsx
+++ b/src/main/resources/testData/ecommerce.xlsx
@@ -4,26 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12540" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="28000" windowHeight="16740" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
     <sheet name="newUsers" sheetId="2" r:id="rId2"/>
-    <sheet name="userLogin" sheetId="3" r:id="rId3"/>
-    <sheet name="negativeAccountCreate" sheetId="4" r:id="rId4"/>
-    <sheet name="negativeLogin" sheetId="5" r:id="rId5"/>
-    <sheet name="registerErrorMessages" sheetId="6" r:id="rId6"/>
-    <sheet name="contactUs" sheetId="7" r:id="rId7"/>
-    <sheet name="searchKeywords" sheetId="8" r:id="rId8"/>
-    <sheet name="dresses" sheetId="9" r:id="rId9"/>
-    <sheet name="ProductPage" sheetId="11" r:id="rId10"/>
+    <sheet name="negativeAccountCreate" sheetId="4" r:id="rId3"/>
+    <sheet name="negativeLogin" sheetId="5" r:id="rId4"/>
+    <sheet name="registerErrorMessages" sheetId="6" r:id="rId5"/>
+    <sheet name="contactUs" sheetId="7" r:id="rId6"/>
+    <sheet name="searchKeywords" sheetId="8" r:id="rId7"/>
+    <sheet name="dresses" sheetId="9" r:id="rId8"/>
+    <sheet name="ProductPage" sheetId="11" r:id="rId9"/>
+    <sheet name="userLogin" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="448">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -1096,34 +1096,34 @@
     <t>800-666-6714</t>
   </si>
   <si>
+    <t>errorMessages</t>
+  </si>
+  <si>
+    <t>kevinlee1234@gmail</t>
+  </si>
+  <si>
+    <t>Invalid email address.</t>
+  </si>
+  <si>
     <t>kevinlee1234@gmail.com</t>
   </si>
   <si>
+    <t>An account using this email address has already been registered. Please enter a valid password or request a new one.</t>
+  </si>
+  <si>
+    <t>kevinlee1234</t>
+  </si>
+  <si>
+    <t>Kevin000</t>
+  </si>
+  <si>
+    <t>Authentication failed.</t>
+  </si>
+  <si>
+    <t>kevinlee1234gmail</t>
+  </si>
+  <si>
     <t>Kevin123</t>
-  </si>
-  <si>
-    <t>errorMessages</t>
-  </si>
-  <si>
-    <t>kevinlee1234@gmail</t>
-  </si>
-  <si>
-    <t>Invalid email address.</t>
-  </si>
-  <si>
-    <t>An account using this email address has already been registered. Please enter a valid password or request a new one.</t>
-  </si>
-  <si>
-    <t>kevinlee1234</t>
-  </si>
-  <si>
-    <t>Kevin000</t>
-  </si>
-  <si>
-    <t>Authentication failed.</t>
-  </si>
-  <si>
-    <t>kevinlee1234gmail</t>
   </si>
   <si>
     <t>An email address required.</t>
@@ -1396,11 +1396,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="d&quot;-&quot;mm&quot;-&quot;yyyy"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="d&quot;-&quot;mm&quot;-&quot;yyyy"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1410,14 +1410,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -1461,16 +1461,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1483,32 +1491,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1529,60 +1520,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1596,8 +1535,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1630,7 +1630,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,7 +1666,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,13 +1684,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,109 +1732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,7 +1750,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,13 +1792,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1871,33 +1871,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1917,10 +1906,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1936,31 +1951,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1969,183 +1969,186 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="48" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2175,7 +2178,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2214,39 +2217,39 @@
     <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
     <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
-    <cellStyle name="Bad" xfId="22" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
-    <cellStyle name="Total" xfId="24" builtinId="25"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="Currency" xfId="26" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
-    <cellStyle name="Note" xfId="28" builtinId="10"/>
-    <cellStyle name="Input" xfId="29" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
-    <cellStyle name="Good" xfId="32" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="Title" xfId="38" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
-    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
-    <cellStyle name="Link" xfId="43" builtinId="8"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -3362,7 +3365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:D26"/>
   <sheetViews>
@@ -3377,162 +3380,162 @@
   </cols>
   <sheetData>
     <row r="3" ht="48" customHeight="1" spans="2:2">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="16.8" spans="2:4">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="14.8" spans="2:4">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" ht="14.8" spans="2:4">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" ht="14.8" spans="2:4">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" ht="14.8" spans="2:4">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" ht="14.8" spans="2:4">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" ht="14.8" spans="2:4">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" ht="14.8" spans="2:4">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" ht="14.8" spans="2:4">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" ht="14.8" spans="2:4">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" ht="14.8" spans="2:4">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="14.8" spans="2:4">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" ht="14.8" spans="2:4">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" ht="14.8" spans="2:4">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" ht="14.8" spans="2:4">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" ht="14.8" spans="2:4">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" ht="14.8" spans="2:4">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" ht="14.8" spans="2:4">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" ht="14.8" spans="2:4">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3557,201 +3560,64 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9.8828125" customWidth="1"/>
-    <col min="2" max="2" width="13.6484375" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="15" max="15" width="18.296875" customWidth="1"/>
-    <col min="16" max="16" width="15.6484375" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1"/>
-    <col min="21" max="21" width="16.8203125" customWidth="1"/>
-    <col min="24" max="24" width="20" customWidth="1"/>
-    <col min="25" max="25" width="19.7890625" customWidth="1"/>
-    <col min="26" max="26" width="36.25" customWidth="1"/>
+    <col min="1" max="1" width="25.78125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="L1" t="s">
-        <v>411</v>
-      </c>
-      <c r="M1" t="s">
-        <v>412</v>
-      </c>
-      <c r="N1" t="s">
-        <v>413</v>
-      </c>
-      <c r="O1" t="s">
-        <v>414</v>
-      </c>
-      <c r="P1" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="R1" t="s">
-        <v>417</v>
-      </c>
-      <c r="S1" t="s">
-        <v>418</v>
-      </c>
-      <c r="T1" t="s">
-        <v>419</v>
-      </c>
-      <c r="U1" t="s">
-        <v>420</v>
-      </c>
-      <c r="V1" t="s">
-        <v>421</v>
-      </c>
-      <c r="W1" t="s">
-        <v>422</v>
-      </c>
-      <c r="X1" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>424</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="2" ht="220" customHeight="1" spans="1:26">
-      <c r="A2" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="E2" s="7">
-        <v>28.98</v>
-      </c>
-      <c r="F2" s="7">
-        <v>30.51</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="L2" t="s">
-        <v>435</v>
-      </c>
-      <c r="M2" t="s">
-        <v>436</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="O2" s="11">
-        <f>(E2*N2)</f>
-        <v>57.96</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="U2" t="s">
-        <v>442</v>
-      </c>
-      <c r="V2" t="s">
-        <v>443</v>
-      </c>
-      <c r="W2" t="s">
-        <v>444</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>447</v>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="Peter@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="kevinlee1234@gmail.com" tooltip="mailto:kevinlee1234@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId1" display="kevinlee1234@gmail.com" tooltip="mailto:kevinlee1234@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId1" display="kevinlee1234@gmail.com" tooltip="mailto:kevinlee1234@gmail.com"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:V50"/>
   <sheetViews>
@@ -3761,3426 +3627,3426 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="9" style="13" customWidth="1"/>
-    <col min="4" max="4" width="27.46875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9" style="13" customWidth="1"/>
-    <col min="6" max="6" width="12.46875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="11.3515625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="11.8203125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="23.1796875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="13" customWidth="1"/>
-    <col min="11" max="11" width="9" style="13" customWidth="1"/>
-    <col min="12" max="12" width="13" style="13" customWidth="1"/>
-    <col min="13" max="13" width="14.6484375" style="13" customWidth="1"/>
-    <col min="14" max="15" width="12.46875" style="13" customWidth="1"/>
-    <col min="16" max="16" width="41.46875" style="13" customWidth="1"/>
-    <col min="17" max="17" width="12.46875" style="13" customWidth="1"/>
-    <col min="18" max="18" width="13.3515625" style="13" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" style="13" customWidth="1"/>
-    <col min="20" max="20" width="9" style="13" customWidth="1"/>
-    <col min="21" max="21" width="41.46875" style="13" customWidth="1"/>
-    <col min="22" max="22" width="37.6484375" style="13" customWidth="1"/>
-    <col min="23" max="23" width="9" style="13" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="13"/>
+    <col min="1" max="3" width="9" style="14" customWidth="1"/>
+    <col min="4" max="4" width="27.46875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="9" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12.46875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="11.3515625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="11.8203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9" style="14" customWidth="1"/>
+    <col min="12" max="12" width="13" style="14" customWidth="1"/>
+    <col min="13" max="13" width="14.6484375" style="14" customWidth="1"/>
+    <col min="14" max="15" width="12.46875" style="14" customWidth="1"/>
+    <col min="16" max="16" width="41.46875" style="14" customWidth="1"/>
+    <col min="17" max="17" width="12.46875" style="14" customWidth="1"/>
+    <col min="18" max="18" width="13.3515625" style="14" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" style="14" customWidth="1"/>
+    <col min="20" max="20" width="9" style="14" customWidth="1"/>
+    <col min="21" max="21" width="41.46875" style="14" customWidth="1"/>
+    <col min="22" max="22" width="37.6484375" style="14" customWidth="1"/>
+    <col min="23" max="23" width="9" style="14" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:22">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:22">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="21">
         <v>18395</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="22">
         <v>12345</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:22">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="21">
         <v>18396</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="G3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="22">
         <v>12346</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="14" t="s">
+      <c r="T3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:22">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="21">
         <v>18397</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="22">
         <v>12347</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="14" t="s">
+      <c r="T4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="V4" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:22">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="21">
         <v>18398</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="G5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="22">
         <v>12348</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="T5" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" s="14" t="s">
+      <c r="T5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:22">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="21">
         <v>18399</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="22">
         <v>12349</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="T6" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" s="14" t="s">
+      <c r="T6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:22">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="21">
         <v>18400</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="G7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="22">
         <v>12350</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U7" s="14" t="s">
+      <c r="T7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:22">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="21">
         <v>18401</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="22">
         <v>12351</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="R8" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="T8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U8" s="14" t="s">
+      <c r="T8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="V8" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:22">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="21">
         <v>18402</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="14" t="s">
+      <c r="G9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="22">
         <v>12352</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="T9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U9" s="14" t="s">
+      <c r="T9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="V9" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:22">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="21">
         <v>18403</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="22">
         <v>12353</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="Q10" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="T10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U10" s="14" t="s">
+      <c r="T10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="V10" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:22">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="21">
         <v>18404</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="14" t="s">
+      <c r="G11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="22">
         <v>12354</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="R11" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="T11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U11" s="14" t="s">
+      <c r="T11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="V11" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:22">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="21">
         <v>18405</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="M12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="22">
         <v>12355</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="Q12" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="S12" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="T12" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U12" s="14" t="s">
+      <c r="T12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="V12" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:22">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="21">
         <v>18406</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="14" t="s">
+      <c r="G13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="22">
         <v>12356</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="P13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q13" s="14" t="s">
+      <c r="Q13" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="R13" s="14" t="s">
+      <c r="R13" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="T13" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U13" s="14" t="s">
+      <c r="T13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V13" s="14" t="s">
+      <c r="V13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:22">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="21">
         <v>18407</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="22">
         <v>12357</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="P14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="14" t="s">
+      <c r="Q14" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="R14" s="14" t="s">
+      <c r="R14" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="S14" s="14" t="s">
+      <c r="S14" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="T14" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U14" s="14" t="s">
+      <c r="T14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V14" s="14" t="s">
+      <c r="V14" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:22">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="21">
         <v>18408</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="14" t="s">
+      <c r="G15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="22">
         <v>12358</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q15" s="14" t="s">
+      <c r="Q15" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="R15" s="14" t="s">
+      <c r="R15" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="S15" s="14" t="s">
+      <c r="S15" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="T15" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U15" s="14" t="s">
+      <c r="T15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V15" s="14" t="s">
+      <c r="V15" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:22">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="21">
         <v>18409</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="22">
         <v>12359</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="14" t="s">
+      <c r="Q16" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="R16" s="14" t="s">
+      <c r="R16" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="S16" s="14" t="s">
+      <c r="S16" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="T16" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U16" s="14" t="s">
+      <c r="T16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V16" s="14" t="s">
+      <c r="V16" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:22">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="21">
         <v>18410</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="14" t="s">
+      <c r="G17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="22">
         <v>12360</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="P17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q17" s="14" t="s">
+      <c r="Q17" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="R17" s="14" t="s">
+      <c r="R17" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="S17" s="14" t="s">
+      <c r="S17" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="T17" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U17" s="14" t="s">
+      <c r="T17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V17" s="14" t="s">
+      <c r="V17" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:22">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="21">
         <v>18411</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M18" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="N18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="22">
         <v>12361</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q18" s="14" t="s">
+      <c r="Q18" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="R18" s="14" t="s">
+      <c r="R18" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="S18" s="14" t="s">
+      <c r="S18" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="T18" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U18" s="14" t="s">
+      <c r="T18" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V18" s="14" t="s">
+      <c r="V18" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:22">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="21">
         <v>18412</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="14" t="s">
+      <c r="G19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="N19" s="14" t="s">
+      <c r="N19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="22">
         <v>12362</v>
       </c>
-      <c r="P19" s="14" t="s">
+      <c r="P19" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" s="14" t="s">
+      <c r="Q19" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="R19" s="14" t="s">
+      <c r="R19" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="S19" s="14" t="s">
+      <c r="S19" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="T19" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U19" s="14" t="s">
+      <c r="T19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V19" s="14" t="s">
+      <c r="V19" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:22">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="21">
         <v>18413</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="M20" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="N20" s="14" t="s">
+      <c r="N20" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="22">
         <v>12363</v>
       </c>
-      <c r="P20" s="14" t="s">
+      <c r="P20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="14" t="s">
+      <c r="Q20" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="R20" s="14" t="s">
+      <c r="R20" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="S20" s="14" t="s">
+      <c r="S20" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="T20" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U20" s="14" t="s">
+      <c r="T20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U20" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V20" s="14" t="s">
+      <c r="V20" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:22">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="21">
         <v>18414</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="14" t="s">
+      <c r="G21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="22">
         <v>12364</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="P21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" s="14" t="s">
+      <c r="Q21" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="R21" s="14" t="s">
+      <c r="R21" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="S21" s="14" t="s">
+      <c r="S21" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="T21" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U21" s="14" t="s">
+      <c r="T21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V21" s="14" t="s">
+      <c r="V21" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:22">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="21">
         <v>18415</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="14" t="s">
+      <c r="N22" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="22">
         <v>12365</v>
       </c>
-      <c r="P22" s="14" t="s">
+      <c r="P22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q22" s="14" t="s">
+      <c r="Q22" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="R22" s="14" t="s">
+      <c r="R22" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="S22" s="14" t="s">
+      <c r="S22" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="T22" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U22" s="14" t="s">
+      <c r="T22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V22" s="14" t="s">
+      <c r="V22" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:22">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="21">
         <v>18416</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="14" t="s">
+      <c r="G23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="14" t="s">
+      <c r="M23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="14" t="s">
+      <c r="N23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="22">
         <v>12366</v>
       </c>
-      <c r="P23" s="14" t="s">
+      <c r="P23" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q23" s="14" t="s">
+      <c r="Q23" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="R23" s="14" t="s">
+      <c r="R23" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="S23" s="14" t="s">
+      <c r="S23" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="T23" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U23" s="14" t="s">
+      <c r="T23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U23" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V23" s="14" t="s">
+      <c r="V23" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:22">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="21">
         <v>18417</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M24" s="14" t="s">
+      <c r="M24" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="N24" s="14" t="s">
+      <c r="N24" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="22">
         <v>12367</v>
       </c>
-      <c r="P24" s="14" t="s">
+      <c r="P24" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q24" s="14" t="s">
+      <c r="Q24" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="R24" s="14" t="s">
+      <c r="R24" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="S24" s="14" t="s">
+      <c r="S24" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="T24" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U24" s="14" t="s">
+      <c r="T24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U24" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V24" s="14" t="s">
+      <c r="V24" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:22">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="21">
         <v>18418</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="14" t="s">
+      <c r="G25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="N25" s="14" t="s">
+      <c r="N25" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="22">
         <v>12368</v>
       </c>
-      <c r="P25" s="14" t="s">
+      <c r="P25" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q25" s="14" t="s">
+      <c r="Q25" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="R25" s="14" t="s">
+      <c r="R25" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="S25" s="14" t="s">
+      <c r="S25" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="T25" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U25" s="14" t="s">
+      <c r="T25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U25" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V25" s="14" t="s">
+      <c r="V25" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:22">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="21">
         <v>18419</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="M26" s="14" t="s">
+      <c r="M26" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="N26" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="22">
         <v>12369</v>
       </c>
-      <c r="P26" s="14" t="s">
+      <c r="P26" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q26" s="14" t="s">
+      <c r="Q26" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="R26" s="14" t="s">
+      <c r="R26" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="S26" s="14" t="s">
+      <c r="S26" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="T26" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U26" s="14" t="s">
+      <c r="T26" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U26" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V26" s="14" t="s">
+      <c r="V26" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:22">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="21">
         <v>18420</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="14" t="s">
+      <c r="G27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M27" s="14" t="s">
+      <c r="M27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="14" t="s">
+      <c r="N27" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27" s="22">
         <v>12370</v>
       </c>
-      <c r="P27" s="14" t="s">
+      <c r="P27" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q27" s="14" t="s">
+      <c r="Q27" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="R27" s="14" t="s">
+      <c r="R27" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="S27" s="14" t="s">
+      <c r="S27" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="T27" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U27" s="14" t="s">
+      <c r="T27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U27" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V27" s="14" t="s">
+      <c r="V27" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:22">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="21">
         <v>18421</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="14" t="s">
+      <c r="M28" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="14" t="s">
+      <c r="N28" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="22">
         <v>12371</v>
       </c>
-      <c r="P28" s="14" t="s">
+      <c r="P28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q28" s="14" t="s">
+      <c r="Q28" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="R28" s="14" t="s">
+      <c r="R28" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="S28" s="14" t="s">
+      <c r="S28" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="T28" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U28" s="14" t="s">
+      <c r="T28" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U28" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V28" s="14" t="s">
+      <c r="V28" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:22">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="21">
         <v>18422</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29" s="14" t="s">
+      <c r="G29" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M29" s="14" t="s">
+      <c r="M29" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="N29" s="14" t="s">
+      <c r="N29" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="22">
         <v>12372</v>
       </c>
-      <c r="P29" s="14" t="s">
+      <c r="P29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q29" s="14" t="s">
+      <c r="Q29" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="R29" s="14" t="s">
+      <c r="R29" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="S29" s="14" t="s">
+      <c r="S29" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="T29" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U29" s="14" t="s">
+      <c r="T29" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U29" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V29" s="14" t="s">
+      <c r="V29" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:22">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="21">
         <v>18423</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="L30" s="14" t="s">
+      <c r="L30" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M30" s="14" t="s">
+      <c r="M30" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="N30" s="14" t="s">
+      <c r="N30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="22">
         <v>12373</v>
       </c>
-      <c r="P30" s="14" t="s">
+      <c r="P30" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q30" s="14" t="s">
+      <c r="Q30" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="R30" s="14" t="s">
+      <c r="R30" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="S30" s="14" t="s">
+      <c r="S30" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="T30" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U30" s="14" t="s">
+      <c r="T30" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U30" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V30" s="14" t="s">
+      <c r="V30" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:22">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="21">
         <v>18424</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="14" t="s">
+      <c r="G31" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="L31" s="14" t="s">
+      <c r="L31" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="M31" s="14" t="s">
+      <c r="M31" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="N31" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31" s="22">
         <v>12374</v>
       </c>
-      <c r="P31" s="14" t="s">
+      <c r="P31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q31" s="14" t="s">
+      <c r="Q31" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="R31" s="14" t="s">
+      <c r="R31" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="S31" s="14" t="s">
+      <c r="S31" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="T31" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U31" s="14" t="s">
+      <c r="T31" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U31" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V31" s="14" t="s">
+      <c r="V31" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:22">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="21">
         <v>18425</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="L32" s="14" t="s">
+      <c r="L32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M32" s="14" t="s">
+      <c r="M32" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="14" t="s">
+      <c r="N32" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="22">
         <v>12375</v>
       </c>
-      <c r="P32" s="14" t="s">
+      <c r="P32" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q32" s="14" t="s">
+      <c r="Q32" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="R32" s="14" t="s">
+      <c r="R32" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="S32" s="14" t="s">
+      <c r="S32" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="T32" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U32" s="14" t="s">
+      <c r="T32" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U32" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V32" s="14" t="s">
+      <c r="V32" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:22">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="21">
         <v>18426</v>
       </c>
-      <c r="G33" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" s="14" t="s">
+      <c r="G33" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="L33" s="14" t="s">
+      <c r="L33" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M33" s="14" t="s">
+      <c r="M33" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N33" s="14" t="s">
+      <c r="N33" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O33" s="22">
         <v>12376</v>
       </c>
-      <c r="P33" s="14" t="s">
+      <c r="P33" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q33" s="14" t="s">
+      <c r="Q33" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="R33" s="14" t="s">
+      <c r="R33" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="S33" s="14" t="s">
+      <c r="S33" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="T33" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U33" s="14" t="s">
+      <c r="T33" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U33" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V33" s="14" t="s">
+      <c r="V33" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:22">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="21">
         <v>18427</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M34" s="14" t="s">
+      <c r="M34" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="22">
         <v>12377</v>
       </c>
-      <c r="P34" s="14" t="s">
+      <c r="P34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q34" s="14" t="s">
+      <c r="Q34" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="R34" s="14" t="s">
+      <c r="R34" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="S34" s="14" t="s">
+      <c r="S34" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="T34" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U34" s="14" t="s">
+      <c r="T34" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U34" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V34" s="14" t="s">
+      <c r="V34" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:22">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="21">
         <v>18428</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" s="14" t="s">
+      <c r="G35" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="L35" s="14" t="s">
+      <c r="L35" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M35" s="14" t="s">
+      <c r="M35" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="N35" s="14" t="s">
+      <c r="N35" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="22">
         <v>12378</v>
       </c>
-      <c r="P35" s="14" t="s">
+      <c r="P35" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q35" s="14" t="s">
+      <c r="Q35" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="R35" s="14" t="s">
+      <c r="R35" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="S35" s="14" t="s">
+      <c r="S35" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="T35" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U35" s="14" t="s">
+      <c r="T35" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U35" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V35" s="14" t="s">
+      <c r="V35" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:22">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="21">
         <v>18429</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J36" s="14" t="s">
+      <c r="J36" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="K36" s="14" t="s">
+      <c r="K36" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="L36" s="14" t="s">
+      <c r="L36" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="M36" s="14" t="s">
+      <c r="M36" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N36" s="14" t="s">
+      <c r="N36" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="22">
         <v>12379</v>
       </c>
-      <c r="P36" s="14" t="s">
+      <c r="P36" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q36" s="14" t="s">
+      <c r="Q36" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="R36" s="14" t="s">
+      <c r="R36" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="S36" s="14" t="s">
+      <c r="S36" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="T36" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U36" s="14" t="s">
+      <c r="T36" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U36" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V36" s="14" t="s">
+      <c r="V36" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:22">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="21">
         <v>18430</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I37" s="14" t="s">
+      <c r="G37" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="J37" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="L37" s="14" t="s">
+      <c r="L37" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M37" s="14" t="s">
+      <c r="M37" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="N37" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37" s="22">
         <v>12380</v>
       </c>
-      <c r="P37" s="14" t="s">
+      <c r="P37" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q37" s="14" t="s">
+      <c r="Q37" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="R37" s="14" t="s">
+      <c r="R37" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="S37" s="14" t="s">
+      <c r="S37" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="T37" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U37" s="14" t="s">
+      <c r="T37" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U37" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V37" s="14" t="s">
+      <c r="V37" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:22">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="21">
         <v>18431</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="L38" s="14" t="s">
+      <c r="L38" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M38" s="14" t="s">
+      <c r="M38" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="N38" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38" s="22">
         <v>12381</v>
       </c>
-      <c r="P38" s="14" t="s">
+      <c r="P38" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q38" s="14" t="s">
+      <c r="Q38" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="R38" s="14" t="s">
+      <c r="R38" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="S38" s="14" t="s">
+      <c r="S38" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="T38" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U38" s="14" t="s">
+      <c r="T38" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U38" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V38" s="14" t="s">
+      <c r="V38" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:22">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="21">
         <v>18432</v>
       </c>
-      <c r="G39" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="14" t="s">
+      <c r="G39" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J39" s="14" t="s">
+      <c r="J39" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="L39" s="14" t="s">
+      <c r="L39" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M39" s="14" t="s">
+      <c r="M39" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="N39" s="14" t="s">
+      <c r="N39" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O39" s="21">
+      <c r="O39" s="22">
         <v>12382</v>
       </c>
-      <c r="P39" s="14" t="s">
+      <c r="P39" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q39" s="14" t="s">
+      <c r="Q39" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="R39" s="14" t="s">
+      <c r="R39" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="S39" s="14" t="s">
+      <c r="S39" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="T39" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U39" s="14" t="s">
+      <c r="T39" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U39" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V39" s="14" t="s">
+      <c r="V39" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:22">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="21">
         <v>18433</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="L40" s="14" t="s">
+      <c r="L40" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="14" t="s">
+      <c r="M40" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="N40" s="14" t="s">
+      <c r="N40" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O40" s="21">
+      <c r="O40" s="22">
         <v>12383</v>
       </c>
-      <c r="P40" s="14" t="s">
+      <c r="P40" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q40" s="14" t="s">
+      <c r="Q40" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="R40" s="14" t="s">
+      <c r="R40" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="S40" s="14" t="s">
+      <c r="S40" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="T40" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U40" s="14" t="s">
+      <c r="T40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U40" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V40" s="14" t="s">
+      <c r="V40" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:22">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="21">
         <v>18434</v>
       </c>
-      <c r="G41" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41" s="14" t="s">
+      <c r="G41" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="L41" s="14" t="s">
+      <c r="L41" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="M41" s="14" t="s">
+      <c r="M41" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N41" s="14" t="s">
+      <c r="N41" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O41" s="21">
+      <c r="O41" s="22">
         <v>12384</v>
       </c>
-      <c r="P41" s="14" t="s">
+      <c r="P41" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q41" s="14" t="s">
+      <c r="Q41" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="R41" s="14" t="s">
+      <c r="R41" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="S41" s="14" t="s">
+      <c r="S41" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="T41" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U41" s="14" t="s">
+      <c r="T41" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V41" s="14" t="s">
+      <c r="V41" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:22">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="21">
         <v>18435</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="K42" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="L42" s="14" t="s">
+      <c r="L42" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M42" s="14" t="s">
+      <c r="M42" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N42" s="14" t="s">
+      <c r="N42" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O42" s="21">
+      <c r="O42" s="22">
         <v>12385</v>
       </c>
-      <c r="P42" s="14" t="s">
+      <c r="P42" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q42" s="14" t="s">
+      <c r="Q42" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="R42" s="14" t="s">
+      <c r="R42" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="S42" s="14" t="s">
+      <c r="S42" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="T42" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U42" s="14" t="s">
+      <c r="T42" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U42" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V42" s="14" t="s">
+      <c r="V42" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:22">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="21">
         <v>18436</v>
       </c>
-      <c r="G43" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I43" s="14" t="s">
+      <c r="G43" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J43" s="14" t="s">
+      <c r="J43" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="K43" s="14" t="s">
+      <c r="K43" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="L43" s="14" t="s">
+      <c r="L43" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M43" s="14" t="s">
+      <c r="M43" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N43" s="14" t="s">
+      <c r="N43" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O43" s="21">
+      <c r="O43" s="22">
         <v>12386</v>
       </c>
-      <c r="P43" s="14" t="s">
+      <c r="P43" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q43" s="14" t="s">
+      <c r="Q43" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="R43" s="14" t="s">
+      <c r="R43" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="S43" s="14" t="s">
+      <c r="S43" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="T43" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U43" s="14" t="s">
+      <c r="T43" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U43" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V43" s="14" t="s">
+      <c r="V43" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:22">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="21">
         <v>18437</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I44" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J44" s="14" t="s">
+      <c r="J44" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="K44" s="14" t="s">
+      <c r="K44" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="L44" s="14" t="s">
+      <c r="L44" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M44" s="14" t="s">
+      <c r="M44" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="N44" s="14" t="s">
+      <c r="N44" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O44" s="21">
+      <c r="O44" s="22">
         <v>12387</v>
       </c>
-      <c r="P44" s="14" t="s">
+      <c r="P44" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q44" s="14" t="s">
+      <c r="Q44" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="R44" s="14" t="s">
+      <c r="R44" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="S44" s="14" t="s">
+      <c r="S44" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="T44" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U44" s="14" t="s">
+      <c r="T44" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U44" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V44" s="14" t="s">
+      <c r="V44" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="1:22">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="21">
         <v>18438</v>
       </c>
-      <c r="G45" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="14" t="s">
+      <c r="G45" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J45" s="14" t="s">
+      <c r="J45" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="K45" s="14" t="s">
+      <c r="K45" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="L45" s="14" t="s">
+      <c r="L45" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M45" s="14" t="s">
+      <c r="M45" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="N45" s="14" t="s">
+      <c r="N45" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O45" s="22">
         <v>12388</v>
       </c>
-      <c r="P45" s="14" t="s">
+      <c r="P45" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q45" s="14" t="s">
+      <c r="Q45" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="R45" s="14" t="s">
+      <c r="R45" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="S45" s="14" t="s">
+      <c r="S45" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="T45" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U45" s="14" t="s">
+      <c r="T45" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U45" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V45" s="14" t="s">
+      <c r="V45" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:22">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="21">
         <v>18439</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H46" s="14" t="s">
+      <c r="H46" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="I46" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J46" s="14" t="s">
+      <c r="J46" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="K46" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="L46" s="14" t="s">
+      <c r="L46" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="M46" s="14" t="s">
+      <c r="M46" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N46" s="14" t="s">
+      <c r="N46" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O46" s="21">
+      <c r="O46" s="22">
         <v>12389</v>
       </c>
-      <c r="P46" s="14" t="s">
+      <c r="P46" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q46" s="14" t="s">
+      <c r="Q46" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="R46" s="14" t="s">
+      <c r="R46" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="S46" s="14" t="s">
+      <c r="S46" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="T46" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U46" s="14" t="s">
+      <c r="T46" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U46" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V46" s="14" t="s">
+      <c r="V46" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:22">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="21">
         <v>18440</v>
       </c>
-      <c r="G47" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I47" s="14" t="s">
+      <c r="G47" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="J47" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="K47" s="14" t="s">
+      <c r="K47" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="L47" s="14" t="s">
+      <c r="L47" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M47" s="14" t="s">
+      <c r="M47" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N47" s="14" t="s">
+      <c r="N47" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O47" s="21">
+      <c r="O47" s="22">
         <v>12390</v>
       </c>
-      <c r="P47" s="14" t="s">
+      <c r="P47" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q47" s="14" t="s">
+      <c r="Q47" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="R47" s="14" t="s">
+      <c r="R47" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="S47" s="14" t="s">
+      <c r="S47" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="T47" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U47" s="14" t="s">
+      <c r="T47" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U47" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V47" s="14" t="s">
+      <c r="V47" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="1:22">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="21">
         <v>18441</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="H48" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J48" s="14" t="s">
+      <c r="J48" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="K48" s="14" t="s">
+      <c r="K48" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="L48" s="14" t="s">
+      <c r="L48" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M48" s="14" t="s">
+      <c r="M48" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N48" s="14" t="s">
+      <c r="N48" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O48" s="21">
+      <c r="O48" s="22">
         <v>12391</v>
       </c>
-      <c r="P48" s="14" t="s">
+      <c r="P48" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q48" s="14" t="s">
+      <c r="Q48" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="R48" s="14" t="s">
+      <c r="R48" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="S48" s="14" t="s">
+      <c r="S48" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="T48" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U48" s="14" t="s">
+      <c r="T48" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U48" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V48" s="14" t="s">
+      <c r="V48" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:22">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="21">
         <v>18442</v>
       </c>
-      <c r="G49" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="14" t="s">
+      <c r="G49" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J49" s="14" t="s">
+      <c r="J49" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="K49" s="14" t="s">
+      <c r="K49" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="L49" s="14" t="s">
+      <c r="L49" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M49" s="14" t="s">
+      <c r="M49" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="N49" s="14" t="s">
+      <c r="N49" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O49" s="21">
+      <c r="O49" s="22">
         <v>12392</v>
       </c>
-      <c r="P49" s="14" t="s">
+      <c r="P49" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q49" s="14" t="s">
+      <c r="Q49" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="R49" s="14" t="s">
+      <c r="R49" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="S49" s="14" t="s">
+      <c r="S49" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="T49" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U49" s="14" t="s">
+      <c r="T49" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U49" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V49" s="14" t="s">
+      <c r="V49" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:22">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="21">
         <v>18443</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H50" s="14" t="s">
+      <c r="H50" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I50" s="14" t="s">
+      <c r="I50" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J50" s="14" t="s">
+      <c r="J50" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="K50" s="14" t="s">
+      <c r="K50" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="L50" s="14" t="s">
+      <c r="L50" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M50" s="14" t="s">
+      <c r="M50" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="N50" s="14" t="s">
+      <c r="N50" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O50" s="21">
+      <c r="O50" s="22">
         <v>12393</v>
       </c>
-      <c r="P50" s="14" t="s">
+      <c r="P50" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q50" s="14" t="s">
+      <c r="Q50" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="R50" s="14" t="s">
+      <c r="R50" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="S50" s="14" t="s">
+      <c r="S50" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="T50" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U50" s="14" t="s">
+      <c r="T50" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U50" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V50" s="14" t="s">
+      <c r="V50" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7245,7 +7111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -7255,203 +7121,97 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.46875" style="13" customWidth="1"/>
-    <col min="2" max="6" width="9" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="21" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.3515625" style="14" customWidth="1"/>
+    <col min="3" max="6" width="9" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:5">
-      <c r="A2" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="A3" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="kevinlee1234@gmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="21" style="13" customWidth="1"/>
-    <col min="2" max="2" width="19.3515625" style="13" customWidth="1"/>
-    <col min="3" max="6" width="9" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:5">
-      <c r="A2" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7467,8 +7227,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -7478,108 +7238,108 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="103.1796875" style="13" customWidth="1"/>
-    <col min="4" max="6" width="9" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="21" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="103.1796875" style="14" customWidth="1"/>
+    <col min="4" max="6" width="9" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:5">
+      <c r="A2" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:5">
+      <c r="A3" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:5">
-      <c r="A2" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="14" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5">
+      <c r="A4" s="16"/>
+      <c r="B4" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="15"/>
-      <c r="B4" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
-      <c r="A5" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7594,8 +7354,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -7605,84 +7365,84 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="47.1796875" style="13" customWidth="1"/>
-    <col min="2" max="6" width="9" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="47.1796875" style="14" customWidth="1"/>
+    <col min="2" max="6" width="9" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A1" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="A1" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" ht="126" customHeight="1" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7693,8 +7453,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -7704,141 +7464,141 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.3515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="22.46875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14" style="13" customWidth="1"/>
-    <col min="4" max="4" width="53.8203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9" style="13" customWidth="1"/>
-    <col min="6" max="6" width="19.46875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="14.3515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="22.46875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14" style="14" customWidth="1"/>
+    <col min="4" max="4" width="53.8203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="9" style="14" customWidth="1"/>
+    <col min="6" max="6" width="19.46875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:6">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14" t="s">
+      <c r="B4" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:6">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:6">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:6">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:6">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:6">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:6">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7854,8 +7614,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -7865,112 +7625,218 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14" style="13" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="13" customWidth="1"/>
-    <col min="4" max="6" width="9" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="14" style="14" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="14" customWidth="1"/>
+    <col min="4" max="6" width="9" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="59.46875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="43.6484375" style="14" customWidth="1"/>
+    <col min="3" max="6" width="9" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:5">
+      <c r="A2" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:5">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:5">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:5">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7982,107 +7848,195 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="59.46875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="43.6484375" style="13" customWidth="1"/>
-    <col min="3" max="6" width="9" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="9.8828125" customWidth="1"/>
+    <col min="2" max="2" width="13.6484375" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="15" max="15" width="18.296875" customWidth="1"/>
+    <col min="16" max="16" width="15.6484375" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2"/>
+    <col min="21" max="21" width="16.8203125" customWidth="1"/>
+    <col min="24" max="24" width="20" customWidth="1"/>
+    <col min="25" max="25" width="19.7890625" customWidth="1"/>
+    <col min="26" max="26" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A1" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:5">
-      <c r="A2" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+    <row r="1" spans="1:26">
+      <c r="A1" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1" t="s">
+        <v>411</v>
+      </c>
+      <c r="M1" t="s">
+        <v>412</v>
+      </c>
+      <c r="N1" t="s">
+        <v>413</v>
+      </c>
+      <c r="O1" t="s">
+        <v>414</v>
+      </c>
+      <c r="P1" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="R1" t="s">
+        <v>417</v>
+      </c>
+      <c r="S1" t="s">
+        <v>418</v>
+      </c>
+      <c r="T1" t="s">
+        <v>419</v>
+      </c>
+      <c r="U1" t="s">
+        <v>420</v>
+      </c>
+      <c r="V1" t="s">
+        <v>421</v>
+      </c>
+      <c r="W1" t="s">
+        <v>422</v>
+      </c>
+      <c r="X1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" ht="220" customHeight="1" spans="1:26">
+      <c r="A2" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" s="8">
+        <v>28.98</v>
+      </c>
+      <c r="F2" s="8">
+        <v>30.51</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="L2" t="s">
+        <v>435</v>
+      </c>
+      <c r="M2" t="s">
+        <v>436</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="O2" s="12">
+        <f>(E2*N2)</f>
+        <v>57.96</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="U2" t="s">
+        <v>442</v>
+      </c>
+      <c r="V2" t="s">
+        <v>443</v>
+      </c>
+      <c r="W2" t="s">
+        <v>444</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>447</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" display="Peter@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>